--- a/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
+++ b/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="391">
   <si>
     <t xml:space="preserve">PREFIX</t>
   </si>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
-    <t xml:space="preserve">^https://ark.philharmoniedeparis.fr/ark/49250/[0-9]*?$</t>
+    <t xml:space="preserve">^https://ark.philharmoniedeparis.fr/ark:49250/[0-9]*?$</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">efrbroo:F30_Publication_Event</t>
   </si>
   <si>
-    <t xml:space="preserve">^https://ark.philharmoniedeparis.fr/ark/49250/[0-9]*#event</t>
+    <t xml:space="preserve">^https://ark.philharmoniedeparis.fr/ark:49250/[0-9]*#event</t>
   </si>
   <si>
     <t xml:space="preserve">ecrm:E7_Activity</t>
@@ -430,6 +430,9 @@
     <t xml:space="preserve">mus:U168_has_parallel_title</t>
   </si>
   <si>
+    <t xml:space="preserve">0..n</t>
+  </si>
+  <si>
     <t xml:space="preserve">U168 has parallel title</t>
   </si>
   <si>
@@ -460,9 +463,6 @@
     <t xml:space="preserve">mus:U65_has_geographical_context</t>
   </si>
   <si>
-    <t xml:space="preserve">0..n</t>
-  </si>
-  <si>
     <t xml:space="preserve">U65 has geographical context</t>
   </si>
   <si>
@@ -514,6 +514,9 @@
     <t xml:space="preserve">Properties on mus:M167_Publication_Expression_Fragment</t>
   </si>
   <si>
+    <t xml:space="preserve">1..n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Properties on efrbroo:F30_Publication_Event</t>
   </si>
   <si>
@@ -569,9 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">mus:U23_has_casting_detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1..n</t>
   </si>
   <si>
     <t xml:space="preserve">M23 Casting Detail</t>
@@ -1211,7 +1211,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1346,11 +1346,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1793,7 +1788,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2026,10 +2021,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2062,14 +2053,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2095,18 +2086,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2134,7 +2117,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2285,10 +2268,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="D35 B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.09"/>
   </cols>
@@ -2411,21 +2394,21 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="D35 G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="4" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="42.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="42.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="68.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.54"/>
@@ -2947,18 +2930,18 @@
   <dimension ref="A1:AMJ76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="D60" activeCellId="0" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="40.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="36.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="29" width="37.79"/>
@@ -2967,19 +2950,18 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="12" width="41.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="30" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="31" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="4" width="28.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="22.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="22.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2991,7 +2973,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="F1" s="0"/>
-      <c r="U1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6"/>
@@ -3019,15 +3001,14 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="36"/>
       <c r="J4" s="37"/>
-      <c r="V4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" s="15" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
@@ -3065,30 +3046,31 @@
       <c r="O5" s="16" t="s">
         <v>86</v>
       </c>
+      <c r="P5" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="Q5" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="X5" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="41" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,6 +3102,7 @@
         <v>103</v>
       </c>
       <c r="O6" s="44"/>
+      <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,33 +3152,30 @@
         <v>115</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="17" t="s">
         <v>114</v>
       </c>
+      <c r="Q7" s="46" t="s">
+        <v>116</v>
+      </c>
       <c r="R7" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S7" s="46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T7" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="U7" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="V7" s="46" t="s">
+        <v>120</v>
+      </c>
       <c r="W7" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X7" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y7" s="46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3209,7 +3189,8 @@
       <c r="J8" s="54"/>
       <c r="K8" s="54"/>
       <c r="O8" s="53"/>
-      <c r="X8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,43 +3201,44 @@
       <c r="B9" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61" t="str">
+      <c r="G9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60" t="str">
         <f aca="false">IF(LEFT($D9,SEARCH("..",$D9,1)-1)="n","",IF(LEFT($D9,SEARCH("..",$D9,1)-1)="0","",LEFT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v/>
       </c>
-      <c r="K9" s="61" t="str">
+      <c r="K9" s="60" t="str">
         <f aca="false">IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="n","",IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="0","",RIGHT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L9" s="62" t="str">
+      <c r="L9" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E9,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M9" s="62" t="str">
+      <c r="M9" s="61" t="str">
         <f aca="false">IF(L9="sh:Literal",E9,"")</f>
         <v/>
       </c>
-      <c r="N9" s="62" t="str">
+      <c r="N9" s="61" t="str">
         <f aca="false">IF($L9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
         <v/>
       </c>
-      <c r="O9" s="63" t="str">
+      <c r="O9" s="62" t="str">
         <f aca="false">IF($L9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E9)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="W9" s="64"/>
+      <c r="V9" s="63"/>
+      <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,38 +3255,39 @@
       <c r="D10" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="61" t="str">
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="60" t="str">
         <f aca="false">IF(LEFT($D10,SEARCH("..",$D10,1)-1)="n","",IF(LEFT($D10,SEARCH("..",$D10,1)-1)="0","",LEFT($D10,SEARCH("..",$D10,1)-1)))</f>
         <v/>
       </c>
-      <c r="K10" s="61" t="str">
+      <c r="K10" s="60" t="str">
         <f aca="false">IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="n","",IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="0","",RIGHT($D10,SEARCH("..",$D10,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L10" s="62" t="str">
+      <c r="L10" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M10" s="62" t="str">
+      <c r="M10" s="61" t="str">
         <f aca="false">IF(L10="sh:Literal",E10,"")</f>
         <v/>
       </c>
-      <c r="N10" s="62" t="str">
+      <c r="N10" s="61" t="str">
         <f aca="false">IF($L10="sh:IRI",IF($E10&lt;&gt;"",$E10,""),"")</f>
         <v/>
       </c>
-      <c r="O10" s="63" t="str">
+      <c r="O10" s="62" t="str">
         <f aca="false">IF($L10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E10)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="W10" s="64"/>
+      <c r="V10" s="63"/>
+      <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,30 +3307,30 @@
       <c r="E11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="J11" s="61" t="str">
+      <c r="J11" s="60" t="str">
         <f aca="false">IF(LEFT($D11,SEARCH("..",$D11,1)-1)="n","",IF(LEFT($D11,SEARCH("..",$D11,1)-1)="0","",LEFT($D11,SEARCH("..",$D11,1)-1)))</f>
         <v/>
       </c>
-      <c r="K11" s="61" t="str">
+      <c r="K11" s="60" t="str">
         <f aca="false">IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="n","",IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="0","",RIGHT($D11,SEARCH("..",$D11,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L11" s="62" t="str">
+      <c r="L11" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E11,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M11" s="62" t="str">
+      <c r="M11" s="61" t="str">
         <f aca="false">IF(L11="sh:Literal",E11,"")</f>
         <v/>
       </c>
-      <c r="N11" s="62" t="str">
+      <c r="N11" s="61" t="str">
         <f aca="false">IF($L11="sh:IRI",IF($E11&lt;&gt;"",$E11,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="O11" s="63" t="str">
+      <c r="O11" s="62" t="str">
         <f aca="false">IF($L11&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E11)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3369,30 +3352,30 @@
       <c r="E12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="61" t="str">
+      <c r="J12" s="60" t="str">
         <f aca="false">IF(LEFT($D12,SEARCH("..",$D12,1)-1)="n","",IF(LEFT($D12,SEARCH("..",$D12,1)-1)="0","",LEFT($D12,SEARCH("..",$D12,1)-1)))</f>
         <v/>
       </c>
-      <c r="K12" s="61" t="str">
+      <c r="K12" s="60" t="str">
         <f aca="false">IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="n","",IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="0","",RIGHT($D12,SEARCH("..",$D12,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L12" s="62" t="str">
+      <c r="L12" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E12,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M12" s="62" t="str">
+      <c r="M12" s="61" t="str">
         <f aca="false">IF(L12="sh:Literal",E12,"")</f>
         <v/>
       </c>
-      <c r="N12" s="62" t="str">
+      <c r="N12" s="61" t="str">
         <f aca="false">IF($L12="sh:IRI",IF($E12&lt;&gt;"",$E12,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="O12" s="63" t="str">
+      <c r="O12" s="62" t="str">
         <f aca="false">IF($L12&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E12)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3409,35 +3392,35 @@
         <v>133</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="61" t="str">
+      <c r="F13" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="60" t="str">
         <f aca="false">IF(LEFT($D13,SEARCH("..",$D13,1)-1)="n","",IF(LEFT($D13,SEARCH("..",$D13,1)-1)="0","",LEFT($D13,SEARCH("..",$D13,1)-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="61" t="str">
+      <c r="K13" s="60" t="str">
         <f aca="false">IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="n","",IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="0","",RIGHT($D13,SEARCH("..",$D13,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L13" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E13,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M13" s="62" t="str">
+      <c r="M13" s="61" t="str">
         <f aca="false">IF(L13="sh:Literal",E13,"")</f>
         <v/>
       </c>
-      <c r="N13" s="62" t="str">
+      <c r="N13" s="61" t="str">
         <f aca="false">IF($L13="sh:IRI",IF($E13&lt;&gt;"",$E13,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O13" s="63" t="str">
+      <c r="O13" s="62" t="str">
         <f aca="false">IF($L13&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E13)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3451,38 +3434,38 @@
         <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="61" t="str">
+      <c r="F14" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="60" t="str">
         <f aca="false">IF(LEFT($D14,SEARCH("..",$D14,1)-1)="n","",IF(LEFT($D14,SEARCH("..",$D14,1)-1)="0","",LEFT($D14,SEARCH("..",$D14,1)-1)))</f>
         <v/>
       </c>
-      <c r="K14" s="61" t="str">
+      <c r="K14" s="60" t="str">
         <f aca="false">IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="n","",IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="0","",RIGHT($D14,SEARCH("..",$D14,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L14" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E14,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M14" s="62" t="str">
+      <c r="M14" s="61" t="str">
         <f aca="false">IF(L14="sh:Literal",E14,"")</f>
         <v/>
       </c>
-      <c r="N14" s="62" t="str">
+      <c r="N14" s="61" t="str">
         <f aca="false">IF($L14="sh:IRI",IF($E14&lt;&gt;"",$E14,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O14" s="63" t="str">
+      <c r="O14" s="62" t="str">
         <f aca="false">IF($L14&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E14)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3496,38 +3479,38 @@
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="61" t="str">
+      <c r="F15" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="60" t="str">
         <f aca="false">IF(LEFT($D15,SEARCH("..",$D15,1)-1)="n","",IF(LEFT($D15,SEARCH("..",$D15,1)-1)="0","",LEFT($D15,SEARCH("..",$D15,1)-1)))</f>
         <v/>
       </c>
-      <c r="K15" s="61" t="str">
+      <c r="K15" s="60" t="str">
         <f aca="false">IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="n","",IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="0","",RIGHT($D15,SEARCH("..",$D15,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L15" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E15,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M15" s="62" t="str">
+      <c r="M15" s="61" t="str">
         <f aca="false">IF(L15="sh:Literal",E15,"")</f>
         <v/>
       </c>
-      <c r="N15" s="62" t="str">
+      <c r="N15" s="61" t="str">
         <f aca="false">IF($L15="sh:IRI",IF($E15&lt;&gt;"",$E15,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="O15" s="63" t="str">
+      <c r="O15" s="62" t="str">
         <f aca="false">IF($L15&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E15)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3541,7 +3524,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>125</v>
@@ -3549,30 +3532,30 @@
       <c r="E16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" s="61" t="str">
+      <c r="F16" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="60" t="str">
         <f aca="false">IF(LEFT($D16,SEARCH("..",$D16,1)-1)="n","",IF(LEFT($D16,SEARCH("..",$D16,1)-1)="0","",LEFT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v/>
       </c>
-      <c r="K16" s="61" t="str">
+      <c r="K16" s="60" t="str">
         <f aca="false">IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="n","",IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="0","",RIGHT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L16" s="62" t="str">
+      <c r="L16" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E16,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M16" s="62" t="str">
+      <c r="M16" s="61" t="str">
         <f aca="false">IF(L16="sh:Literal",E16,"")</f>
         <v/>
       </c>
-      <c r="N16" s="62" t="str">
+      <c r="N16" s="61" t="str">
         <f aca="false">IF($L16="sh:IRI",IF($E16&lt;&gt;"",$E16,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="O16" s="63" t="str">
+      <c r="O16" s="62" t="str">
         <f aca="false">IF($L16&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E16)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3586,38 +3569,38 @@
         <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="61" t="str">
+      <c r="F17" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="60" t="str">
         <f aca="false">IF(LEFT($D17,SEARCH("..",$D17,1)-1)="n","",IF(LEFT($D17,SEARCH("..",$D17,1)-1)="0","",LEFT($D17,SEARCH("..",$D17,1)-1)))</f>
         <v/>
       </c>
-      <c r="K17" s="61" t="str">
+      <c r="K17" s="60" t="str">
         <f aca="false">IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="n","",IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="0","",RIGHT($D17,SEARCH("..",$D17,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L17" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M17" s="62" t="str">
+      <c r="M17" s="61" t="str">
         <f aca="false">IF(L17="sh:Literal",E17,"")</f>
         <v/>
       </c>
-      <c r="N17" s="62" t="str">
+      <c r="N17" s="61" t="str">
         <f aca="false">IF($L17="sh:IRI",IF($E17&lt;&gt;"",$E17,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="O17" s="63" t="str">
+      <c r="O17" s="62" t="str">
         <f aca="false">IF($L17&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E17)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3630,36 +3613,36 @@
       <c r="B18" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>143</v>
+      <c r="C18" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="61" t="str">
+      <c r="J18" s="60" t="str">
         <f aca="false">IF(LEFT($D18,SEARCH("..",$D18,1)-1)="n","",IF(LEFT($D18,SEARCH("..",$D18,1)-1)="0","",LEFT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="K18" s="61" t="str">
+      <c r="K18" s="60" t="str">
         <f aca="false">IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="n","",IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="0","",RIGHT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="L18" s="62" t="str">
+      <c r="L18" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M18" s="62" t="str">
+      <c r="M18" s="61" t="str">
         <f aca="false">IF(L18="sh:Literal",E18,"")</f>
         <v/>
       </c>
-      <c r="N18" s="62" t="str">
+      <c r="N18" s="61" t="str">
         <f aca="false">IF($L18="sh:IRI",IF($E18&lt;&gt;"",$E18,""),"")</f>
         <v/>
       </c>
-      <c r="O18" s="63" t="str">
+      <c r="O18" s="62" t="str">
         <f aca="false">IF($L18&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E18)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3672,36 +3655,36 @@
       <c r="B19" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="61" t="str">
+      <c r="J19" s="60" t="str">
         <f aca="false">IF(LEFT($D19,SEARCH("..",$D19,1)-1)="n","",IF(LEFT($D19,SEARCH("..",$D19,1)-1)="0","",LEFT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="K19" s="61" t="str">
+      <c r="K19" s="60" t="str">
         <f aca="false">IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="n","",IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="0","",RIGHT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="L19" s="62" t="str">
+      <c r="L19" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M19" s="62" t="str">
+      <c r="M19" s="61" t="str">
         <f aca="false">IF(L19="sh:Literal",E19,"")</f>
         <v/>
       </c>
-      <c r="N19" s="62" t="str">
+      <c r="N19" s="61" t="str">
         <f aca="false">IF($L19="sh:IRI",IF($E19&lt;&gt;"",$E19,""),"")</f>
         <v/>
       </c>
-      <c r="O19" s="63" t="str">
+      <c r="O19" s="62" t="str">
         <f aca="false">IF($L19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E19)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3714,36 +3697,36 @@
       <c r="B20" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="61" t="str">
+      <c r="J20" s="60" t="str">
         <f aca="false">IF(LEFT($D20,SEARCH("..",$D20,1)-1)="n","",IF(LEFT($D20,SEARCH("..",$D20,1)-1)="0","",LEFT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="K20" s="61" t="str">
+      <c r="K20" s="60" t="str">
         <f aca="false">IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="n","",IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="0","",RIGHT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="L20" s="62" t="str">
+      <c r="L20" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M20" s="62" t="str">
+      <c r="M20" s="61" t="str">
         <f aca="false">IF(L20="sh:Literal",E20,"")</f>
         <v/>
       </c>
-      <c r="N20" s="62" t="str">
+      <c r="N20" s="61" t="str">
         <f aca="false">IF($L20="sh:IRI",IF($E20&lt;&gt;"",$E20,""),"")</f>
         <v/>
       </c>
-      <c r="O20" s="63" t="str">
+      <c r="O20" s="62" t="str">
         <f aca="false">IF($L20&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E20)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3756,36 +3739,36 @@
       <c r="B21" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="61" t="str">
+      <c r="J21" s="60" t="str">
         <f aca="false">IF(LEFT($D21,SEARCH("..",$D21,1)-1)="n","",IF(LEFT($D21,SEARCH("..",$D21,1)-1)="0","",LEFT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="K21" s="61" t="str">
+      <c r="K21" s="60" t="str">
         <f aca="false">IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="n","",IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="0","",RIGHT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="L21" s="62" t="str">
+      <c r="L21" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E21,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M21" s="62" t="str">
+      <c r="M21" s="61" t="str">
         <f aca="false">IF(L21="sh:Literal",E21,"")</f>
         <v/>
       </c>
-      <c r="N21" s="62" t="str">
+      <c r="N21" s="61" t="str">
         <f aca="false">IF($L21="sh:IRI",IF($E21&lt;&gt;"",$E21,""),"")</f>
         <v/>
       </c>
-      <c r="O21" s="63" t="str">
+      <c r="O21" s="62" t="str">
         <f aca="false">IF($L21&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E21)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3802,35 +3785,35 @@
         <v>152</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="J22" s="61" t="str">
+      <c r="J22" s="60" t="str">
         <f aca="false">IF(LEFT($D22,SEARCH("..",$D22,1)-1)="n","",IF(LEFT($D22,SEARCH("..",$D22,1)-1)="0","",LEFT($D22,SEARCH("..",$D22,1)-1)))</f>
         <v/>
       </c>
-      <c r="K22" s="61" t="str">
+      <c r="K22" s="60" t="str">
         <f aca="false">IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="n","",IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="0","",RIGHT($D22,SEARCH("..",$D22,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L22" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E22,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M22" s="62" t="str">
+      <c r="M22" s="61" t="str">
         <f aca="false">IF(L22="sh:Literal",E22,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N22" s="62" t="str">
+      <c r="N22" s="61" t="str">
         <f aca="false">IF($L22="sh:IRI",IF($E22&lt;&gt;"",$E22,""),"")</f>
         <v/>
       </c>
-      <c r="O22" s="63" t="str">
+      <c r="O22" s="62" t="str">
         <f aca="false">IF($L22&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E22)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3847,88 +3830,89 @@
         <v>155</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="61" t="str">
+      <c r="J23" s="60" t="str">
         <f aca="false">IF(LEFT($D23,SEARCH("..",$D23,1)-1)="n","",IF(LEFT($D23,SEARCH("..",$D23,1)-1)="0","",LEFT($D23,SEARCH("..",$D23,1)-1)))</f>
         <v/>
       </c>
-      <c r="K23" s="61" t="str">
+      <c r="K23" s="60" t="str">
         <f aca="false">IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="n","",IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="0","",RIGHT($D23,SEARCH("..",$D23,1)-1)))</f>
         <v/>
       </c>
-      <c r="L23" s="62" t="str">
+      <c r="L23" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M23" s="62" t="str">
+      <c r="M23" s="61" t="str">
         <f aca="false">IF(L23="sh:Literal",E23,"")</f>
         <v/>
       </c>
-      <c r="N23" s="62" t="str">
+      <c r="N23" s="61" t="str">
         <f aca="false">IF($L23="sh:IRI",IF($E23&lt;&gt;"",$E23,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="O23" s="63" t="str">
+      <c r="O23" s="62" t="str">
         <f aca="false">IF($L23&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E23)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
-    <row r="24" s="68" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="66" t="str">
+    <row r="24" s="66" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="65" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A24))</f>
         <v>mus:P24</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="66" t="s">
         <v>157</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F24" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72" t="str">
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71" t="str">
         <f aca="false">IF(LEFT($D24,SEARCH("..",$D24,1)-1)="n","",IF(LEFT($D24,SEARCH("..",$D24,1)-1)="0","",LEFT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="K24" s="72" t="str">
+      <c r="K24" s="71" t="str">
         <f aca="false">IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="n","",IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="0","",RIGHT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="L24" s="73" t="str">
+      <c r="L24" s="72" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E24,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M24" s="73" t="str">
+      <c r="M24" s="72" t="str">
         <f aca="false">IF(L24="sh:Literal",E24,"")</f>
         <v/>
       </c>
-      <c r="N24" s="62" t="str">
+      <c r="N24" s="61" t="str">
         <f aca="false">IF($L24="sh:IRI",IF($E24&lt;&gt;"",$E24,""),"")</f>
         <v>mus:M167_Publication_Expression_Fragment</v>
       </c>
-      <c r="O24" s="74" t="str">
+      <c r="O24" s="73" t="str">
         <f aca="false">IF($L24&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E24)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X24" s="70"/>
-      <c r="AMJ24" s="22"/>
+      <c r="W24" s="69"/>
+      <c r="AMI24" s="22"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56" t="str">
@@ -3942,35 +3926,35 @@
         <v>159</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="J25" s="61" t="str">
+      <c r="J25" s="60" t="str">
         <f aca="false">IF(LEFT($D25,SEARCH("..",$D25,1)-1)="n","",IF(LEFT($D25,SEARCH("..",$D25,1)-1)="0","",LEFT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="K25" s="61" t="str">
+      <c r="K25" s="60" t="str">
         <f aca="false">IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="n","",IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="0","",RIGHT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="L25" s="62" t="str">
+      <c r="L25" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E25,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M25" s="62" t="str">
+      <c r="M25" s="61" t="str">
         <f aca="false">IF(L25="sh:Literal",E25,"")</f>
         <v/>
       </c>
-      <c r="N25" s="62" t="str">
+      <c r="N25" s="61" t="str">
         <f aca="false">IF($L25="sh:IRI",IF($E25&lt;&gt;"",$E25,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="O25" s="63" t="str">
+      <c r="O25" s="62" t="str">
         <f aca="false">IF($L25&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E25)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -3985,7 +3969,8 @@
       <c r="J26" s="54"/>
       <c r="K26" s="54"/>
       <c r="O26" s="53"/>
-      <c r="X26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,46 +3978,47 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A27))</f>
         <v>mus:P27</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E27" s="24"/>
-      <c r="F27" s="59" t="s">
+      <c r="F27" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61" t="str">
+      <c r="G27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60" t="str">
         <f aca="false">IF(LEFT($D27,SEARCH("..",$D27,1)-1)="n","",IF(LEFT($D27,SEARCH("..",$D27,1)-1)="0","",LEFT($D27,SEARCH("..",$D27,1)-1)))</f>
         <v/>
       </c>
-      <c r="K27" s="61" t="str">
+      <c r="K27" s="60" t="str">
         <f aca="false">IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="n","",IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="0","",RIGHT($D27,SEARCH("..",$D27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="62" t="str">
+      <c r="L27" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M27" s="62" t="str">
+      <c r="M27" s="61" t="str">
         <f aca="false">IF(L27="sh:Literal",E27,"")</f>
         <v/>
       </c>
-      <c r="N27" s="62" t="str">
+      <c r="N27" s="61" t="str">
         <f aca="false">IF($L27="sh:IRI",IF($E27&lt;&gt;"",$E27,""),"")</f>
         <v/>
       </c>
-      <c r="O27" s="63" t="str">
+      <c r="O27" s="62" t="str">
         <f aca="false">IF($L27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E27)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="W27" s="64"/>
+      <c r="V27" s="63"/>
+      <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4026,7 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A28))</f>
         <v>mus:P28</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="57" t="s">
@@ -4049,38 +4035,39 @@
       <c r="D28" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="59" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="61" t="str">
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="60" t="str">
         <f aca="false">IF(LEFT($D28,SEARCH("..",$D28,1)-1)="n","",IF(LEFT($D28,SEARCH("..",$D28,1)-1)="0","",LEFT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v/>
       </c>
-      <c r="K28" s="61" t="str">
+      <c r="K28" s="60" t="str">
         <f aca="false">IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="n","",IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="0","",RIGHT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L28" s="62" t="str">
+      <c r="L28" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M28" s="62" t="str">
+      <c r="M28" s="61" t="str">
         <f aca="false">IF(L28="sh:Literal",E28,"")</f>
         <v/>
       </c>
-      <c r="N28" s="62" t="str">
+      <c r="N28" s="61" t="str">
         <f aca="false">IF($L28="sh:IRI",IF($E28&lt;&gt;"",$E28,""),"")</f>
         <v/>
       </c>
-      <c r="O28" s="63" t="str">
+      <c r="O28" s="62" t="str">
         <f aca="false">IF($L28&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E28)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="W28" s="64"/>
+      <c r="V28" s="63"/>
+      <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,7 +4075,7 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A29))</f>
         <v>mus:P29</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -4100,30 +4087,30 @@
       <c r="E29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="J29" s="61" t="str">
+      <c r="J29" s="60" t="str">
         <f aca="false">IF(LEFT($D29,SEARCH("..",$D29,1)-1)="n","",IF(LEFT($D29,SEARCH("..",$D29,1)-1)="0","",LEFT($D29,SEARCH("..",$D29,1)-1)))</f>
         <v/>
       </c>
-      <c r="K29" s="61" t="str">
+      <c r="K29" s="60" t="str">
         <f aca="false">IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="n","",IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="0","",RIGHT($D29,SEARCH("..",$D29,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L29" s="62" t="str">
+      <c r="L29" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M29" s="62" t="str">
+      <c r="M29" s="61" t="str">
         <f aca="false">IF(L29="sh:Literal",E29,"")</f>
         <v/>
       </c>
-      <c r="N29" s="62" t="str">
+      <c r="N29" s="61" t="str">
         <f aca="false">IF($L29="sh:IRI",IF($E29&lt;&gt;"",$E29,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="O29" s="63" t="str">
+      <c r="O29" s="62" t="str">
         <f aca="false">IF($L29&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E29)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4133,7 +4120,7 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A30))</f>
         <v>mus:P30</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -4145,30 +4132,30 @@
       <c r="E30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="61" t="str">
+      <c r="J30" s="60" t="str">
         <f aca="false">IF(LEFT($D30,SEARCH("..",$D30,1)-1)="n","",IF(LEFT($D30,SEARCH("..",$D30,1)-1)="0","",LEFT($D30,SEARCH("..",$D30,1)-1)))</f>
         <v/>
       </c>
-      <c r="K30" s="61" t="str">
+      <c r="K30" s="60" t="str">
         <f aca="false">IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="n","",IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="0","",RIGHT($D30,SEARCH("..",$D30,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L30" s="62" t="str">
+      <c r="L30" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E30,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M30" s="62" t="str">
+      <c r="M30" s="61" t="str">
         <f aca="false">IF(L30="sh:Literal",E30,"")</f>
         <v/>
       </c>
-      <c r="N30" s="62" t="str">
+      <c r="N30" s="61" t="str">
         <f aca="false">IF($L30="sh:IRI",IF($E30&lt;&gt;"",$E30,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="O30" s="63" t="str">
+      <c r="O30" s="62" t="str">
         <f aca="false">IF($L30&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E30)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4178,42 +4165,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A31))</f>
         <v>mus:P31</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" s="61" t="str">
+      <c r="F31" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="60" t="str">
         <f aca="false">IF(LEFT($D31,SEARCH("..",$D31,1)-1)="n","",IF(LEFT($D31,SEARCH("..",$D31,1)-1)="0","",LEFT($D31,SEARCH("..",$D31,1)-1)))</f>
         <v/>
       </c>
-      <c r="K31" s="61" t="str">
+      <c r="K31" s="60" t="str">
         <f aca="false">IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="n","",IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="0","",RIGHT($D31,SEARCH("..",$D31,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L31" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E31,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M31" s="62" t="str">
+      <c r="M31" s="61" t="str">
         <f aca="false">IF(L31="sh:Literal",E31,"")</f>
         <v/>
       </c>
-      <c r="N31" s="62" t="str">
+      <c r="N31" s="61" t="str">
         <f aca="false">IF($L31="sh:IRI",IF($E31&lt;&gt;"",$E31,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O31" s="63" t="str">
+      <c r="O31" s="62" t="str">
         <f aca="false">IF($L31&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E31)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4223,42 +4210,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A32))</f>
         <v>mus:P32</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" s="61" t="str">
+      <c r="F32" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="60" t="str">
         <f aca="false">IF(LEFT($D32,SEARCH("..",$D32,1)-1)="n","",IF(LEFT($D32,SEARCH("..",$D32,1)-1)="0","",LEFT($D32,SEARCH("..",$D32,1)-1)))</f>
         <v/>
       </c>
-      <c r="K32" s="61" t="str">
+      <c r="K32" s="60" t="str">
         <f aca="false">IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="n","",IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="0","",RIGHT($D32,SEARCH("..",$D32,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L32" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L32" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M32" s="62" t="str">
+      <c r="M32" s="61" t="str">
         <f aca="false">IF(L32="sh:Literal",E32,"")</f>
         <v/>
       </c>
-      <c r="N32" s="62" t="str">
+      <c r="N32" s="61" t="str">
         <f aca="false">IF($L32="sh:IRI",IF($E32&lt;&gt;"",$E32,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O32" s="63" t="str">
+      <c r="O32" s="62" t="str">
         <f aca="false">IF($L32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E32)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4268,42 +4255,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A33))</f>
         <v>mus:P33</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="J33" s="61" t="str">
+      <c r="F33" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="60" t="str">
         <f aca="false">IF(LEFT($D33,SEARCH("..",$D33,1)-1)="n","",IF(LEFT($D33,SEARCH("..",$D33,1)-1)="0","",LEFT($D33,SEARCH("..",$D33,1)-1)))</f>
         <v/>
       </c>
-      <c r="K33" s="61" t="str">
+      <c r="K33" s="60" t="str">
         <f aca="false">IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="n","",IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="0","",RIGHT($D33,SEARCH("..",$D33,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L33" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L33" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M33" s="62" t="str">
+      <c r="M33" s="61" t="str">
         <f aca="false">IF(L33="sh:Literal",E33,"")</f>
         <v/>
       </c>
-      <c r="N33" s="62" t="str">
+      <c r="N33" s="61" t="str">
         <f aca="false">IF($L33="sh:IRI",IF($E33&lt;&gt;"",$E33,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="O33" s="63" t="str">
+      <c r="O33" s="62" t="str">
         <f aca="false">IF($L33&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E33)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4313,11 +4300,11 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A34))</f>
         <v>mus:P34</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>125</v>
@@ -4325,30 +4312,30 @@
       <c r="E34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="61" t="str">
+      <c r="F34" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="60" t="str">
         <f aca="false">IF(LEFT($D34,SEARCH("..",$D34,1)-1)="n","",IF(LEFT($D34,SEARCH("..",$D34,1)-1)="0","",LEFT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v/>
       </c>
-      <c r="K34" s="61" t="str">
+      <c r="K34" s="60" t="str">
         <f aca="false">IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="n","",IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="0","",RIGHT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L34" s="62" t="str">
+      <c r="L34" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E34,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M34" s="62" t="str">
+      <c r="M34" s="61" t="str">
         <f aca="false">IF(L34="sh:Literal",E34,"")</f>
         <v/>
       </c>
-      <c r="N34" s="62" t="str">
+      <c r="N34" s="61" t="str">
         <f aca="false">IF($L34="sh:IRI",IF($E34&lt;&gt;"",$E34,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="O34" s="63" t="str">
+      <c r="O34" s="62" t="str">
         <f aca="false">IF($L34&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E34)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4358,42 +4345,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A35))</f>
         <v>mus:P35</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="61" t="str">
+      <c r="F35" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="60" t="str">
         <f aca="false">IF(LEFT($D35,SEARCH("..",$D35,1)-1)="n","",IF(LEFT($D35,SEARCH("..",$D35,1)-1)="0","",LEFT($D35,SEARCH("..",$D35,1)-1)))</f>
         <v/>
       </c>
-      <c r="K35" s="61" t="str">
+      <c r="K35" s="60" t="str">
         <f aca="false">IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="n","",IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="0","",RIGHT($D35,SEARCH("..",$D35,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L35" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L35" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E35,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M35" s="62" t="str">
+      <c r="M35" s="61" t="str">
         <f aca="false">IF(L35="sh:Literal",E35,"")</f>
         <v/>
       </c>
-      <c r="N35" s="62" t="str">
+      <c r="N35" s="61" t="str">
         <f aca="false">IF($L35="sh:IRI",IF($E35&lt;&gt;"",$E35,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="O35" s="63" t="str">
+      <c r="O35" s="62" t="str">
         <f aca="false">IF($L35&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E35)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4403,39 +4390,39 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A36))</f>
         <v>mus:P36</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="58" t="s">
-        <v>143</v>
+      <c r="C36" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="J36" s="61" t="str">
+      <c r="J36" s="60" t="str">
         <f aca="false">IF(LEFT($D36,SEARCH("..",$D36,1)-1)="n","",IF(LEFT($D36,SEARCH("..",$D36,1)-1)="0","",LEFT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="K36" s="61" t="str">
+      <c r="K36" s="60" t="str">
         <f aca="false">IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="n","",IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="0","",RIGHT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="L36" s="62" t="str">
+      <c r="L36" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E36,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M36" s="62" t="str">
+      <c r="M36" s="61" t="str">
         <f aca="false">IF(L36="sh:Literal",E36,"")</f>
         <v/>
       </c>
-      <c r="N36" s="62" t="str">
+      <c r="N36" s="61" t="str">
         <f aca="false">IF($L36="sh:IRI",IF($E36&lt;&gt;"",$E36,""),"")</f>
         <v/>
       </c>
-      <c r="O36" s="63" t="str">
+      <c r="O36" s="62" t="str">
         <f aca="false">IF($L36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E36)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4445,39 +4432,39 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A37))</f>
         <v>mus:P37</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="22" t="s">
         <v>146</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="J37" s="61" t="str">
+      <c r="J37" s="60" t="str">
         <f aca="false">IF(LEFT($D37,SEARCH("..",$D37,1)-1)="n","",IF(LEFT($D37,SEARCH("..",$D37,1)-1)="0","",LEFT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="K37" s="61" t="str">
+      <c r="K37" s="60" t="str">
         <f aca="false">IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="n","",IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="0","",RIGHT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="L37" s="62" t="str">
+      <c r="L37" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E37,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M37" s="62" t="str">
+      <c r="M37" s="61" t="str">
         <f aca="false">IF(L37="sh:Literal",E37,"")</f>
         <v/>
       </c>
-      <c r="N37" s="62" t="str">
+      <c r="N37" s="61" t="str">
         <f aca="false">IF($L37="sh:IRI",IF($E37&lt;&gt;"",$E37,""),"")</f>
         <v/>
       </c>
-      <c r="O37" s="63" t="str">
+      <c r="O37" s="62" t="str">
         <f aca="false">IF($L37&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E37)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4487,39 +4474,39 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A38))</f>
         <v>mus:P38</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="61" t="str">
+      <c r="J38" s="60" t="str">
         <f aca="false">IF(LEFT($D38,SEARCH("..",$D38,1)-1)="n","",IF(LEFT($D38,SEARCH("..",$D38,1)-1)="0","",LEFT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="K38" s="61" t="str">
+      <c r="K38" s="60" t="str">
         <f aca="false">IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="n","",IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="0","",RIGHT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="L38" s="62" t="str">
+      <c r="L38" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E38,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M38" s="62" t="str">
+      <c r="M38" s="61" t="str">
         <f aca="false">IF(L38="sh:Literal",E38,"")</f>
         <v/>
       </c>
-      <c r="N38" s="62" t="str">
+      <c r="N38" s="61" t="str">
         <f aca="false">IF($L38="sh:IRI",IF($E38&lt;&gt;"",$E38,""),"")</f>
         <v/>
       </c>
-      <c r="O38" s="63" t="str">
+      <c r="O38" s="62" t="str">
         <f aca="false">IF($L38&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E38)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4529,39 +4516,39 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A39))</f>
         <v>mus:P39</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="22" t="s">
         <v>150</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="J39" s="61" t="str">
+      <c r="J39" s="60" t="str">
         <f aca="false">IF(LEFT($D39,SEARCH("..",$D39,1)-1)="n","",IF(LEFT($D39,SEARCH("..",$D39,1)-1)="0","",LEFT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="K39" s="61" t="str">
+      <c r="K39" s="60" t="str">
         <f aca="false">IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="n","",IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="0","",RIGHT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="L39" s="62" t="str">
+      <c r="L39" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E39,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M39" s="62" t="str">
+      <c r="M39" s="61" t="str">
         <f aca="false">IF(L39="sh:Literal",E39,"")</f>
         <v/>
       </c>
-      <c r="N39" s="62" t="str">
+      <c r="N39" s="61" t="str">
         <f aca="false">IF($L39="sh:IRI",IF($E39&lt;&gt;"",$E39,""),"")</f>
         <v/>
       </c>
-      <c r="O39" s="63" t="str">
+      <c r="O39" s="62" t="str">
         <f aca="false">IF($L39&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E39)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4571,42 +4558,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A40))</f>
         <v>mus:P40</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="J40" s="61" t="str">
+      <c r="J40" s="60" t="str">
         <f aca="false">IF(LEFT($D40,SEARCH("..",$D40,1)-1)="n","",IF(LEFT($D40,SEARCH("..",$D40,1)-1)="0","",LEFT($D40,SEARCH("..",$D40,1)-1)))</f>
         <v/>
       </c>
-      <c r="K40" s="61" t="str">
+      <c r="K40" s="60" t="str">
         <f aca="false">IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="n","",IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="0","",RIGHT($D40,SEARCH("..",$D40,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L40" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L40" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M40" s="62" t="str">
+      <c r="M40" s="61" t="str">
         <f aca="false">IF(L40="sh:Literal",E40,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N40" s="62" t="str">
+      <c r="N40" s="61" t="str">
         <f aca="false">IF($L40="sh:IRI",IF($E40&lt;&gt;"",$E40,""),"")</f>
         <v/>
       </c>
-      <c r="O40" s="63" t="str">
+      <c r="O40" s="62" t="str">
         <f aca="false">IF($L40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E40)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4616,42 +4603,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A41))</f>
         <v>mus:P41</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>155</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="J41" s="61" t="str">
+      <c r="J41" s="60" t="str">
         <f aca="false">IF(LEFT($D41,SEARCH("..",$D41,1)-1)="n","",IF(LEFT($D41,SEARCH("..",$D41,1)-1)="0","",LEFT($D41,SEARCH("..",$D41,1)-1)))</f>
         <v/>
       </c>
-      <c r="K41" s="61" t="str">
+      <c r="K41" s="60" t="str">
         <f aca="false">IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="n","",IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="0","",RIGHT($D41,SEARCH("..",$D41,1)-1)))</f>
         <v/>
       </c>
-      <c r="L41" s="62" t="str">
+      <c r="L41" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M41" s="62" t="str">
+      <c r="M41" s="61" t="str">
         <f aca="false">IF(L41="sh:Literal",E41,"")</f>
         <v/>
       </c>
-      <c r="N41" s="62" t="str">
+      <c r="N41" s="61" t="str">
         <f aca="false">IF($L41="sh:IRI",IF($E41&lt;&gt;"",$E41,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="O41" s="63" t="str">
+      <c r="O41" s="62" t="str">
         <f aca="false">IF($L41&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E41)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4661,49 +4648,49 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A42))</f>
         <v>mus:P42</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="57" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>159</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="F42" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="J42" s="61" t="str">
+      <c r="J42" s="60" t="str">
         <f aca="false">IF(LEFT($D42,SEARCH("..",$D42,1)-1)="n","",IF(LEFT($D42,SEARCH("..",$D42,1)-1)="0","",LEFT($D42,SEARCH("..",$D42,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K42" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="K42" s="60" t="str">
         <f aca="false">IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="n","",IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="0","",RIGHT($D42,SEARCH("..",$D42,1)-1)))</f>
         <v/>
       </c>
-      <c r="L42" s="62" t="str">
+      <c r="L42" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M42" s="62" t="str">
+      <c r="M42" s="61" t="str">
         <f aca="false">IF(L42="sh:Literal",E42,"")</f>
         <v/>
       </c>
-      <c r="N42" s="62" t="str">
+      <c r="N42" s="61" t="str">
         <f aca="false">IF($L42="sh:IRI",IF($E42&lt;&gt;"",$E42,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="O42" s="63" t="str">
+      <c r="O42" s="62" t="str">
         <f aca="false">IF($L42&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E42)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="43" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" s="51"/>
       <c r="F43" s="52"/>
@@ -4711,7 +4698,8 @@
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
       <c r="O43" s="53"/>
-      <c r="X43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4719,42 +4707,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A44))</f>
         <v>mus:P44</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="61" t="str">
+      <c r="F44" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" s="60" t="str">
         <f aca="false">IF(LEFT($D44,SEARCH("..",$D44,1)-1)="n","",IF(LEFT($D44,SEARCH("..",$D44,1)-1)="0","",LEFT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K44" s="61" t="str">
+      <c r="K44" s="60" t="str">
         <f aca="false">IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="n","",IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="0","",RIGHT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L44" s="62" t="str">
+      <c r="L44" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E44,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M44" s="62" t="str">
+      <c r="M44" s="61" t="str">
         <f aca="false">IF(L44="sh:Literal",E44,"")</f>
         <v/>
       </c>
-      <c r="N44" s="62" t="str">
+      <c r="N44" s="61" t="str">
         <f aca="false">IF($L44="sh:IRI",IF($E44&lt;&gt;"",$E44,""),"")</f>
         <v>efrbroo:F24_Publication_Expression</v>
       </c>
-      <c r="O44" s="63" t="str">
+      <c r="O44" s="62" t="str">
         <f aca="false">IF($L44&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E44)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4764,42 +4752,42 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A45))</f>
         <v>mus:P45</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="61" t="str">
+      <c r="F45" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="60" t="str">
         <f aca="false">IF(LEFT($D45,SEARCH("..",$D45,1)-1)="n","",IF(LEFT($D45,SEARCH("..",$D45,1)-1)="0","",LEFT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="K45" s="61" t="str">
+      <c r="K45" s="60" t="str">
         <f aca="false">IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="n","",IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="0","",RIGHT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="L45" s="62" t="str">
+      <c r="L45" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M45" s="62" t="str">
+      <c r="M45" s="61" t="str">
         <f aca="false">IF(L45="sh:Literal",E45,"")</f>
         <v/>
       </c>
-      <c r="N45" s="62" t="str">
+      <c r="N45" s="61" t="str">
         <f aca="false">IF($L45="sh:IRI",IF($E45&lt;&gt;"",$E45,""),"")</f>
         <v>ecrm:E7_Activity</v>
       </c>
-      <c r="O45" s="63" t="str">
+      <c r="O45" s="62" t="str">
         <f aca="false">IF($L45&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E45)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4809,49 +4797,49 @@
         <f aca="false">CONCATENATE("mus:P",ROW(A46))</f>
         <v>mus:P46</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="76" t="s">
+      <c r="E46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="61" t="str">
+      <c r="F46" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" s="60" t="str">
         <f aca="false">IF(LEFT($D46,SEARCH("..",$D46,1)-1)="n","",IF(LEFT($D46,SEARCH("..",$D46,1)-1)="0","",LEFT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v/>
       </c>
-      <c r="K46" s="61" t="str">
+      <c r="K46" s="60" t="str">
         <f aca="false">IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="n","",IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="0","",RIGHT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L46" s="62" t="str">
+      <c r="L46" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E46,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M46" s="62" t="str">
+      <c r="M46" s="61" t="str">
         <f aca="false">IF(L46="sh:Literal",E46,"")</f>
         <v/>
       </c>
-      <c r="N46" s="62" t="str">
+      <c r="N46" s="61" t="str">
         <f aca="false">IF($L46="sh:IRI",IF($E46&lt;&gt;"",$E46,""),"")</f>
         <v>ecrm:E52_Time-Span</v>
       </c>
-      <c r="O46" s="63" t="str">
+      <c r="O46" s="62" t="str">
         <f aca="false">IF($L46&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E46)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="47" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="52"/>
@@ -4859,7 +4847,8 @@
       <c r="J47" s="54"/>
       <c r="K47" s="54"/>
       <c r="O47" s="53"/>
-      <c r="X47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,35 +4860,35 @@
         <v>62</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" s="61" t="str">
+        <v>162</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="60" t="str">
         <f aca="false">IF(LEFT($D48,SEARCH("..",$D48,1)-1)="n","",IF(LEFT($D48,SEARCH("..",$D48,1)-1)="0","",LEFT($D48,SEARCH("..",$D48,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K48" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="K48" s="60" t="str">
         <f aca="false">IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="n","",IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="0","",RIGHT($D48,SEARCH("..",$D48,1)-1)))</f>
         <v/>
       </c>
-      <c r="L48" s="62" t="str">
+      <c r="L48" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M48" s="62" t="str">
+      <c r="M48" s="61" t="str">
         <f aca="false">IF(L48="sh:Literal",E48,"")</f>
         <v/>
       </c>
-      <c r="N48" s="62" t="str">
+      <c r="N48" s="61" t="str">
         <f aca="false">IF($L48="sh:IRI",IF($E48&lt;&gt;"",$E48,""),"")</f>
         <v/>
       </c>
-      <c r="O48" s="63" t="str">
+      <c r="O48" s="62" t="str">
         <f aca="false">IF($L48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E48)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -4913,42 +4902,42 @@
         <v>62</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="J49" s="61" t="str">
+        <v>134</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="60" t="str">
         <f aca="false">IF(LEFT($D49,SEARCH("..",$D49,1)-1)="n","",IF(LEFT($D49,SEARCH("..",$D49,1)-1)="0","",LEFT($D49,SEARCH("..",$D49,1)-1)))</f>
         <v/>
       </c>
-      <c r="K49" s="61" t="str">
+      <c r="K49" s="60" t="str">
         <f aca="false">IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="n","",IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="0","",RIGHT($D49,SEARCH("..",$D49,1)-1)))</f>
         <v/>
       </c>
-      <c r="L49" s="62" t="str">
+      <c r="L49" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M49" s="62" t="str">
+      <c r="M49" s="61" t="str">
         <f aca="false">IF(L49="sh:Literal",E49,"")</f>
         <v/>
       </c>
-      <c r="N49" s="62" t="str">
+      <c r="N49" s="61" t="str">
         <f aca="false">IF($L49="sh:IRI",IF($E49&lt;&gt;"",$E49,""),"")</f>
         <v/>
       </c>
-      <c r="O49" s="63" t="str">
+      <c r="O49" s="62" t="str">
         <f aca="false">IF($L49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E49)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="50" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" s="51"/>
       <c r="F50" s="52"/>
@@ -4956,7 +4945,8 @@
       <c r="J50" s="54"/>
       <c r="K50" s="54"/>
       <c r="O50" s="53"/>
-      <c r="X50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,41 +4958,41 @@
         <v>63</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D51" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="F51" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="J51" s="61" t="str">
-        <f aca="false">IF(LEFT($D51,SEARCH("..",$D51,1)-1)="n","",IF(LEFT($D51,SEARCH("..",$D51,1)-1)="0","",LEFT($D51,SEARCH("..",$D51,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K51" s="61" t="str">
+      <c r="H51" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="60" t="str">
         <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L51" s="62" t="str">
+      <c r="K51" s="60" t="str">
+        <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L51" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M51" s="62" t="str">
+      <c r="M51" s="61" t="str">
         <f aca="false">IF(L51="sh:Literal",E51,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="N51" s="62" t="str">
+      <c r="N51" s="61" t="str">
         <f aca="false">IF($L51="sh:IRI",IF($E51&lt;&gt;"",$E51,""),"")</f>
         <v/>
       </c>
-      <c r="O51" s="63" t="str">
+      <c r="O51" s="62" t="str">
         <f aca="false">IF($L51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E51)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5016,39 +5006,39 @@
         <v>63</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="77"/>
-      <c r="J52" s="61" t="str">
+      <c r="H52" s="74"/>
+      <c r="J52" s="60" t="str">
         <f aca="false">IF(LEFT($D52,SEARCH("..",$D52,1)-1)="n","",IF(LEFT($D52,SEARCH("..",$D52,1)-1)="0","",LEFT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K52" s="61" t="str">
+      <c r="K52" s="60" t="str">
         <f aca="false">IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="n","",IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="0","",RIGHT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v/>
       </c>
-      <c r="L52" s="62" t="str">
+      <c r="L52" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M52" s="62" t="str">
+      <c r="M52" s="61" t="str">
         <f aca="false">IF(L52="sh:Literal",E52,"")</f>
         <v/>
       </c>
-      <c r="N52" s="62" t="str">
+      <c r="N52" s="61" t="str">
         <f aca="false">IF($L52="sh:IRI",IF($E52&lt;&gt;"",$E52,""),"")</f>
         <v>mus:M23_Casting_Detail</v>
       </c>
-      <c r="O52" s="63" t="str">
+      <c r="O52" s="62" t="str">
         <f aca="false">IF($L52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E52)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5063,7 +5053,8 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
       <c r="O53" s="53"/>
-      <c r="X53" s="55"/>
+      <c r="W53" s="55"/>
+      <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5078,35 +5069,35 @@
         <v>184</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="H54" s="59" t="s">
+      <c r="H54" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J54" s="61" t="str">
+      <c r="J54" s="60" t="str">
         <f aca="false">IF(LEFT($D54,SEARCH("..",$D54,1)-1)="n","",IF(LEFT($D54,SEARCH("..",$D54,1)-1)="0","",LEFT($D54,SEARCH("..",$D54,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K54" s="61" t="str">
+      <c r="K54" s="60" t="str">
         <f aca="false">IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="n","",IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="0","",RIGHT($D54,SEARCH("..",$D54,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L54" s="62" t="str">
+      <c r="L54" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M54" s="62" t="str">
+      <c r="M54" s="61" t="str">
         <f aca="false">IF(L54="sh:Literal",E54,"")</f>
         <v/>
       </c>
-      <c r="N54" s="62" t="str">
+      <c r="N54" s="61" t="str">
         <f aca="false">IF($L54="sh:IRI",IF($E54&lt;&gt;"",$E54,""),"")</f>
         <v/>
       </c>
-      <c r="O54" s="63" t="str">
+      <c r="O54" s="62" t="str">
         <f aca="false">IF($L54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E54)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5125,31 +5116,31 @@
       <c r="D55" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="79"/>
-      <c r="F55" s="59" t="s">
+      <c r="E55" s="76"/>
+      <c r="F55" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="J55" s="61" t="str">
+      <c r="J55" s="60" t="str">
         <f aca="false">IF(LEFT($D55,SEARCH("..",$D55,1)-1)="n","",IF(LEFT($D55,SEARCH("..",$D55,1)-1)="0","",LEFT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v/>
       </c>
-      <c r="K55" s="61" t="str">
+      <c r="K55" s="60" t="str">
         <f aca="false">IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="n","",IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="0","",RIGHT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L55" s="62" t="str">
+      <c r="L55" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M55" s="62" t="str">
+      <c r="M55" s="61" t="str">
         <f aca="false">IF(L55="sh:Literal",E55,"")</f>
         <v/>
       </c>
-      <c r="N55" s="62" t="str">
+      <c r="N55" s="61" t="str">
         <f aca="false">IF($L55="sh:IRI",IF($E55&lt;&gt;"",$E55,""),"")</f>
         <v/>
       </c>
-      <c r="O55" s="63" t="str">
+      <c r="O55" s="62" t="str">
         <f aca="false">IF($L55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E55)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5168,30 +5159,30 @@
       <c r="D56" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="59" t="s">
+      <c r="F56" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="J56" s="61" t="str">
+      <c r="J56" s="60" t="str">
         <f aca="false">IF(LEFT($D56,SEARCH("..",$D56,1)-1)="n","",IF(LEFT($D56,SEARCH("..",$D56,1)-1)="0","",LEFT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v/>
       </c>
-      <c r="K56" s="61" t="str">
+      <c r="K56" s="60" t="str">
         <f aca="false">IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="n","",IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="0","",RIGHT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L56" s="62" t="str">
+      <c r="L56" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E56,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M56" s="62" t="str">
+      <c r="M56" s="61" t="str">
         <f aca="false">IF(L56="sh:Literal",E56,"")</f>
         <v/>
       </c>
-      <c r="N56" s="62" t="str">
+      <c r="N56" s="61" t="str">
         <f aca="false">IF($L56="sh:IRI",IF($E56&lt;&gt;"",$E56,""),"")</f>
         <v/>
       </c>
-      <c r="O56" s="63" t="str">
+      <c r="O56" s="62" t="str">
         <f aca="false">IF($L56&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E56)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5208,38 +5199,38 @@
         <v>191</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="F57" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="78" t="s">
+      <c r="H57" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="J57" s="61" t="str">
+      <c r="J57" s="60" t="str">
         <f aca="false">IF(LEFT($D57,SEARCH("..",$D57,1)-1)="n","",IF(LEFT($D57,SEARCH("..",$D57,1)-1)="0","",LEFT($D57,SEARCH("..",$D57,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K57" s="61" t="str">
+      <c r="K57" s="60" t="str">
         <f aca="false">IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="n","",IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="0","",RIGHT($D57,SEARCH("..",$D57,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L57" s="62" t="str">
+      <c r="L57" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M57" s="62" t="str">
+      <c r="M57" s="61" t="str">
         <f aca="false">IF(L57="sh:Literal",E57,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="N57" s="62" t="str">
+      <c r="N57" s="61" t="str">
         <f aca="false">IF($L57="sh:IRI",IF($E57&lt;&gt;"",$E57,""),"")</f>
         <v/>
       </c>
-      <c r="O57" s="63" t="str">
+      <c r="O57" s="62" t="str">
         <f aca="false">IF($L57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E57)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5256,36 +5247,36 @@
         <v>152</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E58" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F58" s="59" t="s">
+      <c r="F58" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="H58" s="78"/>
-      <c r="J58" s="61" t="str">
+      <c r="H58" s="75"/>
+      <c r="J58" s="60" t="str">
         <f aca="false">IF(LEFT($D58,SEARCH("..",$D58,1)-1)="n","",IF(LEFT($D58,SEARCH("..",$D58,1)-1)="0","",LEFT($D58,SEARCH("..",$D58,1)-1)))</f>
         <v/>
       </c>
-      <c r="K58" s="61" t="str">
+      <c r="K58" s="60" t="str">
         <f aca="false">IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="n","",IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="0","",RIGHT($D58,SEARCH("..",$D58,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L58" s="62" t="str">
+        <v/>
+      </c>
+      <c r="L58" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M58" s="62" t="str">
+      <c r="M58" s="61" t="str">
         <f aca="false">IF(L58="sh:Literal",E58,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N58" s="62" t="str">
+      <c r="N58" s="61" t="str">
         <f aca="false">IF($L58="sh:IRI",IF($E58&lt;&gt;"",$E58,""),"")</f>
         <v/>
       </c>
-      <c r="O58" s="63" t="str">
+      <c r="O58" s="62" t="str">
         <f aca="false">IF($L58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E58)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5304,31 +5295,31 @@
       <c r="D59" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="H59" s="78"/>
-      <c r="J59" s="61" t="str">
+      <c r="H59" s="75"/>
+      <c r="J59" s="60" t="str">
         <f aca="false">IF(LEFT($D59,SEARCH("..",$D59,1)-1)="n","",IF(LEFT($D59,SEARCH("..",$D59,1)-1)="0","",LEFT($D59,SEARCH("..",$D59,1)-1)))</f>
         <v/>
       </c>
-      <c r="K59" s="61" t="str">
+      <c r="K59" s="60" t="str">
         <f aca="false">IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="n","",IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="0","",RIGHT($D59,SEARCH("..",$D59,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L59" s="62" t="str">
+      <c r="L59" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E59,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M59" s="62" t="str">
+      <c r="M59" s="61" t="str">
         <f aca="false">IF(L59="sh:Literal",E59,"")</f>
         <v/>
       </c>
-      <c r="N59" s="62" t="str">
+      <c r="N59" s="61" t="str">
         <f aca="false">IF($L59="sh:IRI",IF($E59&lt;&gt;"",$E59,""),"")</f>
         <v/>
       </c>
-      <c r="O59" s="63" t="str">
+      <c r="O59" s="62" t="str">
         <f aca="false">IF($L59&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E59)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5343,10 +5334,11 @@
       <c r="J60" s="54"/>
       <c r="K60" s="54"/>
       <c r="O60" s="53"/>
-      <c r="X60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A61))</f>
         <v>mus:P61</v>
@@ -5358,40 +5350,41 @@
         <v>21</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="I61" s="81"/>
-      <c r="J61" s="61" t="str">
+      <c r="I61" s="78"/>
+      <c r="J61" s="60" t="str">
         <f aca="false">IF(LEFT($D61,SEARCH("..",$D61,1)-1)="n","",IF(LEFT($D61,SEARCH("..",$D61,1)-1)="0","",LEFT($D61,SEARCH("..",$D61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K61" s="61" t="str">
+      <c r="K61" s="60" t="str">
         <f aca="false">IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="n","",IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="0","",RIGHT($D61,SEARCH("..",$D61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L61" s="62" t="str">
+      <c r="L61" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E61,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M61" s="82" t="str">
+      <c r="M61" s="79" t="str">
         <f aca="false">IF(L61="sh:Literal",E61,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N61" s="62" t="str">
+      <c r="N61" s="61" t="str">
         <f aca="false">IF($L61="sh:IRI",IF($E61&lt;&gt;"",$E61,""),"")</f>
         <v/>
       </c>
-      <c r="O61" s="82" t="str">
+      <c r="O61" s="79" t="str">
         <f aca="false">IF($L61&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E61)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X61" s="83"/>
+      <c r="W61" s="80"/>
+      <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5397,8 @@
       <c r="J62" s="54"/>
       <c r="K62" s="54"/>
       <c r="O62" s="53"/>
-      <c r="X62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,35 +5413,35 @@
         <v>21</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="J63" s="61" t="str">
+      <c r="J63" s="60" t="str">
         <f aca="false">IF(LEFT($D63,SEARCH("..",$D63,1)-1)="n","",IF(LEFT($D63,SEARCH("..",$D63,1)-1)="0","",LEFT($D63,SEARCH("..",$D63,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K63" s="61" t="str">
+      <c r="K63" s="60" t="str">
         <f aca="false">IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="n","",IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="0","",RIGHT($D63,SEARCH("..",$D63,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L63" s="62" t="str">
+      <c r="L63" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E63,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M63" s="82" t="str">
+      <c r="M63" s="79" t="str">
         <f aca="false">IF(L63="sh:Literal",E63,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N63" s="62" t="str">
+      <c r="N63" s="61" t="str">
         <f aca="false">IF($L63="sh:IRI",IF($E63&lt;&gt;"",$E63,""),"")</f>
         <v/>
       </c>
-      <c r="O63" s="82" t="str">
+      <c r="O63" s="79" t="str">
         <f aca="false">IF($L63&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E63)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5462,7 +5456,8 @@
       <c r="J64" s="54"/>
       <c r="K64" s="54"/>
       <c r="O64" s="53"/>
-      <c r="X64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,35 +5472,35 @@
         <v>21</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="J65" s="61" t="str">
+      <c r="J65" s="60" t="str">
         <f aca="false">IF(LEFT($D65,SEARCH("..",$D65,1)-1)="n","",IF(LEFT($D65,SEARCH("..",$D65,1)-1)="0","",LEFT($D65,SEARCH("..",$D65,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K65" s="61" t="str">
+      <c r="K65" s="60" t="str">
         <f aca="false">IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="n","",IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="0","",RIGHT($D65,SEARCH("..",$D65,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L65" s="62" t="str">
+      <c r="L65" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E65,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M65" s="82" t="str">
+      <c r="M65" s="79" t="str">
         <f aca="false">IF(L65="sh:Literal",E65,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N65" s="62" t="str">
+      <c r="N65" s="61" t="str">
         <f aca="false">IF($L65="sh:IRI",IF($E65&lt;&gt;"",$E65,""),"")</f>
         <v/>
       </c>
-      <c r="O65" s="82" t="str">
+      <c r="O65" s="79" t="str">
         <f aca="false">IF($L65&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E65)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5520,10 +5515,11 @@
       <c r="J66" s="54"/>
       <c r="K66" s="54"/>
       <c r="O66" s="53"/>
-      <c r="X66" s="55"/>
+      <c r="W66" s="55"/>
+      <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A67))</f>
         <v>mus:P67</v>
@@ -5535,40 +5531,41 @@
         <v>21</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="I67" s="81"/>
-      <c r="J67" s="61" t="str">
+      <c r="I67" s="78"/>
+      <c r="J67" s="60" t="str">
         <f aca="false">IF(LEFT($D67,SEARCH("..",$D67,1)-1)="n","",IF(LEFT($D67,SEARCH("..",$D67,1)-1)="0","",LEFT($D67,SEARCH("..",$D67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K67" s="61" t="str">
+      <c r="K67" s="60" t="str">
         <f aca="false">IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="n","",IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="0","",RIGHT($D67,SEARCH("..",$D67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L67" s="62" t="str">
+      <c r="L67" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E67,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M67" s="82" t="str">
+      <c r="M67" s="79" t="str">
         <f aca="false">IF(L67="sh:Literal",E67,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N67" s="62" t="str">
+      <c r="N67" s="61" t="str">
         <f aca="false">IF($L67="sh:IRI",IF($E67&lt;&gt;"",$E67,""),"")</f>
         <v/>
       </c>
-      <c r="O67" s="82" t="str">
+      <c r="O67" s="79" t="str">
         <f aca="false">IF($L67&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E67)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X67" s="83"/>
+      <c r="W67" s="80"/>
+      <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
     <row r="68" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,10 +5578,11 @@
       <c r="J68" s="54"/>
       <c r="K68" s="54"/>
       <c r="O68" s="53"/>
-      <c r="X68" s="55"/>
+      <c r="W68" s="55"/>
+      <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A69))</f>
         <v>mus:P69</v>
@@ -5596,40 +5594,41 @@
         <v>21</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="I69" s="81"/>
-      <c r="J69" s="61" t="str">
+      <c r="I69" s="78"/>
+      <c r="J69" s="60" t="str">
         <f aca="false">IF(LEFT($D69,SEARCH("..",$D69,1)-1)="n","",IF(LEFT($D69,SEARCH("..",$D69,1)-1)="0","",LEFT($D69,SEARCH("..",$D69,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K69" s="61" t="str">
+      <c r="K69" s="60" t="str">
         <f aca="false">IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="n","",IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="0","",RIGHT($D69,SEARCH("..",$D69,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L69" s="62" t="str">
+      <c r="L69" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E69,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M69" s="82" t="str">
+      <c r="M69" s="79" t="str">
         <f aca="false">IF(L69="sh:Literal",E69,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N69" s="62" t="str">
+      <c r="N69" s="61" t="str">
         <f aca="false">IF($L69="sh:IRI",IF($E69&lt;&gt;"",$E69,""),"")</f>
         <v/>
       </c>
-      <c r="O69" s="82" t="str">
+      <c r="O69" s="79" t="str">
         <f aca="false">IF($L69&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E69)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X69" s="83"/>
+      <c r="W69" s="80"/>
+      <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5641,8 @@
       <c r="J70" s="54"/>
       <c r="K70" s="54"/>
       <c r="O70" s="53"/>
-      <c r="X70" s="55"/>
+      <c r="W70" s="55"/>
+      <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,35 +5657,35 @@
         <v>21</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="J71" s="61" t="str">
+      <c r="J71" s="60" t="str">
         <f aca="false">IF(LEFT($D71,SEARCH("..",$D71,1)-1)="n","",IF(LEFT($D71,SEARCH("..",$D71,1)-1)="0","",LEFT($D71,SEARCH("..",$D71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K71" s="61" t="str">
+      <c r="K71" s="60" t="str">
         <f aca="false">IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="n","",IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="0","",RIGHT($D71,SEARCH("..",$D71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L71" s="62" t="str">
+      <c r="L71" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E71,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M71" s="82" t="str">
+      <c r="M71" s="79" t="str">
         <f aca="false">IF(L71="sh:Literal",E71,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N71" s="62" t="str">
+      <c r="N71" s="61" t="str">
         <f aca="false">IF($L71="sh:IRI",IF($E71&lt;&gt;"",$E71,""),"")</f>
         <v/>
       </c>
-      <c r="O71" s="82" t="str">
+      <c r="O71" s="79" t="str">
         <f aca="false">IF($L71&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E71)-1,0)=0,"","1"))</f>
         <v/>
       </c>
@@ -5700,10 +5700,11 @@
       <c r="J72" s="54"/>
       <c r="K72" s="54"/>
       <c r="O72" s="53"/>
-      <c r="X72" s="55"/>
+      <c r="W72" s="55"/>
+      <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A73))</f>
         <v>mus:P73</v>
@@ -5715,43 +5716,44 @@
         <v>21</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="I73" s="81"/>
-      <c r="J73" s="61" t="str">
+      <c r="I73" s="78"/>
+      <c r="J73" s="60" t="str">
         <f aca="false">IF(LEFT($D73,SEARCH("..",$D73,1)-1)="n","",IF(LEFT($D73,SEARCH("..",$D73,1)-1)="0","",LEFT($D73,SEARCH("..",$D73,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K73" s="61" t="str">
+      <c r="K73" s="60" t="str">
         <f aca="false">IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="n","",IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="0","",RIGHT($D73,SEARCH("..",$D73,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L73" s="62" t="str">
+      <c r="L73" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E73,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M73" s="82" t="str">
+      <c r="M73" s="79" t="str">
         <f aca="false">IF(L73="sh:Literal",E73,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N73" s="62" t="str">
+      <c r="N73" s="61" t="str">
         <f aca="false">IF($L73="sh:IRI",IF($E73&lt;&gt;"",$E73,""),"")</f>
         <v/>
       </c>
-      <c r="O73" s="82" t="str">
+      <c r="O73" s="79" t="str">
         <f aca="false">IF($L73&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E73)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X73" s="83"/>
+      <c r="W73" s="80"/>
+      <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="80" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A74))</f>
         <v>mus:P74</v>
@@ -5763,38 +5765,39 @@
         <v>204</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E74" s="0"/>
-      <c r="F74" s="59" t="s">
+      <c r="F74" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="I74" s="81"/>
-      <c r="J74" s="61" t="str">
+      <c r="I74" s="78"/>
+      <c r="J74" s="60" t="str">
         <f aca="false">IF(LEFT($D74,SEARCH("..",$D74,1)-1)="n","",IF(LEFT($D74,SEARCH("..",$D74,1)-1)="0","",LEFT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K74" s="61" t="str">
+      <c r="K74" s="60" t="str">
         <f aca="false">IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="n","",IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="0","",RIGHT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L74" s="62" t="str">
+      <c r="L74" s="61" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E74,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M74" s="62" t="str">
+      <c r="M74" s="61" t="str">
         <f aca="false">IF(L74="sh:Literal",E74,"")</f>
         <v/>
       </c>
-      <c r="N74" s="62" t="str">
+      <c r="N74" s="61" t="str">
         <f aca="false">IF($L74="sh:IRI",IF($E74&lt;&gt;"",$E74,""),"")</f>
         <v/>
       </c>
-      <c r="O74" s="63" t="str">
+      <c r="O74" s="62" t="str">
         <f aca="false">IF($L74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E74)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X74" s="83"/>
+      <c r="W74" s="80"/>
+      <c r="AMI74" s="0"/>
       <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,57 +5810,59 @@
       <c r="J75" s="54"/>
       <c r="K75" s="54"/>
       <c r="O75" s="53"/>
-      <c r="X75" s="55"/>
+      <c r="W75" s="55"/>
+      <c r="AMI75" s="0"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="68" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="66" t="str">
+    <row r="76" s="66" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="65" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A76))</f>
         <v>mus:P76</v>
       </c>
-      <c r="B76" s="69" t="s">
+      <c r="B76" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="68" t="s">
+      <c r="C76" s="66" t="s">
         <v>207</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="F76" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="61" t="str">
+      <c r="F76" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="60" t="str">
         <f aca="false">IF(LEFT($D76,SEARCH("..",$D76,1)-1)="n","",IF(LEFT($D76,SEARCH("..",$D76,1)-1)="0","",LEFT($D76,SEARCH("..",$D76,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K76" s="61" t="str">
+      <c r="K76" s="60" t="str">
         <f aca="false">IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="n","",IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="0","",RIGHT($D76,SEARCH("..",$D76,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L76" s="73" t="str">
+      <c r="L76" s="72" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E76,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M76" s="84" t="str">
+      <c r="M76" s="81" t="str">
         <f aca="false">IF(L76="sh:Literal",E76,"")</f>
         <v>xsd:gYear</v>
       </c>
-      <c r="N76" s="62" t="str">
+      <c r="N76" s="61" t="str">
         <f aca="false">IF($L76="sh:IRI",IF($E76&lt;&gt;"",$E76,""),"")</f>
         <v/>
       </c>
-      <c r="O76" s="84" t="str">
+      <c r="O76" s="81" t="str">
         <f aca="false">IF($L76&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E76)-1,0)=0,"","1"))</f>
         <v/>
       </c>
-      <c r="X76" s="70"/>
+      <c r="W76" s="69"/>
+      <c r="AMI76" s="0"/>
       <c r="AMJ76" s="0"/>
     </row>
   </sheetData>
@@ -5887,25 +5892,25 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="D35 A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="82" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>211</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -5913,7 +5918,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="83" t="s">
         <v>213</v>
       </c>
       <c r="E3" s="0" t="s">
@@ -6034,7 +6039,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>243</v>

--- a/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
+++ b/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="401">
   <si>
     <t xml:space="preserve">PREFIX</t>
   </si>
@@ -403,42 +403,54 @@
     <t xml:space="preserve">mus:U227_has_content_type</t>
   </si>
   <si>
+    <t xml:space="preserve">1..1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note : valeur cablée en dur, on pourrait la rajouter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U227 has content type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecrm:P72_has_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1..n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P72 has language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mus:U170_has_title_statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U170 has title statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mus:U172_has_statement_of_responsibility_relating_to_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note : rare que ce ne soit pas rempli, on met card min à 1 pour l’avoir dans le rapport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U172 has statement of responsibility relating to title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mus:U168_has_parallel_title</t>
+  </si>
+  <si>
     <t xml:space="preserve">0..1</t>
   </si>
   <si>
-    <t xml:space="preserve">U227 has content type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecrm:P72_has_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P72 has language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mus:U170_has_title_statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U170 has title statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mus:U172_has_statement_of_responsibility_relating_to_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U172 has statement of responsibility relating to title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mus:U168_has_parallel_title</t>
+    <t xml:space="preserve">U168 has parallel title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mus:U68_has_variant_title</t>
   </si>
   <si>
     <t xml:space="preserve">0..n</t>
   </si>
   <si>
-    <t xml:space="preserve">U168 has parallel title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mus:U68_has_variant_title</t>
-  </si>
-  <si>
     <t xml:space="preserve">U68 has variant title</t>
   </si>
   <si>
@@ -451,12 +463,18 @@
     <t xml:space="preserve">mus:U182_has_music_format_statement</t>
   </si>
   <si>
+    <t xml:space="preserve">Note : rare que ce soit répété, mais on laisse max card à 1 pour l’avoir dans le rapport</t>
+  </si>
+  <si>
     <t xml:space="preserve">U182 has music format statement</t>
   </si>
   <si>
     <t xml:space="preserve">mus:U184_has_publication_statement</t>
   </si>
   <si>
+    <t xml:space="preserve">Si pas renseigné, c’est qu’il y a un souci</t>
+  </si>
+  <si>
     <t xml:space="preserve">U184 has publication statement</t>
   </si>
   <si>
@@ -496,6 +514,9 @@
     <t xml:space="preserve">ecrm:P1_is_identified_by</t>
   </si>
   <si>
+    <t xml:space="preserve">Au moins l’identifiant Aloes</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1 is identified by</t>
   </si>
   <si>
@@ -508,13 +529,19 @@
     <t xml:space="preserve">mus:U13_has_casting</t>
   </si>
   <si>
+    <t xml:space="preserve">Pas forcément de casting quand il y a des sous-parties</t>
+  </si>
+  <si>
     <t xml:space="preserve">U13 has casting </t>
   </si>
   <si>
     <t xml:space="preserve">Properties on mus:M167_Publication_Expression_Fragment</t>
   </si>
   <si>
-    <t xml:space="preserve">1..n</t>
+    <t xml:space="preserve">Un seul identifiant pour les sous-parties (pas d’ISMN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalement c’est obligatoire, on voit dans le rapport</t>
   </si>
   <si>
     <t xml:space="preserve">Properties on efrbroo:F30_Publication_Event</t>
@@ -523,9 +550,6 @@
     <t xml:space="preserve">mus:R24_created</t>
   </si>
   <si>
-    <t xml:space="preserve">1..1</t>
-  </si>
-  <si>
     <t xml:space="preserve">R24 created</t>
   </si>
   <si>
@@ -583,6 +607,9 @@
     <t xml:space="preserve">mus:U2_foresees_use_of_medium_of_performance</t>
   </si>
   <si>
+    <t xml:space="preserve">A ajuster pour découper en 2 propriétés – et on doit avoir ou l’une ou l’autre</t>
+  </si>
+  <si>
     <t xml:space="preserve">U2 foresees use of medium of performance</t>
   </si>
   <si>
@@ -602,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">mus:U30_foresees_quantity_of_mop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas toujours renseigné (vérifier dans la XSLT)</t>
   </si>
   <si>
     <t xml:space="preserve">U30 foresees quantity of mop</t>
@@ -1363,7 +1393,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1516,6 +1546,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE46C0A"/>
         <bgColor rgb="FF9C5700"/>
       </patternFill>
@@ -1788,7 +1824,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1993,6 +2029,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2009,10 +2049,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2021,6 +2057,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2045,10 +2085,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2061,6 +2109,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2117,7 +2169,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2204,13 +2256,13 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFDEADA"/>
+      <rgbColor rgb="FFF2DCDB"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCC1DA"/>
@@ -2225,8 +2277,8 @@
       <rgbColor rgb="FFB9CDE5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFD7E4BD"/>
-      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFFDEADA"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
@@ -2243,7 +2295,7 @@
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFCD5B5"/>
-      <rgbColor rgb="FFF2DCDB"/>
+      <rgbColor rgb="FFD7E4BD"/>
       <rgbColor rgb="FFE46C0A"/>
       <rgbColor rgb="FFE6E0EC"/>
       <rgbColor rgb="FFB2B2B2"/>
@@ -2267,11 +2319,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="D35 B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.09"/>
   </cols>
@@ -2393,17 +2445,17 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="1" sqref="D35 G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="4" width="27.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="42.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.68"/>
@@ -2929,39 +2981,40 @@
   </sheetPr>
   <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="36.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="29" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="4" width="41.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="4" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="12" width="41.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="30" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="31" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="4" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="22.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="4" width="41.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="4" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="12" width="41.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="30" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="31" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="28.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="4" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="22.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,8 +3025,8 @@
         <v>18</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="F1" s="0"/>
-      <c r="T1" s="4"/>
+      <c r="G1" s="0"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6"/>
@@ -2985,32 +3038,33 @@
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="35"/>
-      <c r="L3" s="8"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="11"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" s="15" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" s="15" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
         <v>76</v>
       </c>
@@ -3020,60 +3074,59 @@
       <c r="C5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38"/>
+      <c r="G5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="L5" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="V5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="W5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="X5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="41" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="41" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
         <v>95</v>
       </c>
@@ -3086,26 +3139,25 @@
       <c r="D6" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="G6" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="H6" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="I6" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="O6" s="44"/>
-      <c r="AMI6" s="0"/>
+      <c r="P6" s="44"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="45" t="s">
         <v>40</v>
       </c>
@@ -3118,64 +3170,65 @@
       <c r="D7" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="G7" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="H7" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="I7" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="J7" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="K7" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="L7" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="M7" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="N7" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="O7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="R7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="46" t="s">
+      <c r="S7" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="T7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="T7" s="46" t="s">
+      <c r="U7" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="V7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="V7" s="46" t="s">
+      <c r="W7" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="W7" s="46" t="s">
+      <c r="X7" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="X7" s="46" t="s">
+      <c r="Y7" s="46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3185,15 +3238,15 @@
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="O8" s="53"/>
-      <c r="W8" s="55"/>
-      <c r="AMI8" s="0"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="P8" s="54"/>
+      <c r="X8" s="51"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="57" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A9))</f>
         <v>mus:P9</v>
@@ -3207,38 +3260,40 @@
       <c r="D9" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60" t="str">
+      <c r="F9" s="0"/>
+      <c r="G9" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61" t="str">
         <f aca="false">IF(LEFT($D9,SEARCH("..",$D9,1)-1)="n","",IF(LEFT($D9,SEARCH("..",$D9,1)-1)="0","",LEFT($D9,SEARCH("..",$D9,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K9" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L9" s="61" t="str">
         <f aca="false">IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="n","",IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="0","",RIGHT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="M9" s="62" t="str">
         <f aca="false">IF(IFERROR(VLOOKUP($E9,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M9" s="61" t="str">
-        <f aca="false">IF(L9="sh:Literal",E9,"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="61" t="str">
-        <f aca="false">IF($L9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
+      <c r="N9" s="62" t="str">
+        <f aca="false">IF(M9="sh:Literal",E9,"")</f>
         <v/>
       </c>
       <c r="O9" s="62" t="str">
-        <f aca="false">IF($L9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E9)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="V9" s="63"/>
-      <c r="AMI9" s="0"/>
+        <f aca="false">IF($M9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
+        <v>Note : valeur cablée en dur, on pourrait la rajouter</v>
+      </c>
+      <c r="P9" s="63" t="str">
+        <f aca="false">IF($M9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E9)-1,0)=0,"","1"))</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="64"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,44 +3305,44 @@
         <v>54</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="64"/>
       <c r="I10" s="64"/>
-      <c r="J10" s="60" t="str">
+      <c r="J10" s="66"/>
+      <c r="K10" s="61" t="str">
         <f aca="false">IF(LEFT($D10,SEARCH("..",$D10,1)-1)="n","",IF(LEFT($D10,SEARCH("..",$D10,1)-1)="0","",LEFT($D10,SEARCH("..",$D10,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K10" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L10" s="61" t="str">
         <f aca="false">IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="n","",IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="0","",RIGHT($D10,SEARCH("..",$D10,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L10" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v/>
+      </c>
+      <c r="M10" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M10" s="61" t="str">
-        <f aca="false">IF(L10="sh:Literal",E10,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="61" t="str">
-        <f aca="false">IF($L10="sh:IRI",IF($E10&lt;&gt;"",$E10,""),"")</f>
+      <c r="N10" s="62" t="str">
+        <f aca="false">IF(M10="sh:Literal",F10,"")</f>
         <v/>
       </c>
       <c r="O10" s="62" t="str">
-        <f aca="false">IF($L10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E10)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="V10" s="63"/>
-      <c r="AMI10" s="0"/>
+        <f aca="false">IF($M10="sh:IRI",IF($F10&lt;&gt;"",$F10,""),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="63" t="str">
+        <f aca="false">IF($M10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F10)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W10" s="64"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,43 +3354,44 @@
         <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="60" t="str">
+      <c r="G11" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="61" t="str">
         <f aca="false">IF(LEFT($D11,SEARCH("..",$D11,1)-1)="n","",IF(LEFT($D11,SEARCH("..",$D11,1)-1)="0","",LEFT($D11,SEARCH("..",$D11,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K11" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L11" s="61" t="str">
         <f aca="false">IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="n","",IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="0","",RIGHT($D11,SEARCH("..",$D11,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L11" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E11,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M11" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F11,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M11" s="61" t="str">
-        <f aca="false">IF(L11="sh:Literal",E11,"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="61" t="str">
-        <f aca="false">IF($L11="sh:IRI",IF($E11&lt;&gt;"",$E11,""),"")</f>
+      <c r="N11" s="62" t="str">
+        <f aca="false">IF(M11="sh:Literal",F11,"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="62" t="str">
+        <f aca="false">IF($M11="sh:IRI",IF($F11&lt;&gt;"",$F11,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="O11" s="62" t="str">
-        <f aca="false">IF($L11&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E11)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="63" t="str">
+        <f aca="false">IF($M11&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F11)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A12))</f>
         <v>mus:P12</v>
@@ -3344,39 +3400,42 @@
         <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D12" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="60" t="str">
+      <c r="G12" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="61" t="str">
         <f aca="false">IF(LEFT($D12,SEARCH("..",$D12,1)-1)="n","",IF(LEFT($D12,SEARCH("..",$D12,1)-1)="0","",LEFT($D12,SEARCH("..",$D12,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K12" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" s="61" t="str">
         <f aca="false">IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="n","",IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="0","",RIGHT($D12,SEARCH("..",$D12,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L12" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E12,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M12" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F12,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M12" s="61" t="str">
-        <f aca="false">IF(L12="sh:Literal",E12,"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="61" t="str">
-        <f aca="false">IF($L12="sh:IRI",IF($E12&lt;&gt;"",$E12,""),"")</f>
+      <c r="N12" s="62" t="str">
+        <f aca="false">IF(M12="sh:Literal",F12,"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="62" t="str">
+        <f aca="false">IF($M12="sh:IRI",IF($F12&lt;&gt;"",$F12,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="O12" s="62" t="str">
-        <f aca="false">IF($L12&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E12)-1,0)=0,"","1"))</f>
+      <c r="P12" s="63" t="str">
+        <f aca="false">IF($M12&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F12)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3389,39 +3448,40 @@
         <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" s="60" t="str">
+      <c r="G13" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="61" t="str">
         <f aca="false">IF(LEFT($D13,SEARCH("..",$D13,1)-1)="n","",IF(LEFT($D13,SEARCH("..",$D13,1)-1)="0","",LEFT($D13,SEARCH("..",$D13,1)-1)))</f>
         <v/>
       </c>
-      <c r="K13" s="60" t="str">
+      <c r="L13" s="61" t="str">
         <f aca="false">IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="n","",IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="0","",RIGHT($D13,SEARCH("..",$D13,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L13" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E13,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F13,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M13" s="61" t="str">
-        <f aca="false">IF(L13="sh:Literal",E13,"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="61" t="str">
-        <f aca="false">IF($L13="sh:IRI",IF($E13&lt;&gt;"",$E13,""),"")</f>
+      <c r="N13" s="62" t="str">
+        <f aca="false">IF(M13="sh:Literal",F13,"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="62" t="str">
+        <f aca="false">IF($M13="sh:IRI",IF($F13&lt;&gt;"",$F13,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O13" s="62" t="str">
-        <f aca="false">IF($L13&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E13)-1,0)=0,"","1"))</f>
+      <c r="P13" s="63" t="str">
+        <f aca="false">IF($M13&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F13)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3434,39 +3494,40 @@
         <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="60" t="str">
+      <c r="G14" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="61" t="str">
         <f aca="false">IF(LEFT($D14,SEARCH("..",$D14,1)-1)="n","",IF(LEFT($D14,SEARCH("..",$D14,1)-1)="0","",LEFT($D14,SEARCH("..",$D14,1)-1)))</f>
         <v/>
       </c>
-      <c r="K14" s="60" t="str">
+      <c r="L14" s="61" t="str">
         <f aca="false">IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="n","",IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="0","",RIGHT($D14,SEARCH("..",$D14,1)-1)))</f>
         <v/>
       </c>
-      <c r="L14" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E14,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M14" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F14,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M14" s="61" t="str">
-        <f aca="false">IF(L14="sh:Literal",E14,"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="61" t="str">
-        <f aca="false">IF($L14="sh:IRI",IF($E14&lt;&gt;"",$E14,""),"")</f>
+      <c r="N14" s="62" t="str">
+        <f aca="false">IF(M14="sh:Literal",F14,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="62" t="str">
+        <f aca="false">IF($M14="sh:IRI",IF($F14&lt;&gt;"",$F14,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O14" s="62" t="str">
-        <f aca="false">IF($L14&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E14)-1,0)=0,"","1"))</f>
+      <c r="P14" s="63" t="str">
+        <f aca="false">IF($M14&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F14)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3479,43 +3540,44 @@
         <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="65"/>
+      <c r="F15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="J15" s="60" t="str">
+      <c r="G15" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="61" t="str">
         <f aca="false">IF(LEFT($D15,SEARCH("..",$D15,1)-1)="n","",IF(LEFT($D15,SEARCH("..",$D15,1)-1)="0","",LEFT($D15,SEARCH("..",$D15,1)-1)))</f>
         <v/>
       </c>
-      <c r="K15" s="60" t="str">
+      <c r="L15" s="61" t="str">
         <f aca="false">IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="n","",IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="0","",RIGHT($D15,SEARCH("..",$D15,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L15" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E15,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F15,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M15" s="61" t="str">
-        <f aca="false">IF(L15="sh:Literal",E15,"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="61" t="str">
-        <f aca="false">IF($L15="sh:IRI",IF($E15&lt;&gt;"",$E15,""),"")</f>
+      <c r="N15" s="62" t="str">
+        <f aca="false">IF(M15="sh:Literal",F15,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="62" t="str">
+        <f aca="false">IF($M15="sh:IRI",IF($F15&lt;&gt;"",$F15,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="O15" s="62" t="str">
-        <f aca="false">IF($L15&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E15)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P15" s="63" t="str">
+        <f aca="false">IF($M15&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F15)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A16))</f>
         <v>mus:P16</v>
@@ -3524,39 +3586,42 @@
         <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="60" t="str">
+      <c r="G16" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="61" t="str">
         <f aca="false">IF(LEFT($D16,SEARCH("..",$D16,1)-1)="n","",IF(LEFT($D16,SEARCH("..",$D16,1)-1)="0","",LEFT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v/>
       </c>
-      <c r="K16" s="60" t="str">
+      <c r="L16" s="61" t="str">
         <f aca="false">IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="n","",IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="0","",RIGHT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L16" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E16,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M16" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F16,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M16" s="61" t="str">
-        <f aca="false">IF(L16="sh:Literal",E16,"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="61" t="str">
-        <f aca="false">IF($L16="sh:IRI",IF($E16&lt;&gt;"",$E16,""),"")</f>
+      <c r="N16" s="62" t="str">
+        <f aca="false">IF(M16="sh:Literal",F16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="62" t="str">
+        <f aca="false">IF($M16="sh:IRI",IF($F16&lt;&gt;"",$F16,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="O16" s="62" t="str">
-        <f aca="false">IF($L16&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E16)-1,0)=0,"","1"))</f>
+      <c r="P16" s="63" t="str">
+        <f aca="false">IF($M16&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F16)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3569,39 +3634,42 @@
         <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="60" t="str">
+      <c r="G17" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="61" t="str">
         <f aca="false">IF(LEFT($D17,SEARCH("..",$D17,1)-1)="n","",IF(LEFT($D17,SEARCH("..",$D17,1)-1)="0","",LEFT($D17,SEARCH("..",$D17,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K17" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L17" s="61" t="str">
         <f aca="false">IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="n","",IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="0","",RIGHT($D17,SEARCH("..",$D17,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L17" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M17" s="61" t="str">
-        <f aca="false">IF(L17="sh:Literal",E17,"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="61" t="str">
-        <f aca="false">IF($L17="sh:IRI",IF($E17&lt;&gt;"",$E17,""),"")</f>
+      <c r="N17" s="62" t="str">
+        <f aca="false">IF(M17="sh:Literal",F17,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="62" t="str">
+        <f aca="false">IF($M17="sh:IRI",IF($F17&lt;&gt;"",$F17,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="O17" s="62" t="str">
-        <f aca="false">IF($L17&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E17)-1,0)=0,"","1"))</f>
+      <c r="P17" s="63" t="str">
+        <f aca="false">IF($M17&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F17)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3614,36 +3682,37 @@
         <v>54</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="G18" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="61" t="str">
         <f aca="false">IF(LEFT($D18,SEARCH("..",$D18,1)-1)="n","",IF(LEFT($D18,SEARCH("..",$D18,1)-1)="0","",LEFT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="K18" s="60" t="str">
+      <c r="L18" s="61" t="str">
         <f aca="false">IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="n","",IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="0","",RIGHT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="L18" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M18" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M18" s="61" t="str">
-        <f aca="false">IF(L18="sh:Literal",E18,"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="61" t="str">
-        <f aca="false">IF($L18="sh:IRI",IF($E18&lt;&gt;"",$E18,""),"")</f>
+      <c r="N18" s="62" t="str">
+        <f aca="false">IF(M18="sh:Literal",F18,"")</f>
         <v/>
       </c>
       <c r="O18" s="62" t="str">
-        <f aca="false">IF($L18&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E18)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M18="sh:IRI",IF($F18&lt;&gt;"",$F18,""),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="63" t="str">
+        <f aca="false">IF($M18&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F18)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3656,36 +3725,37 @@
         <v>54</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="J19" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="G19" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="61" t="str">
         <f aca="false">IF(LEFT($D19,SEARCH("..",$D19,1)-1)="n","",IF(LEFT($D19,SEARCH("..",$D19,1)-1)="0","",LEFT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="K19" s="60" t="str">
+      <c r="L19" s="61" t="str">
         <f aca="false">IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="n","",IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="0","",RIGHT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="L19" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M19" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M19" s="61" t="str">
-        <f aca="false">IF(L19="sh:Literal",E19,"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="61" t="str">
-        <f aca="false">IF($L19="sh:IRI",IF($E19&lt;&gt;"",$E19,""),"")</f>
+      <c r="N19" s="62" t="str">
+        <f aca="false">IF(M19="sh:Literal",F19,"")</f>
         <v/>
       </c>
       <c r="O19" s="62" t="str">
-        <f aca="false">IF($L19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E19)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M19="sh:IRI",IF($F19&lt;&gt;"",$F19,""),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="63" t="str">
+        <f aca="false">IF($M19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F19)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3698,36 +3768,37 @@
         <v>54</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="G20" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="61" t="str">
         <f aca="false">IF(LEFT($D20,SEARCH("..",$D20,1)-1)="n","",IF(LEFT($D20,SEARCH("..",$D20,1)-1)="0","",LEFT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="K20" s="60" t="str">
+      <c r="L20" s="61" t="str">
         <f aca="false">IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="n","",IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="0","",RIGHT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="L20" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M20" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M20" s="61" t="str">
-        <f aca="false">IF(L20="sh:Literal",E20,"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="61" t="str">
-        <f aca="false">IF($L20="sh:IRI",IF($E20&lt;&gt;"",$E20,""),"")</f>
+      <c r="N20" s="62" t="str">
+        <f aca="false">IF(M20="sh:Literal",F20,"")</f>
         <v/>
       </c>
       <c r="O20" s="62" t="str">
-        <f aca="false">IF($L20&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E20)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M20="sh:IRI",IF($F20&lt;&gt;"",$F20,""),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="63" t="str">
+        <f aca="false">IF($M20&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F20)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3740,36 +3811,37 @@
         <v>54</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="J21" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="G21" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" s="61" t="str">
         <f aca="false">IF(LEFT($D21,SEARCH("..",$D21,1)-1)="n","",IF(LEFT($D21,SEARCH("..",$D21,1)-1)="0","",LEFT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="K21" s="60" t="str">
+      <c r="L21" s="61" t="str">
         <f aca="false">IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="n","",IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="0","",RIGHT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="L21" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E21,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M21" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F21,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M21" s="61" t="str">
-        <f aca="false">IF(L21="sh:Literal",E21,"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="61" t="str">
-        <f aca="false">IF($L21="sh:IRI",IF($E21&lt;&gt;"",$E21,""),"")</f>
+      <c r="N21" s="62" t="str">
+        <f aca="false">IF(M21="sh:Literal",F21,"")</f>
         <v/>
       </c>
       <c r="O21" s="62" t="str">
-        <f aca="false">IF($L21&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E21)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M21="sh:IRI",IF($F21&lt;&gt;"",$F21,""),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="63" t="str">
+        <f aca="false">IF($M21&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F21)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3782,39 +3854,40 @@
         <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="61" t="str">
         <f aca="false">IF(LEFT($D22,SEARCH("..",$D22,1)-1)="n","",IF(LEFT($D22,SEARCH("..",$D22,1)-1)="0","",LEFT($D22,SEARCH("..",$D22,1)-1)))</f>
         <v/>
       </c>
-      <c r="K22" s="60" t="str">
+      <c r="L22" s="61" t="str">
         <f aca="false">IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="n","",IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="0","",RIGHT($D22,SEARCH("..",$D22,1)-1)))</f>
         <v/>
       </c>
-      <c r="L22" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E22,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M22" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F22,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M22" s="61" t="str">
-        <f aca="false">IF(L22="sh:Literal",E22,"")</f>
+      <c r="N22" s="62" t="str">
+        <f aca="false">IF(M22="sh:Literal",F22,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N22" s="61" t="str">
-        <f aca="false">IF($L22="sh:IRI",IF($E22&lt;&gt;"",$E22,""),"")</f>
-        <v/>
-      </c>
       <c r="O22" s="62" t="str">
-        <f aca="false">IF($L22&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E22)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M22="sh:IRI",IF($F22&lt;&gt;"",$F22,""),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="63" t="str">
+        <f aca="false">IF($M22&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F22)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -3827,94 +3900,97 @@
         <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" s="60" t="str">
+      <c r="G23" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="61" t="str">
         <f aca="false">IF(LEFT($D23,SEARCH("..",$D23,1)-1)="n","",IF(LEFT($D23,SEARCH("..",$D23,1)-1)="0","",LEFT($D23,SEARCH("..",$D23,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K23" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L23" s="61" t="str">
         <f aca="false">IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="n","",IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="0","",RIGHT($D23,SEARCH("..",$D23,1)-1)))</f>
         <v/>
       </c>
-      <c r="L23" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M23" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M23" s="61" t="str">
-        <f aca="false">IF(L23="sh:Literal",E23,"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="61" t="str">
-        <f aca="false">IF($L23="sh:IRI",IF($E23&lt;&gt;"",$E23,""),"")</f>
+      <c r="N23" s="62" t="str">
+        <f aca="false">IF(M23="sh:Literal",F23,"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="62" t="str">
+        <f aca="false">IF($M23="sh:IRI",IF($F23&lt;&gt;"",$F23,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="O23" s="62" t="str">
-        <f aca="false">IF($L23&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E23)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="66" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="65" t="str">
+      <c r="P23" s="63" t="str">
+        <f aca="false">IF($M23&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F23)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="69" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="68" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A24))</f>
         <v>mus:P24</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="68" t="s">
+      <c r="C24" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71" t="str">
+      <c r="G24" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75" t="str">
         <f aca="false">IF(LEFT($D24,SEARCH("..",$D24,1)-1)="n","",IF(LEFT($D24,SEARCH("..",$D24,1)-1)="0","",LEFT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="K24" s="71" t="str">
+      <c r="L24" s="75" t="str">
         <f aca="false">IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="n","",IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="0","",RIGHT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="L24" s="72" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E24,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M24" s="76" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F24,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M24" s="72" t="str">
-        <f aca="false">IF(L24="sh:Literal",E24,"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="61" t="str">
-        <f aca="false">IF($L24="sh:IRI",IF($E24&lt;&gt;"",$E24,""),"")</f>
+      <c r="N24" s="76" t="str">
+        <f aca="false">IF(M24="sh:Literal",F24,"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="62" t="str">
+        <f aca="false">IF($M24="sh:IRI",IF($F24&lt;&gt;"",$F24,""),"")</f>
         <v>mus:M167_Publication_Expression_Fragment</v>
       </c>
-      <c r="O24" s="73" t="str">
-        <f aca="false">IF($L24&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E24)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W24" s="69"/>
-      <c r="AMI24" s="22"/>
-      <c r="AMJ24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="77" t="str">
+        <f aca="false">IF($M24&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F24)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X24" s="73"/>
+      <c r="AMJ24" s="22"/>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A25))</f>
         <v>mus:P25</v>
@@ -3923,54 +3999,57 @@
         <v>54</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="60" t="str">
+      <c r="G25" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="61" t="str">
         <f aca="false">IF(LEFT($D25,SEARCH("..",$D25,1)-1)="n","",IF(LEFT($D25,SEARCH("..",$D25,1)-1)="0","",LEFT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="K25" s="60" t="str">
+      <c r="L25" s="61" t="str">
         <f aca="false">IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="n","",IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="0","",RIGHT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="L25" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E25,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M25" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F25,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M25" s="61" t="str">
-        <f aca="false">IF(L25="sh:Literal",E25,"")</f>
-        <v/>
-      </c>
-      <c r="N25" s="61" t="str">
-        <f aca="false">IF($L25="sh:IRI",IF($E25&lt;&gt;"",$E25,""),"")</f>
+      <c r="N25" s="62" t="str">
+        <f aca="false">IF(M25="sh:Literal",F25,"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="62" t="str">
+        <f aca="false">IF($M25="sh:IRI",IF($F25&lt;&gt;"",$F25,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="O25" s="62" t="str">
-        <f aca="false">IF($L25&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E25)-1,0)=0,"","1"))</f>
+      <c r="P25" s="63" t="str">
+        <f aca="false">IF($M25&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F25)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="26" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="52"/>
-      <c r="I26" s="53"/>
+      <c r="G26" s="53"/>
       <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="O26" s="53"/>
-      <c r="W26" s="55"/>
-      <c r="AMI26" s="0"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="P26" s="54"/>
+      <c r="X26" s="51"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3987,38 +4066,38 @@
       <c r="D27" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60" t="str">
+      <c r="E27" s="65"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="59"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61" t="str">
         <f aca="false">IF(LEFT($D27,SEARCH("..",$D27,1)-1)="n","",IF(LEFT($D27,SEARCH("..",$D27,1)-1)="0","",LEFT($D27,SEARCH("..",$D27,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K27" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L27" s="61" t="str">
         <f aca="false">IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="n","",IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="0","",RIGHT($D27,SEARCH("..",$D27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M27" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M27" s="61" t="str">
-        <f aca="false">IF(L27="sh:Literal",E27,"")</f>
-        <v/>
-      </c>
-      <c r="N27" s="61" t="str">
-        <f aca="false">IF($L27="sh:IRI",IF($E27&lt;&gt;"",$E27,""),"")</f>
+      <c r="N27" s="62" t="str">
+        <f aca="false">IF(M27="sh:Literal",F27,"")</f>
         <v/>
       </c>
       <c r="O27" s="62" t="str">
-        <f aca="false">IF($L27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E27)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="V27" s="63"/>
-      <c r="AMI27" s="0"/>
+        <f aca="false">IF($M27="sh:IRI",IF($F27&lt;&gt;"",$F27,""),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="63" t="str">
+        <f aca="false">IF($M27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F27)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W27" s="64"/>
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,44 +4109,44 @@
         <v>73</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+        <v>129</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="64"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="60" t="str">
+      <c r="J28" s="66"/>
+      <c r="K28" s="61" t="str">
         <f aca="false">IF(LEFT($D28,SEARCH("..",$D28,1)-1)="n","",IF(LEFT($D28,SEARCH("..",$D28,1)-1)="0","",LEFT($D28,SEARCH("..",$D28,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K28" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L28" s="61" t="str">
         <f aca="false">IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="n","",IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="0","",RIGHT($D28,SEARCH("..",$D28,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L28" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v/>
+      </c>
+      <c r="M28" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M28" s="61" t="str">
-        <f aca="false">IF(L28="sh:Literal",E28,"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="61" t="str">
-        <f aca="false">IF($L28="sh:IRI",IF($E28&lt;&gt;"",$E28,""),"")</f>
+      <c r="N28" s="62" t="str">
+        <f aca="false">IF(M28="sh:Literal",F28,"")</f>
         <v/>
       </c>
       <c r="O28" s="62" t="str">
-        <f aca="false">IF($L28&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E28)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="V28" s="63"/>
-      <c r="AMI28" s="0"/>
+        <f aca="false">IF($M28="sh:IRI",IF($F28&lt;&gt;"",$F28,""),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="63" t="str">
+        <f aca="false">IF($M28&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F28)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W28" s="64"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,39 +4158,40 @@
         <v>73</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="65"/>
+      <c r="F29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="60" t="str">
+      <c r="G29" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="61" t="str">
         <f aca="false">IF(LEFT($D29,SEARCH("..",$D29,1)-1)="n","",IF(LEFT($D29,SEARCH("..",$D29,1)-1)="0","",LEFT($D29,SEARCH("..",$D29,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K29" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" s="61" t="str">
         <f aca="false">IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="n","",IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="0","",RIGHT($D29,SEARCH("..",$D29,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L29" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M29" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M29" s="61" t="str">
-        <f aca="false">IF(L29="sh:Literal",E29,"")</f>
-        <v/>
-      </c>
-      <c r="N29" s="61" t="str">
-        <f aca="false">IF($L29="sh:IRI",IF($E29&lt;&gt;"",$E29,""),"")</f>
+      <c r="N29" s="62" t="str">
+        <f aca="false">IF(M29="sh:Literal",F29,"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="62" t="str">
+        <f aca="false">IF($M29="sh:IRI",IF($F29&lt;&gt;"",$F29,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="O29" s="62" t="str">
-        <f aca="false">IF($L29&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E29)-1,0)=0,"","1"))</f>
+      <c r="P29" s="63" t="str">
+        <f aca="false">IF($M29&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F29)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4124,39 +4204,40 @@
         <v>73</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="65"/>
+      <c r="F30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="60" t="str">
+      <c r="G30" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="61" t="str">
         <f aca="false">IF(LEFT($D30,SEARCH("..",$D30,1)-1)="n","",IF(LEFT($D30,SEARCH("..",$D30,1)-1)="0","",LEFT($D30,SEARCH("..",$D30,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K30" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L30" s="61" t="str">
         <f aca="false">IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="n","",IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="0","",RIGHT($D30,SEARCH("..",$D30,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L30" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E30,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M30" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F30,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M30" s="61" t="str">
-        <f aca="false">IF(L30="sh:Literal",E30,"")</f>
-        <v/>
-      </c>
-      <c r="N30" s="61" t="str">
-        <f aca="false">IF($L30="sh:IRI",IF($E30&lt;&gt;"",$E30,""),"")</f>
+      <c r="N30" s="62" t="str">
+        <f aca="false">IF(M30="sh:Literal",F30,"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="62" t="str">
+        <f aca="false">IF($M30="sh:IRI",IF($F30&lt;&gt;"",$F30,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="O30" s="62" t="str">
-        <f aca="false">IF($L30&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E30)-1,0)=0,"","1"))</f>
+      <c r="P30" s="63" t="str">
+        <f aca="false">IF($M30&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F30)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4169,39 +4250,40 @@
         <v>73</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="65"/>
+      <c r="F31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="60" t="str">
+      <c r="G31" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="61" t="str">
         <f aca="false">IF(LEFT($D31,SEARCH("..",$D31,1)-1)="n","",IF(LEFT($D31,SEARCH("..",$D31,1)-1)="0","",LEFT($D31,SEARCH("..",$D31,1)-1)))</f>
         <v/>
       </c>
-      <c r="K31" s="60" t="str">
+      <c r="L31" s="61" t="str">
         <f aca="false">IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="n","",IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="0","",RIGHT($D31,SEARCH("..",$D31,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L31" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E31,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F31,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M31" s="61" t="str">
-        <f aca="false">IF(L31="sh:Literal",E31,"")</f>
-        <v/>
-      </c>
-      <c r="N31" s="61" t="str">
-        <f aca="false">IF($L31="sh:IRI",IF($E31&lt;&gt;"",$E31,""),"")</f>
+      <c r="N31" s="62" t="str">
+        <f aca="false">IF(M31="sh:Literal",F31,"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="62" t="str">
+        <f aca="false">IF($M31="sh:IRI",IF($F31&lt;&gt;"",$F31,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O31" s="62" t="str">
-        <f aca="false">IF($L31&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E31)-1,0)=0,"","1"))</f>
+      <c r="P31" s="63" t="str">
+        <f aca="false">IF($M31&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F31)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4214,39 +4296,40 @@
         <v>73</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="65"/>
+      <c r="F32" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="60" t="str">
+      <c r="G32" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="61" t="str">
         <f aca="false">IF(LEFT($D32,SEARCH("..",$D32,1)-1)="n","",IF(LEFT($D32,SEARCH("..",$D32,1)-1)="0","",LEFT($D32,SEARCH("..",$D32,1)-1)))</f>
         <v/>
       </c>
-      <c r="K32" s="60" t="str">
+      <c r="L32" s="61" t="str">
         <f aca="false">IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="n","",IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="0","",RIGHT($D32,SEARCH("..",$D32,1)-1)))</f>
         <v/>
       </c>
-      <c r="L32" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M32" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M32" s="61" t="str">
-        <f aca="false">IF(L32="sh:Literal",E32,"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="61" t="str">
-        <f aca="false">IF($L32="sh:IRI",IF($E32&lt;&gt;"",$E32,""),"")</f>
+      <c r="N32" s="62" t="str">
+        <f aca="false">IF(M32="sh:Literal",F32,"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="62" t="str">
+        <f aca="false">IF($M32="sh:IRI",IF($F32&lt;&gt;"",$F32,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="O32" s="62" t="str">
-        <f aca="false">IF($L32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E32)-1,0)=0,"","1"))</f>
+      <c r="P32" s="63" t="str">
+        <f aca="false">IF($M32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F32)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4259,39 +4342,40 @@
         <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="65"/>
+      <c r="F33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="60" t="str">
+      <c r="G33" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="61" t="str">
         <f aca="false">IF(LEFT($D33,SEARCH("..",$D33,1)-1)="n","",IF(LEFT($D33,SEARCH("..",$D33,1)-1)="0","",LEFT($D33,SEARCH("..",$D33,1)-1)))</f>
         <v/>
       </c>
-      <c r="K33" s="60" t="str">
+      <c r="L33" s="61" t="str">
         <f aca="false">IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="n","",IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="0","",RIGHT($D33,SEARCH("..",$D33,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L33" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M33" s="61" t="str">
-        <f aca="false">IF(L33="sh:Literal",E33,"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="61" t="str">
-        <f aca="false">IF($L33="sh:IRI",IF($E33&lt;&gt;"",$E33,""),"")</f>
+      <c r="N33" s="62" t="str">
+        <f aca="false">IF(M33="sh:Literal",F33,"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="62" t="str">
+        <f aca="false">IF($M33="sh:IRI",IF($F33&lt;&gt;"",$F33,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="O33" s="62" t="str">
-        <f aca="false">IF($L33&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E33)-1,0)=0,"","1"))</f>
+      <c r="P33" s="63" t="str">
+        <f aca="false">IF($M33&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F33)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4304,39 +4388,40 @@
         <v>73</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="60" t="str">
+      <c r="G34" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" s="61" t="str">
         <f aca="false">IF(LEFT($D34,SEARCH("..",$D34,1)-1)="n","",IF(LEFT($D34,SEARCH("..",$D34,1)-1)="0","",LEFT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v/>
       </c>
-      <c r="K34" s="60" t="str">
+      <c r="L34" s="61" t="str">
         <f aca="false">IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="n","",IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="0","",RIGHT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L34" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E34,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M34" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F34,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M34" s="61" t="str">
-        <f aca="false">IF(L34="sh:Literal",E34,"")</f>
-        <v/>
-      </c>
-      <c r="N34" s="61" t="str">
-        <f aca="false">IF($L34="sh:IRI",IF($E34&lt;&gt;"",$E34,""),"")</f>
+      <c r="N34" s="62" t="str">
+        <f aca="false">IF(M34="sh:Literal",F34,"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="62" t="str">
+        <f aca="false">IF($M34="sh:IRI",IF($F34&lt;&gt;"",$F34,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="O34" s="62" t="str">
-        <f aca="false">IF($L34&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E34)-1,0)=0,"","1"))</f>
+      <c r="P34" s="63" t="str">
+        <f aca="false">IF($M34&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F34)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4349,39 +4434,40 @@
         <v>73</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="65"/>
+      <c r="F35" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="60" t="str">
+      <c r="G35" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="K35" s="61" t="str">
         <f aca="false">IF(LEFT($D35,SEARCH("..",$D35,1)-1)="n","",IF(LEFT($D35,SEARCH("..",$D35,1)-1)="0","",LEFT($D35,SEARCH("..",$D35,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K35" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L35" s="61" t="str">
         <f aca="false">IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="n","",IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="0","",RIGHT($D35,SEARCH("..",$D35,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L35" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E35,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F35,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M35" s="61" t="str">
-        <f aca="false">IF(L35="sh:Literal",E35,"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="61" t="str">
-        <f aca="false">IF($L35="sh:IRI",IF($E35&lt;&gt;"",$E35,""),"")</f>
+      <c r="N35" s="62" t="str">
+        <f aca="false">IF(M35="sh:Literal",F35,"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="62" t="str">
+        <f aca="false">IF($M35="sh:IRI",IF($F35&lt;&gt;"",$F35,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="O35" s="62" t="str">
-        <f aca="false">IF($L35&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E35)-1,0)=0,"","1"))</f>
+      <c r="P35" s="63" t="str">
+        <f aca="false">IF($M35&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F35)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4394,36 +4480,37 @@
         <v>73</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="G36" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="K36" s="61" t="str">
         <f aca="false">IF(LEFT($D36,SEARCH("..",$D36,1)-1)="n","",IF(LEFT($D36,SEARCH("..",$D36,1)-1)="0","",LEFT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="K36" s="60" t="str">
+      <c r="L36" s="61" t="str">
         <f aca="false">IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="n","",IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="0","",RIGHT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="L36" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E36,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M36" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F36,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M36" s="61" t="str">
-        <f aca="false">IF(L36="sh:Literal",E36,"")</f>
-        <v/>
-      </c>
-      <c r="N36" s="61" t="str">
-        <f aca="false">IF($L36="sh:IRI",IF($E36&lt;&gt;"",$E36,""),"")</f>
+      <c r="N36" s="62" t="str">
+        <f aca="false">IF(M36="sh:Literal",F36,"")</f>
         <v/>
       </c>
       <c r="O36" s="62" t="str">
-        <f aca="false">IF($L36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E36)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M36="sh:IRI",IF($F36&lt;&gt;"",$F36,""),"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="63" t="str">
+        <f aca="false">IF($M36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F36)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4436,36 +4523,37 @@
         <v>73</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="J37" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="G37" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" s="61" t="str">
         <f aca="false">IF(LEFT($D37,SEARCH("..",$D37,1)-1)="n","",IF(LEFT($D37,SEARCH("..",$D37,1)-1)="0","",LEFT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="K37" s="60" t="str">
+      <c r="L37" s="61" t="str">
         <f aca="false">IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="n","",IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="0","",RIGHT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="L37" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E37,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M37" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F37,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M37" s="61" t="str">
-        <f aca="false">IF(L37="sh:Literal",E37,"")</f>
-        <v/>
-      </c>
-      <c r="N37" s="61" t="str">
-        <f aca="false">IF($L37="sh:IRI",IF($E37&lt;&gt;"",$E37,""),"")</f>
+      <c r="N37" s="62" t="str">
+        <f aca="false">IF(M37="sh:Literal",F37,"")</f>
         <v/>
       </c>
       <c r="O37" s="62" t="str">
-        <f aca="false">IF($L37&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E37)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M37="sh:IRI",IF($F37&lt;&gt;"",$F37,""),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="63" t="str">
+        <f aca="false">IF($M37&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F37)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4478,36 +4566,37 @@
         <v>73</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="G38" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="61" t="str">
         <f aca="false">IF(LEFT($D38,SEARCH("..",$D38,1)-1)="n","",IF(LEFT($D38,SEARCH("..",$D38,1)-1)="0","",LEFT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="K38" s="60" t="str">
+      <c r="L38" s="61" t="str">
         <f aca="false">IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="n","",IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="0","",RIGHT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="L38" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E38,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M38" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F38,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M38" s="61" t="str">
-        <f aca="false">IF(L38="sh:Literal",E38,"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="61" t="str">
-        <f aca="false">IF($L38="sh:IRI",IF($E38&lt;&gt;"",$E38,""),"")</f>
+      <c r="N38" s="62" t="str">
+        <f aca="false">IF(M38="sh:Literal",F38,"")</f>
         <v/>
       </c>
       <c r="O38" s="62" t="str">
-        <f aca="false">IF($L38&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E38)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M38="sh:IRI",IF($F38&lt;&gt;"",$F38,""),"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="63" t="str">
+        <f aca="false">IF($M38&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F38)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4520,36 +4609,37 @@
         <v>73</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="G39" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="61" t="str">
         <f aca="false">IF(LEFT($D39,SEARCH("..",$D39,1)-1)="n","",IF(LEFT($D39,SEARCH("..",$D39,1)-1)="0","",LEFT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="K39" s="60" t="str">
+      <c r="L39" s="61" t="str">
         <f aca="false">IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="n","",IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="0","",RIGHT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="L39" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E39,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M39" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F39,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M39" s="61" t="str">
-        <f aca="false">IF(L39="sh:Literal",E39,"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="61" t="str">
-        <f aca="false">IF($L39="sh:IRI",IF($E39&lt;&gt;"",$E39,""),"")</f>
+      <c r="N39" s="62" t="str">
+        <f aca="false">IF(M39="sh:Literal",F39,"")</f>
         <v/>
       </c>
       <c r="O39" s="62" t="str">
-        <f aca="false">IF($L39&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E39)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M39="sh:IRI",IF($F39&lt;&gt;"",$F39,""),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="63" t="str">
+        <f aca="false">IF($M39&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F39)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4562,43 +4652,44 @@
         <v>73</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="J40" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="61" t="str">
         <f aca="false">IF(LEFT($D40,SEARCH("..",$D40,1)-1)="n","",IF(LEFT($D40,SEARCH("..",$D40,1)-1)="0","",LEFT($D40,SEARCH("..",$D40,1)-1)))</f>
         <v/>
       </c>
-      <c r="K40" s="60" t="str">
+      <c r="L40" s="61" t="str">
         <f aca="false">IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="n","",IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="0","",RIGHT($D40,SEARCH("..",$D40,1)-1)))</f>
         <v/>
       </c>
-      <c r="L40" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M40" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M40" s="61" t="str">
-        <f aca="false">IF(L40="sh:Literal",E40,"")</f>
+      <c r="N40" s="62" t="str">
+        <f aca="false">IF(M40="sh:Literal",F40,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N40" s="61" t="str">
-        <f aca="false">IF($L40="sh:IRI",IF($E40&lt;&gt;"",$E40,""),"")</f>
-        <v/>
-      </c>
       <c r="O40" s="62" t="str">
-        <f aca="false">IF($L40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E40)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF($M40="sh:IRI",IF($F40&lt;&gt;"",$F40,""),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="63" t="str">
+        <f aca="false">IF($M40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F40)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A41))</f>
         <v>mus:P41</v>
@@ -4607,43 +4698,46 @@
         <v>73</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="J41" s="60" t="str">
+      <c r="G41" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="K41" s="61" t="str">
         <f aca="false">IF(LEFT($D41,SEARCH("..",$D41,1)-1)="n","",IF(LEFT($D41,SEARCH("..",$D41,1)-1)="0","",LEFT($D41,SEARCH("..",$D41,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="K41" s="60" t="str">
+        <v>1</v>
+      </c>
+      <c r="L41" s="61" t="str">
         <f aca="false">IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="n","",IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="0","",RIGHT($D41,SEARCH("..",$D41,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L41" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M41" s="61" t="str">
-        <f aca="false">IF(L41="sh:Literal",E41,"")</f>
-        <v/>
-      </c>
-      <c r="N41" s="61" t="str">
-        <f aca="false">IF($L41="sh:IRI",IF($E41&lt;&gt;"",$E41,""),"")</f>
+      <c r="N41" s="62" t="str">
+        <f aca="false">IF(M41="sh:Literal",F41,"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="62" t="str">
+        <f aca="false">IF($M41="sh:IRI",IF($F41&lt;&gt;"",$F41,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="O41" s="62" t="str">
-        <f aca="false">IF($L41&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E41)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P41" s="63" t="str">
+        <f aca="false">IF($M41&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F41)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A42))</f>
         <v>mus:P42</v>
@@ -4652,54 +4746,57 @@
         <v>73</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E42" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="J42" s="60" t="str">
+      <c r="G42" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" s="61" t="str">
         <f aca="false">IF(LEFT($D42,SEARCH("..",$D42,1)-1)="n","",IF(LEFT($D42,SEARCH("..",$D42,1)-1)="0","",LEFT($D42,SEARCH("..",$D42,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K42" s="60" t="str">
+      <c r="L42" s="61" t="str">
         <f aca="false">IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="n","",IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="0","",RIGHT($D42,SEARCH("..",$D42,1)-1)))</f>
         <v/>
       </c>
-      <c r="L42" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M42" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M42" s="61" t="str">
-        <f aca="false">IF(L42="sh:Literal",E42,"")</f>
-        <v/>
-      </c>
-      <c r="N42" s="61" t="str">
-        <f aca="false">IF($L42="sh:IRI",IF($E42&lt;&gt;"",$E42,""),"")</f>
+      <c r="N42" s="62" t="str">
+        <f aca="false">IF(M42="sh:Literal",F42,"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="62" t="str">
+        <f aca="false">IF($M42="sh:IRI",IF($F42&lt;&gt;"",$F42,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="O42" s="62" t="str">
-        <f aca="false">IF($L42&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E42)-1,0)=0,"","1"))</f>
+      <c r="P42" s="63" t="str">
+        <f aca="false">IF($M42&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F42)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="43" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="50" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E43" s="51"/>
       <c r="F43" s="52"/>
-      <c r="I43" s="53"/>
+      <c r="G43" s="53"/>
       <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="O43" s="53"/>
-      <c r="W43" s="55"/>
-      <c r="AMI43" s="0"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="P43" s="54"/>
+      <c r="X43" s="51"/>
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,39 +4808,40 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="60" t="str">
+      <c r="G44" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" s="61" t="str">
         <f aca="false">IF(LEFT($D44,SEARCH("..",$D44,1)-1)="n","",IF(LEFT($D44,SEARCH("..",$D44,1)-1)="0","",LEFT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K44" s="60" t="str">
+      <c r="L44" s="61" t="str">
         <f aca="false">IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="n","",IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="0","",RIGHT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L44" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E44,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M44" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F44,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M44" s="61" t="str">
-        <f aca="false">IF(L44="sh:Literal",E44,"")</f>
-        <v/>
-      </c>
-      <c r="N44" s="61" t="str">
-        <f aca="false">IF($L44="sh:IRI",IF($E44&lt;&gt;"",$E44,""),"")</f>
+      <c r="N44" s="62" t="str">
+        <f aca="false">IF(M44="sh:Literal",F44,"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="62" t="str">
+        <f aca="false">IF($M44="sh:IRI",IF($F44&lt;&gt;"",$F44,""),"")</f>
         <v>efrbroo:F24_Publication_Expression</v>
       </c>
-      <c r="O44" s="62" t="str">
-        <f aca="false">IF($L44&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E44)-1,0)=0,"","1"))</f>
+      <c r="P44" s="63" t="str">
+        <f aca="false">IF($M44&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F44)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4756,39 +4854,40 @@
         <v>60</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="J45" s="60" t="str">
+      <c r="G45" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" s="61" t="str">
         <f aca="false">IF(LEFT($D45,SEARCH("..",$D45,1)-1)="n","",IF(LEFT($D45,SEARCH("..",$D45,1)-1)="0","",LEFT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="K45" s="60" t="str">
+      <c r="L45" s="61" t="str">
         <f aca="false">IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="n","",IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="0","",RIGHT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="L45" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M45" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M45" s="61" t="str">
-        <f aca="false">IF(L45="sh:Literal",E45,"")</f>
-        <v/>
-      </c>
-      <c r="N45" s="61" t="str">
-        <f aca="false">IF($L45="sh:IRI",IF($E45&lt;&gt;"",$E45,""),"")</f>
+      <c r="N45" s="62" t="str">
+        <f aca="false">IF(M45="sh:Literal",F45,"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="62" t="str">
+        <f aca="false">IF($M45="sh:IRI",IF($F45&lt;&gt;"",$F45,""),"")</f>
         <v>ecrm:E7_Activity</v>
       </c>
-      <c r="O45" s="62" t="str">
-        <f aca="false">IF($L45&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E45)-1,0)=0,"","1"))</f>
+      <c r="P45" s="63" t="str">
+        <f aca="false">IF($M45&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F45)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4801,54 +4900,55 @@
         <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="65"/>
+      <c r="F46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" s="60" t="str">
+      <c r="G46" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" s="61" t="str">
         <f aca="false">IF(LEFT($D46,SEARCH("..",$D46,1)-1)="n","",IF(LEFT($D46,SEARCH("..",$D46,1)-1)="0","",LEFT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v/>
       </c>
-      <c r="K46" s="60" t="str">
+      <c r="L46" s="61" t="str">
         <f aca="false">IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="n","",IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="0","",RIGHT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L46" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E46,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M46" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F46,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M46" s="61" t="str">
-        <f aca="false">IF(L46="sh:Literal",E46,"")</f>
-        <v/>
-      </c>
-      <c r="N46" s="61" t="str">
-        <f aca="false">IF($L46="sh:IRI",IF($E46&lt;&gt;"",$E46,""),"")</f>
+      <c r="N46" s="62" t="str">
+        <f aca="false">IF(M46="sh:Literal",F46,"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="62" t="str">
+        <f aca="false">IF($M46="sh:IRI",IF($F46&lt;&gt;"",$F46,""),"")</f>
         <v>ecrm:E52_Time-Span</v>
       </c>
-      <c r="O46" s="62" t="str">
-        <f aca="false">IF($L46&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E46)-1,0)=0,"","1"))</f>
+      <c r="P46" s="63" t="str">
+        <f aca="false">IF($M46&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F46)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="47" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="50" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="52"/>
-      <c r="I47" s="53"/>
+      <c r="G47" s="53"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="O47" s="53"/>
-      <c r="W47" s="55"/>
-      <c r="AMI47" s="0"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="P47" s="54"/>
+      <c r="X47" s="51"/>
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4860,36 +4960,37 @@
         <v>62</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="J48" s="60" t="str">
+        <v>129</v>
+      </c>
+      <c r="E48" s="65"/>
+      <c r="G48" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" s="61" t="str">
         <f aca="false">IF(LEFT($D48,SEARCH("..",$D48,1)-1)="n","",IF(LEFT($D48,SEARCH("..",$D48,1)-1)="0","",LEFT($D48,SEARCH("..",$D48,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K48" s="60" t="str">
+      <c r="L48" s="61" t="str">
         <f aca="false">IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="n","",IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="0","",RIGHT($D48,SEARCH("..",$D48,1)-1)))</f>
         <v/>
       </c>
-      <c r="L48" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M48" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M48" s="61" t="str">
-        <f aca="false">IF(L48="sh:Literal",E48,"")</f>
-        <v/>
-      </c>
-      <c r="N48" s="61" t="str">
-        <f aca="false">IF($L48="sh:IRI",IF($E48&lt;&gt;"",$E48,""),"")</f>
+      <c r="N48" s="62" t="str">
+        <f aca="false">IF(M48="sh:Literal",F48,"")</f>
         <v/>
       </c>
       <c r="O48" s="62" t="str">
-        <f aca="false">IF($L48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E48)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M48="sh:IRI",IF($F48&lt;&gt;"",$F48,""),"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="63" t="str">
+        <f aca="false">IF($M48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F48)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -4902,51 +5003,52 @@
         <v>62</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="J49" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="G49" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="K49" s="61" t="str">
         <f aca="false">IF(LEFT($D49,SEARCH("..",$D49,1)-1)="n","",IF(LEFT($D49,SEARCH("..",$D49,1)-1)="0","",LEFT($D49,SEARCH("..",$D49,1)-1)))</f>
         <v/>
       </c>
-      <c r="K49" s="60" t="str">
+      <c r="L49" s="61" t="str">
         <f aca="false">IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="n","",IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="0","",RIGHT($D49,SEARCH("..",$D49,1)-1)))</f>
         <v/>
       </c>
-      <c r="L49" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M49" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M49" s="61" t="str">
-        <f aca="false">IF(L49="sh:Literal",E49,"")</f>
-        <v/>
-      </c>
-      <c r="N49" s="61" t="str">
-        <f aca="false">IF($L49="sh:IRI",IF($E49&lt;&gt;"",$E49,""),"")</f>
+      <c r="N49" s="62" t="str">
+        <f aca="false">IF(M49="sh:Literal",F49,"")</f>
         <v/>
       </c>
       <c r="O49" s="62" t="str">
-        <f aca="false">IF($L49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E49)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M49="sh:IRI",IF($F49&lt;&gt;"",$F49,""),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="63" t="str">
+        <f aca="false">IF($M49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F49)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="50" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="50" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E50" s="51"/>
       <c r="F50" s="52"/>
-      <c r="I50" s="53"/>
+      <c r="G50" s="53"/>
       <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="O50" s="53"/>
-      <c r="W50" s="55"/>
-      <c r="AMI50" s="0"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="P50" s="54"/>
+      <c r="X50" s="51"/>
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,42 +5060,43 @@
         <v>63</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="J51" s="60" t="str">
+        <v>137</v>
+      </c>
+      <c r="E51" s="65"/>
+      <c r="F51" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" s="61" t="str">
         <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K51" s="60" t="str">
+      <c r="L51" s="61" t="str">
         <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L51" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M51" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M51" s="61" t="str">
-        <f aca="false">IF(L51="sh:Literal",E51,"")</f>
+      <c r="N51" s="62" t="str">
+        <f aca="false">IF(M51="sh:Literal",F51,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="N51" s="61" t="str">
-        <f aca="false">IF($L51="sh:IRI",IF($E51&lt;&gt;"",$E51,""),"")</f>
-        <v/>
-      </c>
       <c r="O51" s="62" t="str">
-        <f aca="false">IF($L51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E51)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M51="sh:IRI",IF($F51&lt;&gt;"",$F51,""),"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="63" t="str">
+        <f aca="false">IF($M51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F51)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -5006,58 +5109,59 @@
         <v>63</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="65"/>
+      <c r="F52" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="H52" s="74"/>
-      <c r="J52" s="60" t="str">
+      <c r="G52" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="I52" s="78"/>
+      <c r="K52" s="61" t="str">
         <f aca="false">IF(LEFT($D52,SEARCH("..",$D52,1)-1)="n","",IF(LEFT($D52,SEARCH("..",$D52,1)-1)="0","",LEFT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K52" s="60" t="str">
+      <c r="L52" s="61" t="str">
         <f aca="false">IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="n","",IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="0","",RIGHT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v/>
       </c>
-      <c r="L52" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M52" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M52" s="61" t="str">
-        <f aca="false">IF(L52="sh:Literal",E52,"")</f>
-        <v/>
-      </c>
-      <c r="N52" s="61" t="str">
-        <f aca="false">IF($L52="sh:IRI",IF($E52&lt;&gt;"",$E52,""),"")</f>
+      <c r="N52" s="62" t="str">
+        <f aca="false">IF(M52="sh:Literal",F52,"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="62" t="str">
+        <f aca="false">IF($M52="sh:IRI",IF($F52&lt;&gt;"",$F52,""),"")</f>
         <v>mus:M23_Casting_Detail</v>
       </c>
-      <c r="O52" s="62" t="str">
-        <f aca="false">IF($L52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E52)-1,0)=0,"","1"))</f>
+      <c r="P52" s="63" t="str">
+        <f aca="false">IF($M52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F52)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="53" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="50" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E53" s="51"/>
       <c r="F53" s="52"/>
-      <c r="I53" s="53"/>
+      <c r="G53" s="53"/>
       <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="O53" s="53"/>
-      <c r="W53" s="55"/>
-      <c r="AMI53" s="0"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="P53" s="54"/>
+      <c r="X53" s="51"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A54))</f>
         <v>mus:P54</v>
@@ -5066,39 +5170,42 @@
         <v>64</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="H54" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="J54" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="61" t="str">
         <f aca="false">IF(LEFT($D54,SEARCH("..",$D54,1)-1)="n","",IF(LEFT($D54,SEARCH("..",$D54,1)-1)="0","",LEFT($D54,SEARCH("..",$D54,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K54" s="60" t="str">
+      <c r="L54" s="61" t="str">
         <f aca="false">IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="n","",IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="0","",RIGHT($D54,SEARCH("..",$D54,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L54" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M54" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M54" s="61" t="str">
-        <f aca="false">IF(L54="sh:Literal",E54,"")</f>
-        <v/>
-      </c>
-      <c r="N54" s="61" t="str">
-        <f aca="false">IF($L54="sh:IRI",IF($E54&lt;&gt;"",$E54,""),"")</f>
+      <c r="N54" s="62" t="str">
+        <f aca="false">IF(M54="sh:Literal",F54,"")</f>
         <v/>
       </c>
       <c r="O54" s="62" t="str">
-        <f aca="false">IF($L54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E54)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M54="sh:IRI",IF($F54&lt;&gt;"",$F54,""),"")</f>
+        <v/>
+      </c>
+      <c r="P54" s="63" t="str">
+        <f aca="false">IF($M54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F54)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -5111,37 +5218,38 @@
         <v>64</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="76"/>
-      <c r="F55" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="60" t="str">
+        <v>137</v>
+      </c>
+      <c r="E55" s="65"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="K55" s="61" t="str">
         <f aca="false">IF(LEFT($D55,SEARCH("..",$D55,1)-1)="n","",IF(LEFT($D55,SEARCH("..",$D55,1)-1)="0","",LEFT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v/>
       </c>
-      <c r="K55" s="60" t="str">
+      <c r="L55" s="61" t="str">
         <f aca="false">IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="n","",IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="0","",RIGHT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L55" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M55" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M55" s="61" t="str">
-        <f aca="false">IF(L55="sh:Literal",E55,"")</f>
-        <v/>
-      </c>
-      <c r="N55" s="61" t="str">
-        <f aca="false">IF($L55="sh:IRI",IF($E55&lt;&gt;"",$E55,""),"")</f>
+      <c r="N55" s="62" t="str">
+        <f aca="false">IF(M55="sh:Literal",F55,"")</f>
         <v/>
       </c>
       <c r="O55" s="62" t="str">
-        <f aca="false">IF($L55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E55)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M55="sh:IRI",IF($F55&lt;&gt;"",$F55,""),"")</f>
+        <v/>
+      </c>
+      <c r="P55" s="63" t="str">
+        <f aca="false">IF($M55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F55)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -5154,40 +5262,41 @@
         <v>64</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="J56" s="60" t="str">
+        <v>137</v>
+      </c>
+      <c r="E56" s="65"/>
+      <c r="G56" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="K56" s="61" t="str">
         <f aca="false">IF(LEFT($D56,SEARCH("..",$D56,1)-1)="n","",IF(LEFT($D56,SEARCH("..",$D56,1)-1)="0","",LEFT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v/>
       </c>
-      <c r="K56" s="60" t="str">
+      <c r="L56" s="61" t="str">
         <f aca="false">IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="n","",IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="0","",RIGHT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L56" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E56,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M56" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F56,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M56" s="61" t="str">
-        <f aca="false">IF(L56="sh:Literal",E56,"")</f>
-        <v/>
-      </c>
-      <c r="N56" s="61" t="str">
-        <f aca="false">IF($L56="sh:IRI",IF($E56&lt;&gt;"",$E56,""),"")</f>
+      <c r="N56" s="62" t="str">
+        <f aca="false">IF(M56="sh:Literal",F56,"")</f>
         <v/>
       </c>
       <c r="O56" s="62" t="str">
-        <f aca="false">IF($L56&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E56)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF($M56="sh:IRI",IF($F56&lt;&gt;"",$F56,""),"")</f>
+        <v/>
+      </c>
+      <c r="P56" s="63" t="str">
+        <f aca="false">IF($M56&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F56)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A57))</f>
         <v>mus:P57</v>
@@ -5196,42 +5305,45 @@
         <v>64</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="H57" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="J57" s="60" t="str">
+        <v>137</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="K57" s="61" t="str">
         <f aca="false">IF(LEFT($D57,SEARCH("..",$D57,1)-1)="n","",IF(LEFT($D57,SEARCH("..",$D57,1)-1)="0","",LEFT($D57,SEARCH("..",$D57,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="K57" s="60" t="str">
+        <v/>
+      </c>
+      <c r="L57" s="61" t="str">
         <f aca="false">IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="n","",IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="0","",RIGHT($D57,SEARCH("..",$D57,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L57" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M57" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M57" s="61" t="str">
-        <f aca="false">IF(L57="sh:Literal",E57,"")</f>
+      <c r="N57" s="62" t="str">
+        <f aca="false">IF(M57="sh:Literal",F57,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="N57" s="61" t="str">
-        <f aca="false">IF($L57="sh:IRI",IF($E57&lt;&gt;"",$E57,""),"")</f>
-        <v/>
-      </c>
       <c r="O57" s="62" t="str">
-        <f aca="false">IF($L57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E57)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M57="sh:IRI",IF($F57&lt;&gt;"",$F57,""),"")</f>
+        <v/>
+      </c>
+      <c r="P57" s="63" t="str">
+        <f aca="false">IF($M57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F57)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -5244,40 +5356,41 @@
         <v>64</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="H58" s="75"/>
-      <c r="J58" s="60" t="str">
+        <v>140</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I58" s="79"/>
+      <c r="K58" s="61" t="str">
         <f aca="false">IF(LEFT($D58,SEARCH("..",$D58,1)-1)="n","",IF(LEFT($D58,SEARCH("..",$D58,1)-1)="0","",LEFT($D58,SEARCH("..",$D58,1)-1)))</f>
         <v/>
       </c>
-      <c r="K58" s="60" t="str">
+      <c r="L58" s="61" t="str">
         <f aca="false">IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="n","",IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="0","",RIGHT($D58,SEARCH("..",$D58,1)-1)))</f>
         <v/>
       </c>
-      <c r="L58" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M58" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M58" s="61" t="str">
-        <f aca="false">IF(L58="sh:Literal",E58,"")</f>
+      <c r="N58" s="62" t="str">
+        <f aca="false">IF(M58="sh:Literal",F58,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N58" s="61" t="str">
-        <f aca="false">IF($L58="sh:IRI",IF($E58&lt;&gt;"",$E58,""),"")</f>
-        <v/>
-      </c>
       <c r="O58" s="62" t="str">
-        <f aca="false">IF($L58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E58)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M58="sh:IRI",IF($F58&lt;&gt;"",$F58,""),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="63" t="str">
+        <f aca="false">IF($M58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F58)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
@@ -5290,55 +5403,56 @@
         <v>64</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H59" s="75"/>
-      <c r="J59" s="60" t="str">
+        <v>137</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="G59" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" s="79"/>
+      <c r="K59" s="61" t="str">
         <f aca="false">IF(LEFT($D59,SEARCH("..",$D59,1)-1)="n","",IF(LEFT($D59,SEARCH("..",$D59,1)-1)="0","",LEFT($D59,SEARCH("..",$D59,1)-1)))</f>
         <v/>
       </c>
-      <c r="K59" s="60" t="str">
+      <c r="L59" s="61" t="str">
         <f aca="false">IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="n","",IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="0","",RIGHT($D59,SEARCH("..",$D59,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L59" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E59,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M59" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F59,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M59" s="61" t="str">
-        <f aca="false">IF(L59="sh:Literal",E59,"")</f>
-        <v/>
-      </c>
-      <c r="N59" s="61" t="str">
-        <f aca="false">IF($L59="sh:IRI",IF($E59&lt;&gt;"",$E59,""),"")</f>
+      <c r="N59" s="62" t="str">
+        <f aca="false">IF(M59="sh:Literal",F59,"")</f>
         <v/>
       </c>
       <c r="O59" s="62" t="str">
-        <f aca="false">IF($L59&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E59)-1,0)=0,"","1"))</f>
+        <f aca="false">IF($M59="sh:IRI",IF($F59&lt;&gt;"",$F59,""),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="63" t="str">
+        <f aca="false">IF($M59&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F59)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="60" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="50" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E60" s="51"/>
       <c r="F60" s="52"/>
-      <c r="I60" s="53"/>
+      <c r="G60" s="53"/>
       <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="O60" s="53"/>
-      <c r="W60" s="55"/>
-      <c r="AMI60" s="0"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="P60" s="54"/>
+      <c r="X60" s="51"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A61))</f>
         <v>mus:P61</v>
@@ -5350,55 +5464,55 @@
         <v>21</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="I61" s="78"/>
-      <c r="J61" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E61" s="65"/>
+      <c r="F61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61" s="82"/>
+      <c r="K61" s="61" t="str">
         <f aca="false">IF(LEFT($D61,SEARCH("..",$D61,1)-1)="n","",IF(LEFT($D61,SEARCH("..",$D61,1)-1)="0","",LEFT($D61,SEARCH("..",$D61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K61" s="60" t="str">
+      <c r="L61" s="61" t="str">
         <f aca="false">IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="n","",IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="0","",RIGHT($D61,SEARCH("..",$D61,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L61" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E61,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M61" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F61,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M61" s="79" t="str">
-        <f aca="false">IF(L61="sh:Literal",E61,"")</f>
+      <c r="N61" s="83" t="str">
+        <f aca="false">IF(M61="sh:Literal",F61,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N61" s="61" t="str">
-        <f aca="false">IF($L61="sh:IRI",IF($E61&lt;&gt;"",$E61,""),"")</f>
-        <v/>
-      </c>
-      <c r="O61" s="79" t="str">
-        <f aca="false">IF($L61&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E61)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W61" s="80"/>
-      <c r="AMI61" s="0"/>
+      <c r="O61" s="62" t="str">
+        <f aca="false">IF($M61="sh:IRI",IF($F61&lt;&gt;"",$F61,""),"")</f>
+        <v/>
+      </c>
+      <c r="P61" s="83" t="str">
+        <f aca="false">IF($M61&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F61)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X61" s="84"/>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="50" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E62" s="51"/>
       <c r="F62" s="52"/>
-      <c r="I62" s="53"/>
+      <c r="G62" s="53"/>
       <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="O62" s="53"/>
-      <c r="W62" s="55"/>
-      <c r="AMI62" s="0"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="P62" s="54"/>
+      <c r="X62" s="51"/>
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,51 +5527,52 @@
         <v>21</v>
       </c>
       <c r="D63" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="J63" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K63" s="61" t="str">
         <f aca="false">IF(LEFT($D63,SEARCH("..",$D63,1)-1)="n","",IF(LEFT($D63,SEARCH("..",$D63,1)-1)="0","",LEFT($D63,SEARCH("..",$D63,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K63" s="60" t="str">
+      <c r="L63" s="61" t="str">
         <f aca="false">IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="n","",IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="0","",RIGHT($D63,SEARCH("..",$D63,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L63" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E63,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M63" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F63,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M63" s="79" t="str">
-        <f aca="false">IF(L63="sh:Literal",E63,"")</f>
+      <c r="N63" s="83" t="str">
+        <f aca="false">IF(M63="sh:Literal",F63,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N63" s="61" t="str">
-        <f aca="false">IF($L63="sh:IRI",IF($E63&lt;&gt;"",$E63,""),"")</f>
-        <v/>
-      </c>
-      <c r="O63" s="79" t="str">
-        <f aca="false">IF($L63&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E63)-1,0)=0,"","1"))</f>
+      <c r="O63" s="62" t="str">
+        <f aca="false">IF($M63="sh:IRI",IF($F63&lt;&gt;"",$F63,""),"")</f>
+        <v/>
+      </c>
+      <c r="P63" s="83" t="str">
+        <f aca="false">IF($M63&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F63)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="64" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="50" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E64" s="51"/>
       <c r="F64" s="52"/>
-      <c r="I64" s="53"/>
+      <c r="G64" s="53"/>
       <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="O64" s="53"/>
-      <c r="W64" s="55"/>
-      <c r="AMI64" s="0"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="P64" s="54"/>
+      <c r="X64" s="51"/>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,54 +5587,55 @@
         <v>21</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="J65" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E65" s="65"/>
+      <c r="F65" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K65" s="61" t="str">
         <f aca="false">IF(LEFT($D65,SEARCH("..",$D65,1)-1)="n","",IF(LEFT($D65,SEARCH("..",$D65,1)-1)="0","",LEFT($D65,SEARCH("..",$D65,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K65" s="60" t="str">
+      <c r="L65" s="61" t="str">
         <f aca="false">IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="n","",IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="0","",RIGHT($D65,SEARCH("..",$D65,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L65" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E65,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M65" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F65,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M65" s="79" t="str">
-        <f aca="false">IF(L65="sh:Literal",E65,"")</f>
+      <c r="N65" s="83" t="str">
+        <f aca="false">IF(M65="sh:Literal",F65,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N65" s="61" t="str">
-        <f aca="false">IF($L65="sh:IRI",IF($E65&lt;&gt;"",$E65,""),"")</f>
-        <v/>
-      </c>
-      <c r="O65" s="79" t="str">
-        <f aca="false">IF($L65&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E65)-1,0)=0,"","1"))</f>
+      <c r="O65" s="62" t="str">
+        <f aca="false">IF($M65="sh:IRI",IF($F65&lt;&gt;"",$F65,""),"")</f>
+        <v/>
+      </c>
+      <c r="P65" s="83" t="str">
+        <f aca="false">IF($M65&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F65)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="66" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="50" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E66" s="51"/>
       <c r="F66" s="52"/>
-      <c r="I66" s="53"/>
+      <c r="G66" s="53"/>
       <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="O66" s="53"/>
-      <c r="W66" s="55"/>
-      <c r="AMI66" s="0"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="P66" s="54"/>
+      <c r="X66" s="51"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A67))</f>
         <v>mus:P67</v>
@@ -5531,58 +5647,58 @@
         <v>21</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67" s="78"/>
-      <c r="J67" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E67" s="65"/>
+      <c r="F67" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" s="82"/>
+      <c r="K67" s="61" t="str">
         <f aca="false">IF(LEFT($D67,SEARCH("..",$D67,1)-1)="n","",IF(LEFT($D67,SEARCH("..",$D67,1)-1)="0","",LEFT($D67,SEARCH("..",$D67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K67" s="60" t="str">
+      <c r="L67" s="61" t="str">
         <f aca="false">IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="n","",IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="0","",RIGHT($D67,SEARCH("..",$D67,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L67" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E67,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M67" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F67,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M67" s="79" t="str">
-        <f aca="false">IF(L67="sh:Literal",E67,"")</f>
+      <c r="N67" s="83" t="str">
+        <f aca="false">IF(M67="sh:Literal",F67,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N67" s="61" t="str">
-        <f aca="false">IF($L67="sh:IRI",IF($E67&lt;&gt;"",$E67,""),"")</f>
-        <v/>
-      </c>
-      <c r="O67" s="79" t="str">
-        <f aca="false">IF($L67&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E67)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W67" s="80"/>
-      <c r="AMI67" s="0"/>
+      <c r="O67" s="62" t="str">
+        <f aca="false">IF($M67="sh:IRI",IF($F67&lt;&gt;"",$F67,""),"")</f>
+        <v/>
+      </c>
+      <c r="P67" s="83" t="str">
+        <f aca="false">IF($M67&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F67)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X67" s="84"/>
       <c r="AMJ67" s="0"/>
     </row>
     <row r="68" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="50" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E68" s="51"/>
       <c r="F68" s="52"/>
-      <c r="I68" s="53"/>
+      <c r="G68" s="53"/>
       <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="O68" s="53"/>
-      <c r="W68" s="55"/>
-      <c r="AMI68" s="0"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="P68" s="54"/>
+      <c r="X68" s="51"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A69))</f>
         <v>mus:P69</v>
@@ -5594,55 +5710,55 @@
         <v>21</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F69" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="I69" s="78"/>
-      <c r="J69" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E69" s="65"/>
+      <c r="F69" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69" s="82"/>
+      <c r="K69" s="61" t="str">
         <f aca="false">IF(LEFT($D69,SEARCH("..",$D69,1)-1)="n","",IF(LEFT($D69,SEARCH("..",$D69,1)-1)="0","",LEFT($D69,SEARCH("..",$D69,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K69" s="60" t="str">
+      <c r="L69" s="61" t="str">
         <f aca="false">IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="n","",IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="0","",RIGHT($D69,SEARCH("..",$D69,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L69" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E69,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M69" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F69,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M69" s="79" t="str">
-        <f aca="false">IF(L69="sh:Literal",E69,"")</f>
+      <c r="N69" s="83" t="str">
+        <f aca="false">IF(M69="sh:Literal",F69,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N69" s="61" t="str">
-        <f aca="false">IF($L69="sh:IRI",IF($E69&lt;&gt;"",$E69,""),"")</f>
-        <v/>
-      </c>
-      <c r="O69" s="79" t="str">
-        <f aca="false">IF($L69&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E69)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W69" s="80"/>
-      <c r="AMI69" s="0"/>
+      <c r="O69" s="62" t="str">
+        <f aca="false">IF($M69="sh:IRI",IF($F69&lt;&gt;"",$F69,""),"")</f>
+        <v/>
+      </c>
+      <c r="P69" s="83" t="str">
+        <f aca="false">IF($M69&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F69)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X69" s="84"/>
       <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="50" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E70" s="51"/>
       <c r="F70" s="52"/>
-      <c r="I70" s="53"/>
+      <c r="G70" s="53"/>
       <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="O70" s="53"/>
-      <c r="W70" s="55"/>
-      <c r="AMI70" s="0"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="55"/>
+      <c r="P70" s="54"/>
+      <c r="X70" s="51"/>
       <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,54 +5773,55 @@
         <v>21</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="J71" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E71" s="65"/>
+      <c r="F71" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" s="61" t="str">
         <f aca="false">IF(LEFT($D71,SEARCH("..",$D71,1)-1)="n","",IF(LEFT($D71,SEARCH("..",$D71,1)-1)="0","",LEFT($D71,SEARCH("..",$D71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K71" s="60" t="str">
+      <c r="L71" s="61" t="str">
         <f aca="false">IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="n","",IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="0","",RIGHT($D71,SEARCH("..",$D71,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L71" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E71,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M71" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F71,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M71" s="79" t="str">
-        <f aca="false">IF(L71="sh:Literal",E71,"")</f>
+      <c r="N71" s="83" t="str">
+        <f aca="false">IF(M71="sh:Literal",F71,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N71" s="61" t="str">
-        <f aca="false">IF($L71="sh:IRI",IF($E71&lt;&gt;"",$E71,""),"")</f>
-        <v/>
-      </c>
-      <c r="O71" s="79" t="str">
-        <f aca="false">IF($L71&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E71)-1,0)=0,"","1"))</f>
+      <c r="O71" s="62" t="str">
+        <f aca="false">IF($M71="sh:IRI",IF($F71&lt;&gt;"",$F71,""),"")</f>
+        <v/>
+      </c>
+      <c r="P71" s="83" t="str">
+        <f aca="false">IF($M71&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F71)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="72" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="50" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E72" s="51"/>
       <c r="F72" s="52"/>
-      <c r="I72" s="53"/>
+      <c r="G72" s="53"/>
       <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="O72" s="53"/>
-      <c r="W72" s="55"/>
-      <c r="AMI72" s="0"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55"/>
+      <c r="P72" s="54"/>
+      <c r="X72" s="51"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A73))</f>
         <v>mus:P73</v>
@@ -5716,44 +5833,44 @@
         <v>21</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="I73" s="78"/>
-      <c r="J73" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E73" s="65"/>
+      <c r="F73" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="J73" s="82"/>
+      <c r="K73" s="61" t="str">
         <f aca="false">IF(LEFT($D73,SEARCH("..",$D73,1)-1)="n","",IF(LEFT($D73,SEARCH("..",$D73,1)-1)="0","",LEFT($D73,SEARCH("..",$D73,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K73" s="60" t="str">
+      <c r="L73" s="61" t="str">
         <f aca="false">IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="n","",IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="0","",RIGHT($D73,SEARCH("..",$D73,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L73" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E73,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M73" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F73,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M73" s="79" t="str">
-        <f aca="false">IF(L73="sh:Literal",E73,"")</f>
+      <c r="N73" s="83" t="str">
+        <f aca="false">IF(M73="sh:Literal",F73,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="N73" s="61" t="str">
-        <f aca="false">IF($L73="sh:IRI",IF($E73&lt;&gt;"",$E73,""),"")</f>
-        <v/>
-      </c>
-      <c r="O73" s="79" t="str">
-        <f aca="false">IF($L73&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E73)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W73" s="80"/>
-      <c r="AMI73" s="0"/>
+      <c r="O73" s="62" t="str">
+        <f aca="false">IF($M73="sh:IRI",IF($F73&lt;&gt;"",$F73,""),"")</f>
+        <v/>
+      </c>
+      <c r="P73" s="83" t="str">
+        <f aca="false">IF($M73&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F73)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X73" s="84"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="77" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="56" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A74))</f>
         <v>mus:P74</v>
@@ -5762,107 +5879,107 @@
         <v>71</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="0"/>
-      <c r="F74" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="I74" s="78"/>
-      <c r="J74" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E74" s="65"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="J74" s="82"/>
+      <c r="K74" s="61" t="str">
         <f aca="false">IF(LEFT($D74,SEARCH("..",$D74,1)-1)="n","",IF(LEFT($D74,SEARCH("..",$D74,1)-1)="0","",LEFT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K74" s="60" t="str">
+      <c r="L74" s="61" t="str">
         <f aca="false">IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="n","",IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="0","",RIGHT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L74" s="61" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E74,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M74" s="62" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F74,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="M74" s="61" t="str">
-        <f aca="false">IF(L74="sh:Literal",E74,"")</f>
-        <v/>
-      </c>
-      <c r="N74" s="61" t="str">
-        <f aca="false">IF($L74="sh:IRI",IF($E74&lt;&gt;"",$E74,""),"")</f>
+      <c r="N74" s="62" t="str">
+        <f aca="false">IF(M74="sh:Literal",F74,"")</f>
         <v/>
       </c>
       <c r="O74" s="62" t="str">
-        <f aca="false">IF($L74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E74)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W74" s="80"/>
-      <c r="AMI74" s="0"/>
+        <f aca="false">IF($M74="sh:IRI",IF($F74&lt;&gt;"",$F74,""),"")</f>
+        <v/>
+      </c>
+      <c r="P74" s="63" t="str">
+        <f aca="false">IF($M74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F74)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X74" s="84"/>
       <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="50" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E75" s="51"/>
       <c r="F75" s="52"/>
-      <c r="I75" s="53"/>
+      <c r="G75" s="53"/>
       <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="O75" s="53"/>
-      <c r="W75" s="55"/>
-      <c r="AMI75" s="0"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="P75" s="54"/>
+      <c r="X75" s="51"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="66" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="65" t="str">
+    <row r="76" s="69" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="68" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A76))</f>
         <v>mus:P76</v>
       </c>
-      <c r="B76" s="68" t="s">
+      <c r="B76" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="66" t="s">
-        <v>207</v>
+      <c r="C76" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="69"/>
-      <c r="H76" s="69"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="60" t="str">
+        <v>125</v>
+      </c>
+      <c r="E76" s="65"/>
+      <c r="F76" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="61" t="str">
         <f aca="false">IF(LEFT($D76,SEARCH("..",$D76,1)-1)="n","",IF(LEFT($D76,SEARCH("..",$D76,1)-1)="0","",LEFT($D76,SEARCH("..",$D76,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="K76" s="60" t="str">
+      <c r="L76" s="61" t="str">
         <f aca="false">IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="n","",IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="0","",RIGHT($D76,SEARCH("..",$D76,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L76" s="72" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E76,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M76" s="76" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($F76,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="M76" s="81" t="str">
-        <f aca="false">IF(L76="sh:Literal",E76,"")</f>
+      <c r="N76" s="85" t="str">
+        <f aca="false">IF(M76="sh:Literal",F76,"")</f>
         <v>xsd:gYear</v>
       </c>
-      <c r="N76" s="61" t="str">
-        <f aca="false">IF($L76="sh:IRI",IF($E76&lt;&gt;"",$E76,""),"")</f>
-        <v/>
-      </c>
-      <c r="O76" s="81" t="str">
-        <f aca="false">IF($L76&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E76)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W76" s="69"/>
-      <c r="AMI76" s="0"/>
+      <c r="O76" s="62" t="str">
+        <f aca="false">IF($M76="sh:IRI",IF($F76&lt;&gt;"",$F76,""),"")</f>
+        <v/>
+      </c>
+      <c r="P76" s="85" t="str">
+        <f aca="false">IF($M76&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F76)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X76" s="73"/>
       <c r="AMJ76" s="0"/>
     </row>
   </sheetData>
@@ -5871,8 +5988,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.doremus.org/shapes/mus"/>
-    <hyperlink ref="F7" r:id="rId2" display="sh:name@en"/>
-    <hyperlink ref="F56" r:id="rId3" location="U90_foresees_creation_or_performance_mode" display="U90 foresees creation or performance mode"/>
+    <hyperlink ref="G7" r:id="rId2" display="sh:name@en"/>
+    <hyperlink ref="G56" r:id="rId3" location="U90_foresees_creation_or_performance_mode" display="U90 foresees creation or performance mode"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5891,865 +6008,865 @@
   </sheetPr>
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="D35 A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>210</v>
+      <c r="A1" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
-        <v>211</v>
+      <c r="A2" s="87" t="s">
+        <v>221</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83" t="s">
-        <v>213</v>
+      <c r="A3" s="87" t="s">
+        <v>223</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="0" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="0" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
+++ b/04-SHACL/philharmonie-chatbot-0.1-shacl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prefixes" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="417">
   <si>
     <t xml:space="preserve">PREFIX</t>
   </si>
@@ -79,6 +79,18 @@
     <t xml:space="preserve">http://erlangen-crm.org/current/</t>
   </si>
   <si>
+    <t xml:space="preserve">philhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://data.philharmoniedeparis.fr/ontology/partitions#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">philharshapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://data.philharmoniedeparis.fr/shapes/partitions#</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t xml:space="preserve">sh:nodeKind</t>
   </si>
   <si>
+    <t xml:space="preserve">foaf:depiction</t>
+  </si>
+  <si>
     <t xml:space="preserve">sh:pattern^^xsd:string</t>
   </si>
   <si>
@@ -199,6 +214,9 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
+    <t xml:space="preserve">philharshapes:diagram_Publication_Expression</t>
+  </si>
+  <si>
     <t xml:space="preserve">^https://ark.philharmoniedeparis.fr/ark:49250/[0-9]*?$</t>
   </si>
   <si>
@@ -253,6 +271,18 @@
     <t xml:space="preserve">References to external controlled vocabularies</t>
   </si>
   <si>
+    <t xml:space="preserve">philharshapes:MIMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh:NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">philharshapes:IAML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">philharshapes:EducationalLevel</t>
+  </si>
+  <si>
     <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
   </si>
   <si>
@@ -406,12 +436,12 @@
     <t xml:space="preserve">1..1</t>
   </si>
   <si>
+    <t xml:space="preserve">U227 has content type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note : valeur cablée en dur, on pourrait la rajouter</t>
   </si>
   <si>
-    <t xml:space="preserve">U227 has content type</t>
-  </si>
-  <si>
     <t xml:space="preserve">ecrm:P72_has_language</t>
   </si>
   <si>
@@ -430,12 +460,12 @@
     <t xml:space="preserve">mus:U172_has_statement_of_responsibility_relating_to_title</t>
   </si>
   <si>
+    <t xml:space="preserve">U172 has statement of responsibility relating to title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note : rare que ce ne soit pas rempli, on met card min à 1 pour l’avoir dans le rapport</t>
   </si>
   <si>
-    <t xml:space="preserve">U172 has statement of responsibility relating to title</t>
-  </si>
-  <si>
     <t xml:space="preserve">mus:U168_has_parallel_title</t>
   </si>
   <si>
@@ -463,21 +493,21 @@
     <t xml:space="preserve">mus:U182_has_music_format_statement</t>
   </si>
   <si>
+    <t xml:space="preserve">U182 has music format statement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note : rare que ce soit répété, mais on laisse max card à 1 pour l’avoir dans le rapport</t>
   </si>
   <si>
-    <t xml:space="preserve">U182 has music format statement</t>
-  </si>
-  <si>
     <t xml:space="preserve">mus:U184_has_publication_statement</t>
   </si>
   <si>
+    <t xml:space="preserve">U184 has publication statement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si pas renseigné, c’est qu’il y a un souci</t>
   </si>
   <si>
-    <t xml:space="preserve">U184 has publication statement</t>
-  </si>
-  <si>
     <t xml:space="preserve">mus:U65_has_geographical_context</t>
   </si>
   <si>
@@ -514,12 +544,12 @@
     <t xml:space="preserve">ecrm:P1_is_identified_by</t>
   </si>
   <si>
+    <t xml:space="preserve">P1 is identified by</t>
+  </si>
+  <si>
     <t xml:space="preserve">Au moins l’identifiant Aloes</t>
   </si>
   <si>
-    <t xml:space="preserve">P1 is identified by</t>
-  </si>
-  <si>
     <t xml:space="preserve">ecrm:P148_has_component</t>
   </si>
   <si>
@@ -529,12 +559,12 @@
     <t xml:space="preserve">mus:U13_has_casting</t>
   </si>
   <si>
+    <t xml:space="preserve">U13 has casting </t>
+  </si>
+  <si>
     <t xml:space="preserve">Pas forcément de casting quand il y a des sous-parties</t>
   </si>
   <si>
-    <t xml:space="preserve">U13 has casting </t>
-  </si>
-  <si>
     <t xml:space="preserve">Properties on mus:M167_Publication_Expression_Fragment</t>
   </si>
   <si>
@@ -580,6 +610,9 @@
     <t xml:space="preserve">U31 had function</t>
   </si>
   <si>
+    <t xml:space="preserve">S’il n’y a pas de fonction renseignée, c’est une erreur dans les données</t>
+  </si>
+  <si>
     <t xml:space="preserve">Properties on mus:M6_casting</t>
   </si>
   <si>
@@ -604,18 +637,21 @@
     <t xml:space="preserve">Properties on mus:U23_has_casting_detail</t>
   </si>
   <si>
-    <t xml:space="preserve">mus:U2_foresees_use_of_medium_of_performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ajuster pour découper en 2 propriétés – et on doit avoir ou l’une ou l’autre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2 foresees use of medium of performance</t>
+    <t xml:space="preserve">philhar:P1_foresees_use_of_medium_of_performance_instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 foresees use of medium of performance instrument</t>
   </si>
   <si>
     <t xml:space="preserve">type = saxophone alto (MIMO)</t>
   </si>
   <si>
+    <t xml:space="preserve">philhar:P2_foresees_use_of_medium_of_performance_vocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 foresees use of medium of performance vocal</t>
+  </si>
+  <si>
     <t xml:space="preserve">ecrm:P103_was_intended_for</t>
   </si>
   <si>
@@ -631,15 +667,15 @@
     <t xml:space="preserve">mus:U30_foresees_quantity_of_mop</t>
   </si>
   <si>
+    <t xml:space="preserve">U30 foresees quantity of mop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E60 Number “1”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pas toujours renseigné (vérifier dans la XSLT)</t>
   </si>
   <si>
-    <t xml:space="preserve">U30 foresees quantity of mop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E60 Number “1”</t>
-  </si>
-  <si>
     <t xml:space="preserve">mus:U36_foresees_responsibility</t>
   </si>
   <si>
@@ -683,6 +719,18 @@
   </si>
   <si>
     <t xml:space="preserve">xsd:gYear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties on MIMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skos:prefLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties on IAML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties on EducationalLevel</t>
   </si>
   <si>
     <t xml:space="preserve">datatype</t>
@@ -1241,7 +1289,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1333,6 +1381,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1824,7 +1877,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1905,6 +1958,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1925,7 +1982,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1941,6 +1998,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1989,63 +2050,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2057,18 +2118,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="8" fillId="25" borderId="0" xfId="66" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2085,75 +2146,75 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="19" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="25" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="25" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="25" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="25" borderId="2" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="25" borderId="2" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2161,15 +2222,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="25" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="20" fillId="25" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2317,13 +2378,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="G28 B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.09"/>
   </cols>
@@ -2418,6 +2479,28 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2443,13 +2526,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.54"/>
@@ -2457,66 +2540,66 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="42.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="57.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="25.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="4" width="23.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="68.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1020" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="57.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="25.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="4" width="23.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="68.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.45"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="6"/>
-      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -2524,445 +2607,526 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="4"/>
-      <c r="I7" s="12"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="4"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" s="22" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="22"/>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="J13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" s="22" customFormat="true" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="I23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="12"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="A25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.doremus.org/shapes/mus"/>
     <hyperlink ref="D9" r:id="rId2" display="rdfs:comment@en"/>
-    <hyperlink ref="J9" r:id="rId3" display="rdfs:label@fr"/>
-    <hyperlink ref="K9" r:id="rId4" display="rdfs:label@en"/>
+    <hyperlink ref="K9" r:id="rId3" display="rdfs:label@fr"/>
+    <hyperlink ref="L9" r:id="rId4" display="rdfs:label@en"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2979,30 +3143,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ76"/>
+  <dimension ref="A1:AMJ83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="E58" activeCellId="0" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="D83" activeCellId="1" sqref="G28 D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="40.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="36.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="36.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="29" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="4" width="41.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="4" width="34.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="12" width="41.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="30" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="31" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="31" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="4" width="41.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="4" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="12" width="41.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="32" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="33" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="36.12"/>
@@ -3019,13 +3183,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="G1" s="0"/>
+      <c r="F1" s="0"/>
       <c r="U1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,23 +3197,23 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="34"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -3060,2927 +3224,3119 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="K4" s="39"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" s="15" customFormat="true" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="15" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="K5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>92</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="41" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>99</v>
+    <row r="6" s="43" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="44"/>
+        <v>111</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="46"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>113</v>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="S7" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W7" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="X7" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y7" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="P8" s="54"/>
-      <c r="X8" s="51"/>
+        <v>51</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="P8" s="55"/>
+      <c r="X8" s="56"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="57" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="56" t="str">
+    <row r="9" s="59" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A9))</f>
         <v>mus:P9</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="0"/>
-      <c r="G9" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61" t="str">
+      <c r="B9" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="0"/>
+      <c r="F9" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="63" t="str">
         <f aca="false">IF(LEFT($D9,SEARCH("..",$D9,1)-1)="n","",IF(LEFT($D9,SEARCH("..",$D9,1)-1)="0","",LEFT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L9" s="61" t="str">
+      <c r="L9" s="63" t="str">
         <f aca="false">IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="n","",IF(RIGHT($D9,SEARCH("..",$D9,1)-1)="0","",RIGHT($D9,SEARCH("..",$D9,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M9" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($E9,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M9" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP(#REF!,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N9" s="62" t="str">
-        <f aca="false">IF(M9="sh:Literal",E9,"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="62" t="str">
+      <c r="N9" s="64" t="str">
+        <f aca="false">IF(M9="sh:Literal",#REF!,"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="64" t="str">
         <f aca="false">IF($M9="sh:IRI",IF($E9&lt;&gt;"",$E9,""),"")</f>
-        <v>Note : valeur cablée en dur, on pourrait la rajouter</v>
-      </c>
-      <c r="P9" s="63" t="str">
-        <f aca="false">IF($M9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E9)-1,0)=0,"","1"))</f>
-        <v>1</v>
-      </c>
-      <c r="W9" s="64"/>
+        <v/>
+      </c>
+      <c r="P9" s="65" t="str">
+        <f aca="false">IF($M9&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",#REF!)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W9" s="66"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="56" t="str">
+    <row r="10" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A10))</f>
         <v>mus:P10</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="61" t="str">
+      <c r="B10" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="63" t="str">
         <f aca="false">IF(LEFT($D10,SEARCH("..",$D10,1)-1)="n","",IF(LEFT($D10,SEARCH("..",$D10,1)-1)="0","",LEFT($D10,SEARCH("..",$D10,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L10" s="61" t="str">
+      <c r="L10" s="63" t="str">
         <f aca="false">IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="n","",IF(RIGHT($D10,SEARCH("..",$D10,1)-1)="0","",RIGHT($D10,SEARCH("..",$D10,1)-1)))</f>
         <v/>
       </c>
-      <c r="M10" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M10" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E10,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N10" s="62" t="str">
-        <f aca="false">IF(M10="sh:Literal",F10,"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="62" t="str">
-        <f aca="false">IF($M10="sh:IRI",IF($F10&lt;&gt;"",$F10,""),"")</f>
-        <v/>
-      </c>
-      <c r="P10" s="63" t="str">
-        <f aca="false">IF($M10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F10)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W10" s="64"/>
+      <c r="N10" s="64" t="str">
+        <f aca="false">IF(M10="sh:Literal",E10,"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="64" t="str">
+        <f aca="false">IF($M10="sh:IRI",IF($E10&lt;&gt;"",$E10,""),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="65" t="str">
+        <f aca="false">IF($M10&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E10)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W10" s="66"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="str">
+      <c r="A11" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A11))</f>
         <v>mus:P11</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>54</v>
+      <c r="B11" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="61" t="str">
+        <v>141</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="68"/>
+      <c r="K11" s="63" t="str">
         <f aca="false">IF(LEFT($D11,SEARCH("..",$D11,1)-1)="n","",IF(LEFT($D11,SEARCH("..",$D11,1)-1)="0","",LEFT($D11,SEARCH("..",$D11,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L11" s="61" t="str">
+      <c r="L11" s="63" t="str">
         <f aca="false">IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="n","",IF(RIGHT($D11,SEARCH("..",$D11,1)-1)="0","",RIGHT($D11,SEARCH("..",$D11,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M11" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F11,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M11" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E11,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N11" s="62" t="str">
-        <f aca="false">IF(M11="sh:Literal",F11,"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="62" t="str">
-        <f aca="false">IF($M11="sh:IRI",IF($F11&lt;&gt;"",$F11,""),"")</f>
+      <c r="N11" s="64" t="str">
+        <f aca="false">IF(M11="sh:Literal",E11,"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="64" t="str">
+        <f aca="false">IF($M11="sh:IRI",IF($E11&lt;&gt;"",$E11,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="P11" s="63" t="str">
-        <f aca="false">IF($M11&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F11)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56" t="str">
+      <c r="P11" s="65" t="str">
+        <f aca="false">IF($M11&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E11)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A12))</f>
         <v>mus:P12</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>54</v>
+      <c r="B12" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="61" t="str">
+      <c r="E12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="63" t="str">
         <f aca="false">IF(LEFT($D12,SEARCH("..",$D12,1)-1)="n","",IF(LEFT($D12,SEARCH("..",$D12,1)-1)="0","",LEFT($D12,SEARCH("..",$D12,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L12" s="61" t="str">
+      <c r="L12" s="63" t="str">
         <f aca="false">IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="n","",IF(RIGHT($D12,SEARCH("..",$D12,1)-1)="0","",RIGHT($D12,SEARCH("..",$D12,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M12" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F12,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M12" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E12,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N12" s="62" t="str">
-        <f aca="false">IF(M12="sh:Literal",F12,"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="62" t="str">
-        <f aca="false">IF($M12="sh:IRI",IF($F12&lt;&gt;"",$F12,""),"")</f>
+      <c r="N12" s="64" t="str">
+        <f aca="false">IF(M12="sh:Literal",E12,"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="64" t="str">
+        <f aca="false">IF($M12="sh:IRI",IF($E12&lt;&gt;"",$E12,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="P12" s="63" t="str">
-        <f aca="false">IF($M12&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F12)-1,0)=0,"","1"))</f>
+      <c r="P12" s="65" t="str">
+        <f aca="false">IF($M12&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E12)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="str">
+      <c r="A13" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A13))</f>
         <v>mus:P13</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>54</v>
+      <c r="B13" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="61" t="str">
+        <v>146</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="63" t="str">
         <f aca="false">IF(LEFT($D13,SEARCH("..",$D13,1)-1)="n","",IF(LEFT($D13,SEARCH("..",$D13,1)-1)="0","",LEFT($D13,SEARCH("..",$D13,1)-1)))</f>
         <v/>
       </c>
-      <c r="L13" s="61" t="str">
+      <c r="L13" s="63" t="str">
         <f aca="false">IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="n","",IF(RIGHT($D13,SEARCH("..",$D13,1)-1)="0","",RIGHT($D13,SEARCH("..",$D13,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M13" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F13,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M13" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E13,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N13" s="62" t="str">
-        <f aca="false">IF(M13="sh:Literal",F13,"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="62" t="str">
-        <f aca="false">IF($M13="sh:IRI",IF($F13&lt;&gt;"",$F13,""),"")</f>
+      <c r="N13" s="64" t="str">
+        <f aca="false">IF(M13="sh:Literal",E13,"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="64" t="str">
+        <f aca="false">IF($M13="sh:IRI",IF($E13&lt;&gt;"",$E13,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P13" s="63" t="str">
-        <f aca="false">IF($M13&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F13)-1,0)=0,"","1"))</f>
+      <c r="P13" s="65" t="str">
+        <f aca="false">IF($M13&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E13)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56" t="str">
+      <c r="A14" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A14))</f>
         <v>mus:P14</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>54</v>
+      <c r="B14" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="61" t="str">
+        <v>149</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="63" t="str">
         <f aca="false">IF(LEFT($D14,SEARCH("..",$D14,1)-1)="n","",IF(LEFT($D14,SEARCH("..",$D14,1)-1)="0","",LEFT($D14,SEARCH("..",$D14,1)-1)))</f>
         <v/>
       </c>
-      <c r="L14" s="61" t="str">
+      <c r="L14" s="63" t="str">
         <f aca="false">IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="n","",IF(RIGHT($D14,SEARCH("..",$D14,1)-1)="0","",RIGHT($D14,SEARCH("..",$D14,1)-1)))</f>
         <v/>
       </c>
-      <c r="M14" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F14,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M14" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E14,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N14" s="62" t="str">
-        <f aca="false">IF(M14="sh:Literal",F14,"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="62" t="str">
-        <f aca="false">IF($M14="sh:IRI",IF($F14&lt;&gt;"",$F14,""),"")</f>
+      <c r="N14" s="64" t="str">
+        <f aca="false">IF(M14="sh:Literal",E14,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="64" t="str">
+        <f aca="false">IF($M14="sh:IRI",IF($E14&lt;&gt;"",$E14,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P14" s="63" t="str">
-        <f aca="false">IF($M14&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F14)-1,0)=0,"","1"))</f>
+      <c r="P14" s="65" t="str">
+        <f aca="false">IF($M14&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E14)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56" t="str">
+      <c r="A15" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A15))</f>
         <v>mus:P15</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>54</v>
+      <c r="B15" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="K15" s="61" t="str">
+        <v>152</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="63" t="str">
         <f aca="false">IF(LEFT($D15,SEARCH("..",$D15,1)-1)="n","",IF(LEFT($D15,SEARCH("..",$D15,1)-1)="0","",LEFT($D15,SEARCH("..",$D15,1)-1)))</f>
         <v/>
       </c>
-      <c r="L15" s="61" t="str">
+      <c r="L15" s="63" t="str">
         <f aca="false">IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="n","",IF(RIGHT($D15,SEARCH("..",$D15,1)-1)="0","",RIGHT($D15,SEARCH("..",$D15,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M15" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F15,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M15" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E15,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N15" s="62" t="str">
-        <f aca="false">IF(M15="sh:Literal",F15,"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="62" t="str">
-        <f aca="false">IF($M15="sh:IRI",IF($F15&lt;&gt;"",$F15,""),"")</f>
+      <c r="N15" s="64" t="str">
+        <f aca="false">IF(M15="sh:Literal",E15,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="64" t="str">
+        <f aca="false">IF($M15="sh:IRI",IF($E15&lt;&gt;"",$E15,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="P15" s="63" t="str">
-        <f aca="false">IF($M15&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F15)-1,0)=0,"","1"))</f>
+      <c r="P15" s="65" t="str">
+        <f aca="false">IF($M15&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E15)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56" t="str">
+      <c r="A16" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A16))</f>
         <v>mus:P16</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>54</v>
+      <c r="B16" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="61" t="str">
+        <v>154</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="63" t="str">
         <f aca="false">IF(LEFT($D16,SEARCH("..",$D16,1)-1)="n","",IF(LEFT($D16,SEARCH("..",$D16,1)-1)="0","",LEFT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v/>
       </c>
-      <c r="L16" s="61" t="str">
+      <c r="L16" s="63" t="str">
         <f aca="false">IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="n","",IF(RIGHT($D16,SEARCH("..",$D16,1)-1)="0","",RIGHT($D16,SEARCH("..",$D16,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M16" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F16,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M16" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E16,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N16" s="62" t="str">
-        <f aca="false">IF(M16="sh:Literal",F16,"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="62" t="str">
-        <f aca="false">IF($M16="sh:IRI",IF($F16&lt;&gt;"",$F16,""),"")</f>
+      <c r="N16" s="64" t="str">
+        <f aca="false">IF(M16="sh:Literal",E16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="64" t="str">
+        <f aca="false">IF($M16="sh:IRI",IF($E16&lt;&gt;"",$E16,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="P16" s="63" t="str">
-        <f aca="false">IF($M16&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F16)-1,0)=0,"","1"))</f>
+      <c r="P16" s="65" t="str">
+        <f aca="false">IF($M16&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E16)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56" t="str">
+      <c r="A17" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A17))</f>
         <v>mus:P17</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>54</v>
+      <c r="B17" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="61" t="str">
+        <v>157</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="63" t="str">
         <f aca="false">IF(LEFT($D17,SEARCH("..",$D17,1)-1)="n","",IF(LEFT($D17,SEARCH("..",$D17,1)-1)="0","",LEFT($D17,SEARCH("..",$D17,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L17" s="61" t="str">
+      <c r="L17" s="63" t="str">
         <f aca="false">IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="n","",IF(RIGHT($D17,SEARCH("..",$D17,1)-1)="0","",RIGHT($D17,SEARCH("..",$D17,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M17" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M17" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E17,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N17" s="62" t="str">
-        <f aca="false">IF(M17="sh:Literal",F17,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="62" t="str">
-        <f aca="false">IF($M17="sh:IRI",IF($F17&lt;&gt;"",$F17,""),"")</f>
+      <c r="N17" s="64" t="str">
+        <f aca="false">IF(M17="sh:Literal",E17,"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="64" t="str">
+        <f aca="false">IF($M17="sh:IRI",IF($E17&lt;&gt;"",$E17,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="P17" s="63" t="str">
-        <f aca="false">IF($M17&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F17)-1,0)=0,"","1"))</f>
+      <c r="P17" s="65" t="str">
+        <f aca="false">IF($M17&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E17)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56" t="str">
+      <c r="A18" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A18))</f>
         <v>mus:P18</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="G18" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="61" t="str">
+      <c r="F18" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="68"/>
+      <c r="K18" s="63" t="str">
         <f aca="false">IF(LEFT($D18,SEARCH("..",$D18,1)-1)="n","",IF(LEFT($D18,SEARCH("..",$D18,1)-1)="0","",LEFT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="L18" s="61" t="str">
+      <c r="L18" s="63" t="str">
         <f aca="false">IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="n","",IF(RIGHT($D18,SEARCH("..",$D18,1)-1)="0","",RIGHT($D18,SEARCH("..",$D18,1)-1)))</f>
         <v/>
       </c>
-      <c r="M18" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M18" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E18,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N18" s="62" t="str">
-        <f aca="false">IF(M18="sh:Literal",F18,"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="62" t="str">
-        <f aca="false">IF($M18="sh:IRI",IF($F18&lt;&gt;"",$F18,""),"")</f>
-        <v/>
-      </c>
-      <c r="P18" s="63" t="str">
-        <f aca="false">IF($M18&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F18)-1,0)=0,"","1"))</f>
+      <c r="N18" s="64" t="str">
+        <f aca="false">IF(M18="sh:Literal",E18,"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="64" t="str">
+        <f aca="false">IF($M18="sh:IRI",IF($E18&lt;&gt;"",$E18,""),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="65" t="str">
+        <f aca="false">IF($M18&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E18)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56" t="str">
+      <c r="A19" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A19))</f>
         <v>mus:P19</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="65"/>
-      <c r="G19" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" s="61" t="str">
+      <c r="B19" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="63" t="str">
         <f aca="false">IF(LEFT($D19,SEARCH("..",$D19,1)-1)="n","",IF(LEFT($D19,SEARCH("..",$D19,1)-1)="0","",LEFT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="L19" s="61" t="str">
+      <c r="L19" s="63" t="str">
         <f aca="false">IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="n","",IF(RIGHT($D19,SEARCH("..",$D19,1)-1)="0","",RIGHT($D19,SEARCH("..",$D19,1)-1)))</f>
         <v/>
       </c>
-      <c r="M19" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M19" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E19,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N19" s="62" t="str">
-        <f aca="false">IF(M19="sh:Literal",F19,"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="62" t="str">
-        <f aca="false">IF($M19="sh:IRI",IF($F19&lt;&gt;"",$F19,""),"")</f>
-        <v/>
-      </c>
-      <c r="P19" s="63" t="str">
-        <f aca="false">IF($M19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F19)-1,0)=0,"","1"))</f>
+      <c r="N19" s="64" t="str">
+        <f aca="false">IF(M19="sh:Literal",E19,"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="64" t="str">
+        <f aca="false">IF($M19="sh:IRI",IF($E19&lt;&gt;"",$E19,""),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="65" t="str">
+        <f aca="false">IF($M19&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E19)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="56" t="str">
+      <c r="A20" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A20))</f>
         <v>mus:P20</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="65"/>
-      <c r="G20" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" s="61" t="str">
+      <c r="B20" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="63" t="str">
         <f aca="false">IF(LEFT($D20,SEARCH("..",$D20,1)-1)="n","",IF(LEFT($D20,SEARCH("..",$D20,1)-1)="0","",LEFT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="L20" s="61" t="str">
+      <c r="L20" s="63" t="str">
         <f aca="false">IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="n","",IF(RIGHT($D20,SEARCH("..",$D20,1)-1)="0","",RIGHT($D20,SEARCH("..",$D20,1)-1)))</f>
         <v/>
       </c>
-      <c r="M20" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M20" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E20,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N20" s="62" t="str">
-        <f aca="false">IF(M20="sh:Literal",F20,"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="62" t="str">
-        <f aca="false">IF($M20="sh:IRI",IF($F20&lt;&gt;"",$F20,""),"")</f>
-        <v/>
-      </c>
-      <c r="P20" s="63" t="str">
-        <f aca="false">IF($M20&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F20)-1,0)=0,"","1"))</f>
+      <c r="N20" s="64" t="str">
+        <f aca="false">IF(M20="sh:Literal",E20,"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="64" t="str">
+        <f aca="false">IF($M20="sh:IRI",IF($E20&lt;&gt;"",$E20,""),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="65" t="str">
+        <f aca="false">IF($M20&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E20)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="56" t="str">
+      <c r="A21" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A21))</f>
         <v>mus:P21</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="G21" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="61" t="str">
+      <c r="B21" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="63" t="str">
         <f aca="false">IF(LEFT($D21,SEARCH("..",$D21,1)-1)="n","",IF(LEFT($D21,SEARCH("..",$D21,1)-1)="0","",LEFT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="L21" s="61" t="str">
+      <c r="L21" s="63" t="str">
         <f aca="false">IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="n","",IF(RIGHT($D21,SEARCH("..",$D21,1)-1)="0","",RIGHT($D21,SEARCH("..",$D21,1)-1)))</f>
         <v/>
       </c>
-      <c r="M21" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F21,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M21" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E21,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N21" s="62" t="str">
-        <f aca="false">IF(M21="sh:Literal",F21,"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="62" t="str">
-        <f aca="false">IF($M21="sh:IRI",IF($F21&lt;&gt;"",$F21,""),"")</f>
-        <v/>
-      </c>
-      <c r="P21" s="63" t="str">
-        <f aca="false">IF($M21&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F21)-1,0)=0,"","1"))</f>
+      <c r="N21" s="64" t="str">
+        <f aca="false">IF(M21="sh:Literal",E21,"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="64" t="str">
+        <f aca="false">IF($M21="sh:IRI",IF($E21&lt;&gt;"",$E21,""),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="65" t="str">
+        <f aca="false">IF($M21&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E21)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56" t="str">
+      <c r="A22" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A22))</f>
         <v>mus:P22</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>54</v>
+      <c r="B22" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="65"/>
-      <c r="F22" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="61" t="str">
+        <v>168</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="68"/>
+      <c r="K22" s="63" t="str">
         <f aca="false">IF(LEFT($D22,SEARCH("..",$D22,1)-1)="n","",IF(LEFT($D22,SEARCH("..",$D22,1)-1)="0","",LEFT($D22,SEARCH("..",$D22,1)-1)))</f>
         <v/>
       </c>
-      <c r="L22" s="61" t="str">
+      <c r="L22" s="63" t="str">
         <f aca="false">IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="n","",IF(RIGHT($D22,SEARCH("..",$D22,1)-1)="0","",RIGHT($D22,SEARCH("..",$D22,1)-1)))</f>
         <v/>
       </c>
-      <c r="M22" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F22,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M22" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E22,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N22" s="62" t="str">
-        <f aca="false">IF(M22="sh:Literal",F22,"")</f>
+      <c r="N22" s="64" t="str">
+        <f aca="false">IF(M22="sh:Literal",E22,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O22" s="62" t="str">
-        <f aca="false">IF($M22="sh:IRI",IF($F22&lt;&gt;"",$F22,""),"")</f>
-        <v/>
-      </c>
-      <c r="P22" s="63" t="str">
-        <f aca="false">IF($M22&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F22)-1,0)=0,"","1"))</f>
+      <c r="O22" s="64" t="str">
+        <f aca="false">IF($M22="sh:IRI",IF($E22&lt;&gt;"",$E22,""),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="65" t="str">
+        <f aca="false">IF($M22&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E22)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56" t="str">
+      <c r="A23" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A23))</f>
         <v>mus:P23</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>54</v>
+      <c r="B23" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K23" s="61" t="str">
+        <v>171</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="63" t="str">
         <f aca="false">IF(LEFT($D23,SEARCH("..",$D23,1)-1)="n","",IF(LEFT($D23,SEARCH("..",$D23,1)-1)="0","",LEFT($D23,SEARCH("..",$D23,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L23" s="61" t="str">
+      <c r="L23" s="63" t="str">
         <f aca="false">IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="n","",IF(RIGHT($D23,SEARCH("..",$D23,1)-1)="0","",RIGHT($D23,SEARCH("..",$D23,1)-1)))</f>
         <v/>
       </c>
-      <c r="M23" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M23" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E23,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N23" s="62" t="str">
-        <f aca="false">IF(M23="sh:Literal",F23,"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="62" t="str">
-        <f aca="false">IF($M23="sh:IRI",IF($F23&lt;&gt;"",$F23,""),"")</f>
+      <c r="N23" s="64" t="str">
+        <f aca="false">IF(M23="sh:Literal",E23,"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="64" t="str">
+        <f aca="false">IF($M23="sh:IRI",IF($E23&lt;&gt;"",$E23,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="P23" s="63" t="str">
-        <f aca="false">IF($M23&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F23)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" s="69" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68" t="str">
+      <c r="P23" s="65" t="str">
+        <f aca="false">IF($M23&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E23)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" s="71" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="70" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A24))</f>
         <v>mus:P24</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75" t="str">
+      <c r="B24" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77" t="str">
         <f aca="false">IF(LEFT($D24,SEARCH("..",$D24,1)-1)="n","",IF(LEFT($D24,SEARCH("..",$D24,1)-1)="0","",LEFT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="L24" s="75" t="str">
+      <c r="L24" s="77" t="str">
         <f aca="false">IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="n","",IF(RIGHT($D24,SEARCH("..",$D24,1)-1)="0","",RIGHT($D24,SEARCH("..",$D24,1)-1)))</f>
         <v/>
       </c>
-      <c r="M24" s="76" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F24,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M24" s="78" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E24,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N24" s="76" t="str">
-        <f aca="false">IF(M24="sh:Literal",F24,"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="62" t="str">
-        <f aca="false">IF($M24="sh:IRI",IF($F24&lt;&gt;"",$F24,""),"")</f>
+      <c r="N24" s="78" t="str">
+        <f aca="false">IF(M24="sh:Literal",E24,"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="64" t="str">
+        <f aca="false">IF($M24="sh:IRI",IF($E24&lt;&gt;"",$E24,""),"")</f>
         <v>mus:M167_Publication_Expression_Fragment</v>
       </c>
-      <c r="P24" s="77" t="str">
-        <f aca="false">IF($M24&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F24)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X24" s="73"/>
-      <c r="AMJ24" s="22"/>
+      <c r="P24" s="79" t="str">
+        <f aca="false">IF($M24&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E24)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X24" s="74"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="56" t="str">
+      <c r="A25" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A25))</f>
         <v>mus:P25</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>54</v>
+      <c r="B25" s="59" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="61" t="str">
+        <v>176</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="63" t="str">
         <f aca="false">IF(LEFT($D25,SEARCH("..",$D25,1)-1)="n","",IF(LEFT($D25,SEARCH("..",$D25,1)-1)="0","",LEFT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="L25" s="61" t="str">
+      <c r="L25" s="63" t="str">
         <f aca="false">IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="n","",IF(RIGHT($D25,SEARCH("..",$D25,1)-1)="0","",RIGHT($D25,SEARCH("..",$D25,1)-1)))</f>
         <v/>
       </c>
-      <c r="M25" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F25,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M25" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E25,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N25" s="62" t="str">
-        <f aca="false">IF(M25="sh:Literal",F25,"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="62" t="str">
-        <f aca="false">IF($M25="sh:IRI",IF($F25&lt;&gt;"",$F25,""),"")</f>
+      <c r="N25" s="64" t="str">
+        <f aca="false">IF(M25="sh:Literal",E25,"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="64" t="str">
+        <f aca="false">IF($M25="sh:IRI",IF($E25&lt;&gt;"",$E25,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="P25" s="63" t="str">
-        <f aca="false">IF($M25&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F25)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="P26" s="54"/>
-      <c r="X26" s="51"/>
+      <c r="P25" s="65" t="str">
+        <f aca="false">IF($M25&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E25)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="P26" s="55"/>
+      <c r="X26" s="56"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="56" t="str">
+    <row r="27" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A27))</f>
         <v>mus:P27</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61" t="str">
+      <c r="B27" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="63" t="str">
         <f aca="false">IF(LEFT($D27,SEARCH("..",$D27,1)-1)="n","",IF(LEFT($D27,SEARCH("..",$D27,1)-1)="0","",LEFT($D27,SEARCH("..",$D27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L27" s="61" t="str">
+      <c r="L27" s="63" t="str">
         <f aca="false">IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="n","",IF(RIGHT($D27,SEARCH("..",$D27,1)-1)="0","",RIGHT($D27,SEARCH("..",$D27,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M27" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M27" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E27,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N27" s="62" t="str">
-        <f aca="false">IF(M27="sh:Literal",F27,"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="62" t="str">
-        <f aca="false">IF($M27="sh:IRI",IF($F27&lt;&gt;"",$F27,""),"")</f>
-        <v/>
-      </c>
-      <c r="P27" s="63" t="str">
-        <f aca="false">IF($M27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F27)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W27" s="64"/>
+      <c r="N27" s="64" t="str">
+        <f aca="false">IF(M27="sh:Literal",E27,"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="64" t="str">
+        <f aca="false">IF($M27="sh:IRI",IF($E27&lt;&gt;"",$E27,""),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="65" t="str">
+        <f aca="false">IF($M27&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E27)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W27" s="66"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="57" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56" t="str">
+    <row r="28" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A28))</f>
         <v>mus:P28</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="61" t="str">
+      <c r="B28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="63" t="str">
         <f aca="false">IF(LEFT($D28,SEARCH("..",$D28,1)-1)="n","",IF(LEFT($D28,SEARCH("..",$D28,1)-1)="0","",LEFT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L28" s="61" t="str">
+      <c r="L28" s="63" t="str">
         <f aca="false">IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="n","",IF(RIGHT($D28,SEARCH("..",$D28,1)-1)="0","",RIGHT($D28,SEARCH("..",$D28,1)-1)))</f>
         <v/>
       </c>
-      <c r="M28" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M28" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E28,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N28" s="62" t="str">
-        <f aca="false">IF(M28="sh:Literal",F28,"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="62" t="str">
-        <f aca="false">IF($M28="sh:IRI",IF($F28&lt;&gt;"",$F28,""),"")</f>
-        <v/>
-      </c>
-      <c r="P28" s="63" t="str">
-        <f aca="false">IF($M28&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F28)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="W28" s="64"/>
+      <c r="N28" s="64" t="str">
+        <f aca="false">IF(M28="sh:Literal",E28,"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="64" t="str">
+        <f aca="false">IF($M28="sh:IRI",IF($E28&lt;&gt;"",$E28,""),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="65" t="str">
+        <f aca="false">IF($M28&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E28)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="W28" s="66"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56" t="str">
+      <c r="A29" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A29))</f>
         <v>mus:P29</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>73</v>
+      <c r="B29" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="61" t="str">
+        <v>141</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="68"/>
+      <c r="K29" s="63" t="str">
         <f aca="false">IF(LEFT($D29,SEARCH("..",$D29,1)-1)="n","",IF(LEFT($D29,SEARCH("..",$D29,1)-1)="0","",LEFT($D29,SEARCH("..",$D29,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L29" s="61" t="str">
+      <c r="L29" s="63" t="str">
         <f aca="false">IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="n","",IF(RIGHT($D29,SEARCH("..",$D29,1)-1)="0","",RIGHT($D29,SEARCH("..",$D29,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M29" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M29" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E29,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N29" s="62" t="str">
-        <f aca="false">IF(M29="sh:Literal",F29,"")</f>
-        <v/>
-      </c>
-      <c r="O29" s="62" t="str">
-        <f aca="false">IF($M29="sh:IRI",IF($F29&lt;&gt;"",$F29,""),"")</f>
+      <c r="N29" s="64" t="str">
+        <f aca="false">IF(M29="sh:Literal",E29,"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="64" t="str">
+        <f aca="false">IF($M29="sh:IRI",IF($E29&lt;&gt;"",$E29,""),"")</f>
         <v>mus:M156_Title_Statement</v>
       </c>
-      <c r="P29" s="63" t="str">
-        <f aca="false">IF($M29&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F29)-1,0)=0,"","1"))</f>
+      <c r="P29" s="65" t="str">
+        <f aca="false">IF($M29&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E29)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="56" t="str">
+      <c r="A30" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A30))</f>
         <v>mus:P30</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>73</v>
+      <c r="B30" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="61" t="str">
+      <c r="E30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="68"/>
+      <c r="K30" s="63" t="str">
         <f aca="false">IF(LEFT($D30,SEARCH("..",$D30,1)-1)="n","",IF(LEFT($D30,SEARCH("..",$D30,1)-1)="0","",LEFT($D30,SEARCH("..",$D30,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L30" s="61" t="str">
+      <c r="L30" s="63" t="str">
         <f aca="false">IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="n","",IF(RIGHT($D30,SEARCH("..",$D30,1)-1)="0","",RIGHT($D30,SEARCH("..",$D30,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M30" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F30,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M30" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E30,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N30" s="62" t="str">
-        <f aca="false">IF(M30="sh:Literal",F30,"")</f>
-        <v/>
-      </c>
-      <c r="O30" s="62" t="str">
-        <f aca="false">IF($M30="sh:IRI",IF($F30&lt;&gt;"",$F30,""),"")</f>
+      <c r="N30" s="64" t="str">
+        <f aca="false">IF(M30="sh:Literal",E30,"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="64" t="str">
+        <f aca="false">IF($M30="sh:IRI",IF($E30&lt;&gt;"",$E30,""),"")</f>
         <v>mus:M157_Statement_of_Responsibility</v>
       </c>
-      <c r="P30" s="63" t="str">
-        <f aca="false">IF($M30&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F30)-1,0)=0,"","1"))</f>
+      <c r="P30" s="65" t="str">
+        <f aca="false">IF($M30&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E30)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="56" t="str">
+      <c r="A31" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A31))</f>
         <v>mus:P31</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" s="61" t="str">
+      <c r="F31" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="68"/>
+      <c r="K31" s="63" t="str">
         <f aca="false">IF(LEFT($D31,SEARCH("..",$D31,1)-1)="n","",IF(LEFT($D31,SEARCH("..",$D31,1)-1)="0","",LEFT($D31,SEARCH("..",$D31,1)-1)))</f>
         <v/>
       </c>
-      <c r="L31" s="61" t="str">
+      <c r="L31" s="63" t="str">
         <f aca="false">IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="n","",IF(RIGHT($D31,SEARCH("..",$D31,1)-1)="0","",RIGHT($D31,SEARCH("..",$D31,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M31" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F31,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M31" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E31,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N31" s="62" t="str">
-        <f aca="false">IF(M31="sh:Literal",F31,"")</f>
-        <v/>
-      </c>
-      <c r="O31" s="62" t="str">
-        <f aca="false">IF($M31="sh:IRI",IF($F31&lt;&gt;"",$F31,""),"")</f>
+      <c r="N31" s="64" t="str">
+        <f aca="false">IF(M31="sh:Literal",E31,"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="64" t="str">
+        <f aca="false">IF($M31="sh:IRI",IF($E31&lt;&gt;"",$E31,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P31" s="63" t="str">
-        <f aca="false">IF($M31&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F31)-1,0)=0,"","1"))</f>
+      <c r="P31" s="65" t="str">
+        <f aca="false">IF($M31&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E31)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="56" t="str">
+      <c r="A32" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A32))</f>
         <v>mus:P32</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K32" s="61" t="str">
+      <c r="F32" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="68"/>
+      <c r="K32" s="63" t="str">
         <f aca="false">IF(LEFT($D32,SEARCH("..",$D32,1)-1)="n","",IF(LEFT($D32,SEARCH("..",$D32,1)-1)="0","",LEFT($D32,SEARCH("..",$D32,1)-1)))</f>
         <v/>
       </c>
-      <c r="L32" s="61" t="str">
+      <c r="L32" s="63" t="str">
         <f aca="false">IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="n","",IF(RIGHT($D32,SEARCH("..",$D32,1)-1)="0","",RIGHT($D32,SEARCH("..",$D32,1)-1)))</f>
         <v/>
       </c>
-      <c r="M32" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M32" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E32,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N32" s="62" t="str">
-        <f aca="false">IF(M32="sh:Literal",F32,"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="62" t="str">
-        <f aca="false">IF($M32="sh:IRI",IF($F32&lt;&gt;"",$F32,""),"")</f>
+      <c r="N32" s="64" t="str">
+        <f aca="false">IF(M32="sh:Literal",E32,"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="64" t="str">
+        <f aca="false">IF($M32="sh:IRI",IF($E32&lt;&gt;"",$E32,""),"")</f>
         <v>ecrm:E35_Title</v>
       </c>
-      <c r="P32" s="63" t="str">
-        <f aca="false">IF($M32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F32)-1,0)=0,"","1"))</f>
+      <c r="P32" s="65" t="str">
+        <f aca="false">IF($M32&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E32)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="56" t="str">
+      <c r="A33" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A33))</f>
         <v>mus:P33</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>73</v>
+      <c r="B33" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="61" t="str">
+        <v>152</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="68"/>
+      <c r="K33" s="63" t="str">
         <f aca="false">IF(LEFT($D33,SEARCH("..",$D33,1)-1)="n","",IF(LEFT($D33,SEARCH("..",$D33,1)-1)="0","",LEFT($D33,SEARCH("..",$D33,1)-1)))</f>
         <v/>
       </c>
-      <c r="L33" s="61" t="str">
+      <c r="L33" s="63" t="str">
         <f aca="false">IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="n","",IF(RIGHT($D33,SEARCH("..",$D33,1)-1)="0","",RIGHT($D33,SEARCH("..",$D33,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M33" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M33" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E33,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N33" s="62" t="str">
-        <f aca="false">IF(M33="sh:Literal",F33,"")</f>
-        <v/>
-      </c>
-      <c r="O33" s="62" t="str">
-        <f aca="false">IF($M33="sh:IRI",IF($F33&lt;&gt;"",$F33,""),"")</f>
+      <c r="N33" s="64" t="str">
+        <f aca="false">IF(M33="sh:Literal",E33,"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="64" t="str">
+        <f aca="false">IF($M33="sh:IRI",IF($E33&lt;&gt;"",$E33,""),"")</f>
         <v>mus:M159_Edition_Statement</v>
       </c>
-      <c r="P33" s="63" t="str">
-        <f aca="false">IF($M33&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F33)-1,0)=0,"","1"))</f>
+      <c r="P33" s="65" t="str">
+        <f aca="false">IF($M33&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E33)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="56" t="str">
+      <c r="A34" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A34))</f>
         <v>mus:P34</v>
       </c>
-      <c r="B34" s="57" t="s">
-        <v>73</v>
+      <c r="B34" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="K34" s="61" t="str">
+        <v>154</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="68"/>
+      <c r="K34" s="63" t="str">
         <f aca="false">IF(LEFT($D34,SEARCH("..",$D34,1)-1)="n","",IF(LEFT($D34,SEARCH("..",$D34,1)-1)="0","",LEFT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v/>
       </c>
-      <c r="L34" s="61" t="str">
+      <c r="L34" s="63" t="str">
         <f aca="false">IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="n","",IF(RIGHT($D34,SEARCH("..",$D34,1)-1)="0","",RIGHT($D34,SEARCH("..",$D34,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M34" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F34,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M34" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E34,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N34" s="62" t="str">
-        <f aca="false">IF(M34="sh:Literal",F34,"")</f>
-        <v/>
-      </c>
-      <c r="O34" s="62" t="str">
-        <f aca="false">IF($M34="sh:IRI",IF($F34&lt;&gt;"",$F34,""),"")</f>
+      <c r="N34" s="64" t="str">
+        <f aca="false">IF(M34="sh:Literal",E34,"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="64" t="str">
+        <f aca="false">IF($M34="sh:IRI",IF($E34&lt;&gt;"",$E34,""),"")</f>
         <v>mus:M163_Music_Format_Statement</v>
       </c>
-      <c r="P34" s="63" t="str">
-        <f aca="false">IF($M34&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F34)-1,0)=0,"","1"))</f>
+      <c r="P34" s="65" t="str">
+        <f aca="false">IF($M34&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E34)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="56" t="str">
+      <c r="A35" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A35))</f>
         <v>mus:P35</v>
       </c>
-      <c r="B35" s="57" t="s">
-        <v>73</v>
+      <c r="B35" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="K35" s="61" t="str">
+        <v>157</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="J35" s="68"/>
+      <c r="K35" s="63" t="str">
         <f aca="false">IF(LEFT($D35,SEARCH("..",$D35,1)-1)="n","",IF(LEFT($D35,SEARCH("..",$D35,1)-1)="0","",LEFT($D35,SEARCH("..",$D35,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L35" s="61" t="str">
+      <c r="L35" s="63" t="str">
         <f aca="false">IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="n","",IF(RIGHT($D35,SEARCH("..",$D35,1)-1)="0","",RIGHT($D35,SEARCH("..",$D35,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M35" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F35,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M35" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E35,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N35" s="62" t="str">
-        <f aca="false">IF(M35="sh:Literal",F35,"")</f>
-        <v/>
-      </c>
-      <c r="O35" s="62" t="str">
-        <f aca="false">IF($M35="sh:IRI",IF($F35&lt;&gt;"",$F35,""),"")</f>
+      <c r="N35" s="64" t="str">
+        <f aca="false">IF(M35="sh:Literal",E35,"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="64" t="str">
+        <f aca="false">IF($M35="sh:IRI",IF($E35&lt;&gt;"",$E35,""),"")</f>
         <v>mus:M160_Publication_Statement</v>
       </c>
-      <c r="P35" s="63" t="str">
-        <f aca="false">IF($M35&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F35)-1,0)=0,"","1"))</f>
+      <c r="P35" s="65" t="str">
+        <f aca="false">IF($M35&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E35)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="56" t="str">
+      <c r="A36" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A36))</f>
         <v>mus:P36</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="65"/>
-      <c r="G36" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" s="61" t="str">
+      <c r="F36" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="68"/>
+      <c r="K36" s="63" t="str">
         <f aca="false">IF(LEFT($D36,SEARCH("..",$D36,1)-1)="n","",IF(LEFT($D36,SEARCH("..",$D36,1)-1)="0","",LEFT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="L36" s="61" t="str">
+      <c r="L36" s="63" t="str">
         <f aca="false">IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="n","",IF(RIGHT($D36,SEARCH("..",$D36,1)-1)="0","",RIGHT($D36,SEARCH("..",$D36,1)-1)))</f>
         <v/>
       </c>
-      <c r="M36" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F36,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M36" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E36,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N36" s="62" t="str">
-        <f aca="false">IF(M36="sh:Literal",F36,"")</f>
-        <v/>
-      </c>
-      <c r="O36" s="62" t="str">
-        <f aca="false">IF($M36="sh:IRI",IF($F36&lt;&gt;"",$F36,""),"")</f>
-        <v/>
-      </c>
-      <c r="P36" s="63" t="str">
-        <f aca="false">IF($M36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F36)-1,0)=0,"","1"))</f>
+      <c r="N36" s="64" t="str">
+        <f aca="false">IF(M36="sh:Literal",E36,"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="64" t="str">
+        <f aca="false">IF($M36="sh:IRI",IF($E36&lt;&gt;"",$E36,""),"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="65" t="str">
+        <f aca="false">IF($M36&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E36)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="56" t="str">
+      <c r="A37" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A37))</f>
         <v>mus:P37</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="65"/>
-      <c r="G37" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K37" s="61" t="str">
+      <c r="B37" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="68"/>
+      <c r="K37" s="63" t="str">
         <f aca="false">IF(LEFT($D37,SEARCH("..",$D37,1)-1)="n","",IF(LEFT($D37,SEARCH("..",$D37,1)-1)="0","",LEFT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="L37" s="61" t="str">
+      <c r="L37" s="63" t="str">
         <f aca="false">IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="n","",IF(RIGHT($D37,SEARCH("..",$D37,1)-1)="0","",RIGHT($D37,SEARCH("..",$D37,1)-1)))</f>
         <v/>
       </c>
-      <c r="M37" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F37,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M37" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E37,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N37" s="62" t="str">
-        <f aca="false">IF(M37="sh:Literal",F37,"")</f>
-        <v/>
-      </c>
-      <c r="O37" s="62" t="str">
-        <f aca="false">IF($M37="sh:IRI",IF($F37&lt;&gt;"",$F37,""),"")</f>
-        <v/>
-      </c>
-      <c r="P37" s="63" t="str">
-        <f aca="false">IF($M37&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F37)-1,0)=0,"","1"))</f>
+      <c r="N37" s="64" t="str">
+        <f aca="false">IF(M37="sh:Literal",E37,"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="64" t="str">
+        <f aca="false">IF($M37="sh:IRI",IF($E37&lt;&gt;"",$E37,""),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="65" t="str">
+        <f aca="false">IF($M37&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E37)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="56" t="str">
+      <c r="A38" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A38))</f>
         <v>mus:P38</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="65"/>
-      <c r="G38" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="61" t="str">
+      <c r="B38" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="68"/>
+      <c r="K38" s="63" t="str">
         <f aca="false">IF(LEFT($D38,SEARCH("..",$D38,1)-1)="n","",IF(LEFT($D38,SEARCH("..",$D38,1)-1)="0","",LEFT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="L38" s="61" t="str">
+      <c r="L38" s="63" t="str">
         <f aca="false">IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="n","",IF(RIGHT($D38,SEARCH("..",$D38,1)-1)="0","",RIGHT($D38,SEARCH("..",$D38,1)-1)))</f>
         <v/>
       </c>
-      <c r="M38" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F38,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M38" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E38,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N38" s="62" t="str">
-        <f aca="false">IF(M38="sh:Literal",F38,"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="62" t="str">
-        <f aca="false">IF($M38="sh:IRI",IF($F38&lt;&gt;"",$F38,""),"")</f>
-        <v/>
-      </c>
-      <c r="P38" s="63" t="str">
-        <f aca="false">IF($M38&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F38)-1,0)=0,"","1"))</f>
+      <c r="N38" s="64" t="str">
+        <f aca="false">IF(M38="sh:Literal",E38,"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="64" t="str">
+        <f aca="false">IF($M38="sh:IRI",IF($E38&lt;&gt;"",$E38,""),"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="65" t="str">
+        <f aca="false">IF($M38&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E38)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="56" t="str">
+      <c r="A39" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A39))</f>
         <v>mus:P39</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="65"/>
-      <c r="G39" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="61" t="str">
+      <c r="B39" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="63" t="str">
         <f aca="false">IF(LEFT($D39,SEARCH("..",$D39,1)-1)="n","",IF(LEFT($D39,SEARCH("..",$D39,1)-1)="0","",LEFT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="L39" s="61" t="str">
+      <c r="L39" s="63" t="str">
         <f aca="false">IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="n","",IF(RIGHT($D39,SEARCH("..",$D39,1)-1)="0","",RIGHT($D39,SEARCH("..",$D39,1)-1)))</f>
         <v/>
       </c>
-      <c r="M39" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F39,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M39" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E39,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N39" s="62" t="str">
-        <f aca="false">IF(M39="sh:Literal",F39,"")</f>
-        <v/>
-      </c>
-      <c r="O39" s="62" t="str">
-        <f aca="false">IF($M39="sh:IRI",IF($F39&lt;&gt;"",$F39,""),"")</f>
-        <v/>
-      </c>
-      <c r="P39" s="63" t="str">
-        <f aca="false">IF($M39&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F39)-1,0)=0,"","1"))</f>
+      <c r="N39" s="64" t="str">
+        <f aca="false">IF(M39="sh:Literal",E39,"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="64" t="str">
+        <f aca="false">IF($M39="sh:IRI",IF($E39&lt;&gt;"",$E39,""),"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="65" t="str">
+        <f aca="false">IF($M39&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E39)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="56" t="str">
+      <c r="A40" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A40))</f>
         <v>mus:P40</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>73</v>
+      <c r="B40" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="K40" s="61" t="str">
+        <v>168</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="63" t="str">
         <f aca="false">IF(LEFT($D40,SEARCH("..",$D40,1)-1)="n","",IF(LEFT($D40,SEARCH("..",$D40,1)-1)="0","",LEFT($D40,SEARCH("..",$D40,1)-1)))</f>
         <v/>
       </c>
-      <c r="L40" s="61" t="str">
+      <c r="L40" s="63" t="str">
         <f aca="false">IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="n","",IF(RIGHT($D40,SEARCH("..",$D40,1)-1)="0","",RIGHT($D40,SEARCH("..",$D40,1)-1)))</f>
         <v/>
       </c>
-      <c r="M40" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M40" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E40,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N40" s="62" t="str">
-        <f aca="false">IF(M40="sh:Literal",F40,"")</f>
+      <c r="N40" s="64" t="str">
+        <f aca="false">IF(M40="sh:Literal",E40,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O40" s="62" t="str">
-        <f aca="false">IF($M40="sh:IRI",IF($F40&lt;&gt;"",$F40,""),"")</f>
-        <v/>
-      </c>
-      <c r="P40" s="63" t="str">
-        <f aca="false">IF($M40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F40)-1,0)=0,"","1"))</f>
+      <c r="O40" s="64" t="str">
+        <f aca="false">IF($M40="sh:IRI",IF($E40&lt;&gt;"",$E40,""),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="65" t="str">
+        <f aca="false">IF($M40&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E40)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="56" t="str">
+      <c r="A41" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A41))</f>
         <v>mus:P41</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>73</v>
+      <c r="B41" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K41" s="61" t="str">
+        <v>171</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="63" t="str">
         <f aca="false">IF(LEFT($D41,SEARCH("..",$D41,1)-1)="n","",IF(LEFT($D41,SEARCH("..",$D41,1)-1)="0","",LEFT($D41,SEARCH("..",$D41,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L41" s="61" t="str">
+      <c r="L41" s="63" t="str">
         <f aca="false">IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="n","",IF(RIGHT($D41,SEARCH("..",$D41,1)-1)="0","",RIGHT($D41,SEARCH("..",$D41,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M41" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M41" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E41,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N41" s="62" t="str">
-        <f aca="false">IF(M41="sh:Literal",F41,"")</f>
-        <v/>
-      </c>
-      <c r="O41" s="62" t="str">
-        <f aca="false">IF($M41="sh:IRI",IF($F41&lt;&gt;"",$F41,""),"")</f>
+      <c r="N41" s="64" t="str">
+        <f aca="false">IF(M41="sh:Literal",E41,"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="64" t="str">
+        <f aca="false">IF($M41="sh:IRI",IF($E41&lt;&gt;"",$E41,""),"")</f>
         <v>ecrm:E42_Identifier</v>
       </c>
-      <c r="P41" s="63" t="str">
-        <f aca="false">IF($M41&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F41)-1,0)=0,"","1"))</f>
+      <c r="P41" s="65" t="str">
+        <f aca="false">IF($M41&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E41)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56" t="str">
+      <c r="A42" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A42))</f>
         <v>mus:P42</v>
       </c>
-      <c r="B42" s="57" t="s">
-        <v>73</v>
+      <c r="B42" s="59" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="K42" s="61" t="str">
+        <v>176</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="63" t="str">
         <f aca="false">IF(LEFT($D42,SEARCH("..",$D42,1)-1)="n","",IF(LEFT($D42,SEARCH("..",$D42,1)-1)="0","",LEFT($D42,SEARCH("..",$D42,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L42" s="61" t="str">
+      <c r="L42" s="63" t="str">
         <f aca="false">IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="n","",IF(RIGHT($D42,SEARCH("..",$D42,1)-1)="0","",RIGHT($D42,SEARCH("..",$D42,1)-1)))</f>
         <v/>
       </c>
-      <c r="M42" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M42" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E42,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N42" s="62" t="str">
-        <f aca="false">IF(M42="sh:Literal",F42,"")</f>
-        <v/>
-      </c>
-      <c r="O42" s="62" t="str">
-        <f aca="false">IF($M42="sh:IRI",IF($F42&lt;&gt;"",$F42,""),"")</f>
+      <c r="N42" s="64" t="str">
+        <f aca="false">IF(M42="sh:Literal",E42,"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="64" t="str">
+        <f aca="false">IF($M42="sh:IRI",IF($E42&lt;&gt;"",$E42,""),"")</f>
         <v>mus:M6_Casting</v>
       </c>
-      <c r="P42" s="63" t="str">
-        <f aca="false">IF($M42&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F42)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="P43" s="54"/>
-      <c r="X43" s="51"/>
+      <c r="P42" s="65" t="str">
+        <f aca="false">IF($M42&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E42)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="P43" s="55"/>
+      <c r="X43" s="56"/>
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="56" t="str">
+      <c r="A44" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A44))</f>
         <v>mus:P44</v>
       </c>
-      <c r="B44" s="57" t="s">
-        <v>60</v>
+      <c r="B44" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="65"/>
-      <c r="F44" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44" s="61" t="str">
+        <v>183</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="J44" s="68"/>
+      <c r="K44" s="63" t="str">
         <f aca="false">IF(LEFT($D44,SEARCH("..",$D44,1)-1)="n","",IF(LEFT($D44,SEARCH("..",$D44,1)-1)="0","",LEFT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L44" s="61" t="str">
+      <c r="L44" s="63" t="str">
         <f aca="false">IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="n","",IF(RIGHT($D44,SEARCH("..",$D44,1)-1)="0","",RIGHT($D44,SEARCH("..",$D44,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M44" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F44,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M44" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E44,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N44" s="62" t="str">
-        <f aca="false">IF(M44="sh:Literal",F44,"")</f>
-        <v/>
-      </c>
-      <c r="O44" s="62" t="str">
-        <f aca="false">IF($M44="sh:IRI",IF($F44&lt;&gt;"",$F44,""),"")</f>
+      <c r="N44" s="64" t="str">
+        <f aca="false">IF(M44="sh:Literal",E44,"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="64" t="str">
+        <f aca="false">IF($M44="sh:IRI",IF($E44&lt;&gt;"",$E44,""),"")</f>
         <v>efrbroo:F24_Publication_Expression</v>
       </c>
-      <c r="P44" s="63" t="str">
-        <f aca="false">IF($M44&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F44)-1,0)=0,"","1"))</f>
+      <c r="P44" s="65" t="str">
+        <f aca="false">IF($M44&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E44)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="56" t="str">
+      <c r="A45" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A45))</f>
         <v>mus:P45</v>
       </c>
-      <c r="B45" s="57" t="s">
-        <v>60</v>
+      <c r="B45" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="61" t="str">
+        <v>185</v>
+      </c>
+      <c r="D45" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="68"/>
+      <c r="K45" s="63" t="str">
         <f aca="false">IF(LEFT($D45,SEARCH("..",$D45,1)-1)="n","",IF(LEFT($D45,SEARCH("..",$D45,1)-1)="0","",LEFT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="L45" s="61" t="str">
+      <c r="L45" s="63" t="str">
         <f aca="false">IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="n","",IF(RIGHT($D45,SEARCH("..",$D45,1)-1)="0","",RIGHT($D45,SEARCH("..",$D45,1)-1)))</f>
         <v/>
       </c>
-      <c r="M45" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M45" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E45,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N45" s="62" t="str">
-        <f aca="false">IF(M45="sh:Literal",F45,"")</f>
-        <v/>
-      </c>
-      <c r="O45" s="62" t="str">
-        <f aca="false">IF($M45="sh:IRI",IF($F45&lt;&gt;"",$F45,""),"")</f>
+      <c r="N45" s="64" t="str">
+        <f aca="false">IF(M45="sh:Literal",E45,"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="64" t="str">
+        <f aca="false">IF($M45="sh:IRI",IF($E45&lt;&gt;"",$E45,""),"")</f>
         <v>ecrm:E7_Activity</v>
       </c>
-      <c r="P45" s="63" t="str">
-        <f aca="false">IF($M45&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F45)-1,0)=0,"","1"))</f>
+      <c r="P45" s="65" t="str">
+        <f aca="false">IF($M45&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E45)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="56" t="str">
+      <c r="A46" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A46))</f>
         <v>mus:P46</v>
       </c>
-      <c r="B46" s="57" t="s">
-        <v>60</v>
+      <c r="B46" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="K46" s="61" t="str">
+        <v>187</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="J46" s="68"/>
+      <c r="K46" s="63" t="str">
         <f aca="false">IF(LEFT($D46,SEARCH("..",$D46,1)-1)="n","",IF(LEFT($D46,SEARCH("..",$D46,1)-1)="0","",LEFT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v/>
       </c>
-      <c r="L46" s="61" t="str">
+      <c r="L46" s="63" t="str">
         <f aca="false">IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="n","",IF(RIGHT($D46,SEARCH("..",$D46,1)-1)="0","",RIGHT($D46,SEARCH("..",$D46,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M46" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F46,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M46" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E46,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N46" s="62" t="str">
-        <f aca="false">IF(M46="sh:Literal",F46,"")</f>
-        <v/>
-      </c>
-      <c r="O46" s="62" t="str">
-        <f aca="false">IF($M46="sh:IRI",IF($F46&lt;&gt;"",$F46,""),"")</f>
+      <c r="N46" s="64" t="str">
+        <f aca="false">IF(M46="sh:Literal",E46,"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="64" t="str">
+        <f aca="false">IF($M46="sh:IRI",IF($E46&lt;&gt;"",$E46,""),"")</f>
         <v>ecrm:E52_Time-Span</v>
       </c>
-      <c r="P46" s="63" t="str">
-        <f aca="false">IF($M46&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F46)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="P47" s="54"/>
-      <c r="X47" s="51"/>
+      <c r="P46" s="65" t="str">
+        <f aca="false">IF($M46&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E46)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="P47" s="55"/>
+      <c r="X47" s="56"/>
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="56" t="str">
+      <c r="A48" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A48))</f>
         <v>mus:P48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="65"/>
-      <c r="G48" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="K48" s="61" t="str">
+        <v>190</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="J48" s="68"/>
+      <c r="K48" s="63" t="str">
         <f aca="false">IF(LEFT($D48,SEARCH("..",$D48,1)-1)="n","",IF(LEFT($D48,SEARCH("..",$D48,1)-1)="0","",LEFT($D48,SEARCH("..",$D48,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L48" s="61" t="str">
+      <c r="L48" s="63" t="str">
         <f aca="false">IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="n","",IF(RIGHT($D48,SEARCH("..",$D48,1)-1)="0","",RIGHT($D48,SEARCH("..",$D48,1)-1)))</f>
         <v/>
       </c>
-      <c r="M48" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M48" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E48,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N48" s="62" t="str">
-        <f aca="false">IF(M48="sh:Literal",F48,"")</f>
-        <v/>
-      </c>
-      <c r="O48" s="62" t="str">
-        <f aca="false">IF($M48="sh:IRI",IF($F48&lt;&gt;"",$F48,""),"")</f>
-        <v/>
-      </c>
-      <c r="P48" s="63" t="str">
-        <f aca="false">IF($M48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F48)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="56" t="str">
+      <c r="N48" s="64" t="str">
+        <f aca="false">IF(M48="sh:Literal",E48,"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="64" t="str">
+        <f aca="false">IF($M48="sh:IRI",IF($E48&lt;&gt;"",$E48,""),"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="65" t="str">
+        <f aca="false">IF($M48&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E48)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A49))</f>
         <v>mus:P49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="65"/>
-      <c r="G49" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="K49" s="61" t="str">
+        <v>192</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="0"/>
+      <c r="F49" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="J49" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="63" t="str">
         <f aca="false">IF(LEFT($D49,SEARCH("..",$D49,1)-1)="n","",IF(LEFT($D49,SEARCH("..",$D49,1)-1)="0","",LEFT($D49,SEARCH("..",$D49,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="L49" s="61" t="str">
+        <v>1</v>
+      </c>
+      <c r="L49" s="63" t="str">
         <f aca="false">IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="n","",IF(RIGHT($D49,SEARCH("..",$D49,1)-1)="0","",RIGHT($D49,SEARCH("..",$D49,1)-1)))</f>
         <v/>
       </c>
-      <c r="M49" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M49" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($J49,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N49" s="62" t="str">
-        <f aca="false">IF(M49="sh:Literal",F49,"")</f>
-        <v/>
-      </c>
-      <c r="O49" s="62" t="str">
-        <f aca="false">IF($M49="sh:IRI",IF($F49&lt;&gt;"",$F49,""),"")</f>
-        <v/>
-      </c>
-      <c r="P49" s="63" t="str">
-        <f aca="false">IF($M49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F49)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="P50" s="54"/>
-      <c r="X50" s="51"/>
+      <c r="N49" s="64" t="str">
+        <f aca="false">IF(M49="sh:Literal",J49,"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="64" t="str">
+        <f aca="false">IF($M49="sh:IRI",IF($E49&lt;&gt;"",$E49,""),"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="65" t="str">
+        <f aca="false">IF($M49&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E49)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="P50" s="55"/>
+      <c r="X50" s="56"/>
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="56" t="str">
+      <c r="A51" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A51))</f>
         <v>mus:P51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="I51" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" s="61" t="str">
+        <v>196</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="J51" s="68"/>
+      <c r="K51" s="63" t="str">
         <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L51" s="61" t="str">
+      <c r="L51" s="63" t="str">
         <f aca="false">IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="n","",IF(RIGHT($D51,SEARCH("..",$D51,1)-1)="0","",RIGHT($D51,SEARCH("..",$D51,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M51" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M51" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E51,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N51" s="62" t="str">
-        <f aca="false">IF(M51="sh:Literal",F51,"")</f>
+      <c r="N51" s="64" t="str">
+        <f aca="false">IF(M51="sh:Literal",E51,"")</f>
         <v>xsd:integer</v>
       </c>
-      <c r="O51" s="62" t="str">
-        <f aca="false">IF($M51="sh:IRI",IF($F51&lt;&gt;"",$F51,""),"")</f>
-        <v/>
-      </c>
-      <c r="P51" s="63" t="str">
-        <f aca="false">IF($M51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F51)-1,0)=0,"","1"))</f>
+      <c r="O51" s="64" t="str">
+        <f aca="false">IF($M51="sh:IRI",IF($E51&lt;&gt;"",$E51,""),"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="65" t="str">
+        <f aca="false">IF($M51&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E51)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="56" t="str">
+      <c r="A52" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A52))</f>
         <v>mus:P52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="I52" s="78"/>
-      <c r="K52" s="61" t="str">
+        <v>200</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="H52" s="81"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="63" t="str">
         <f aca="false">IF(LEFT($D52,SEARCH("..",$D52,1)-1)="n","",IF(LEFT($D52,SEARCH("..",$D52,1)-1)="0","",LEFT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L52" s="61" t="str">
+      <c r="L52" s="63" t="str">
         <f aca="false">IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="n","",IF(RIGHT($D52,SEARCH("..",$D52,1)-1)="0","",RIGHT($D52,SEARCH("..",$D52,1)-1)))</f>
         <v/>
       </c>
-      <c r="M52" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M52" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E52,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N52" s="62" t="str">
-        <f aca="false">IF(M52="sh:Literal",F52,"")</f>
-        <v/>
-      </c>
-      <c r="O52" s="62" t="str">
-        <f aca="false">IF($M52="sh:IRI",IF($F52&lt;&gt;"",$F52,""),"")</f>
+      <c r="N52" s="64" t="str">
+        <f aca="false">IF(M52="sh:Literal",E52,"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="64" t="str">
+        <f aca="false">IF($M52="sh:IRI",IF($E52&lt;&gt;"",$E52,""),"")</f>
         <v>mus:M23_Casting_Detail</v>
       </c>
-      <c r="P52" s="63" t="str">
-        <f aca="false">IF($M52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F52)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="P53" s="54"/>
-      <c r="X53" s="51"/>
+      <c r="P52" s="65" t="str">
+        <f aca="false">IF($M52&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E52)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="P53" s="55"/>
+      <c r="X53" s="56"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="56" t="str">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A54))</f>
         <v>mus:P54</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>64</v>
+      <c r="B54" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="I54" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="K54" s="61" t="str">
+        <v>203</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="J54" s="68"/>
+      <c r="K54" s="63" t="str">
         <f aca="false">IF(LEFT($D54,SEARCH("..",$D54,1)-1)="n","",IF(LEFT($D54,SEARCH("..",$D54,1)-1)="0","",LEFT($D54,SEARCH("..",$D54,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L54" s="61" t="str">
+        <v/>
+      </c>
+      <c r="L54" s="63" t="str">
         <f aca="false">IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="n","",IF(RIGHT($D54,SEARCH("..",$D54,1)-1)="0","",RIGHT($D54,SEARCH("..",$D54,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M54" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M54" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E54,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N54" s="62" t="str">
-        <f aca="false">IF(M54="sh:Literal",F54,"")</f>
-        <v/>
-      </c>
-      <c r="O54" s="62" t="str">
-        <f aca="false">IF($M54="sh:IRI",IF($F54&lt;&gt;"",$F54,""),"")</f>
-        <v/>
-      </c>
-      <c r="P54" s="63" t="str">
-        <f aca="false">IF($M54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F54)-1,0)=0,"","1"))</f>
+      <c r="N54" s="64" t="str">
+        <f aca="false">IF(M54="sh:Literal",E54,"")</f>
+        <v/>
+      </c>
+      <c r="O54" s="64" t="str">
+        <f aca="false">IF($M54="sh:IRI",IF($E54&lt;&gt;"",$E54,""),"")</f>
+        <v>philharshapes:MIMO</v>
+      </c>
+      <c r="P54" s="65" t="str">
+        <f aca="false">IF($M54&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E54)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="str">
+      <c r="A55" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A55))</f>
         <v>mus:P55</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>64</v>
+      <c r="B55" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="K55" s="61" t="str">
+        <v>206</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="J55" s="68"/>
+      <c r="K55" s="63" t="str">
         <f aca="false">IF(LEFT($D55,SEARCH("..",$D55,1)-1)="n","",IF(LEFT($D55,SEARCH("..",$D55,1)-1)="0","",LEFT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v/>
       </c>
-      <c r="L55" s="61" t="str">
+      <c r="L55" s="63" t="str">
         <f aca="false">IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="n","",IF(RIGHT($D55,SEARCH("..",$D55,1)-1)="0","",RIGHT($D55,SEARCH("..",$D55,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M55" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M55" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E55,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N55" s="62" t="str">
-        <f aca="false">IF(M55="sh:Literal",F55,"")</f>
-        <v/>
-      </c>
-      <c r="O55" s="62" t="str">
-        <f aca="false">IF($M55="sh:IRI",IF($F55&lt;&gt;"",$F55,""),"")</f>
-        <v/>
-      </c>
-      <c r="P55" s="63" t="str">
-        <f aca="false">IF($M55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F55)-1,0)=0,"","1"))</f>
+      <c r="N55" s="64" t="str">
+        <f aca="false">IF(M55="sh:Literal",E55,"")</f>
+        <v/>
+      </c>
+      <c r="O55" s="64" t="str">
+        <f aca="false">IF($M55="sh:IRI",IF($E55&lt;&gt;"",$E55,""),"")</f>
+        <v>philharshapes:IAML</v>
+      </c>
+      <c r="P55" s="65" t="str">
+        <f aca="false">IF($M55&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E55)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="56" t="str">
+      <c r="A56" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A56))</f>
         <v>mus:P56</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>64</v>
+      <c r="B56" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="65"/>
-      <c r="G56" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="K56" s="61" t="str">
+        <v>208</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="68"/>
+      <c r="K56" s="63" t="str">
         <f aca="false">IF(LEFT($D56,SEARCH("..",$D56,1)-1)="n","",IF(LEFT($D56,SEARCH("..",$D56,1)-1)="0","",LEFT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v/>
       </c>
-      <c r="L56" s="61" t="str">
+      <c r="L56" s="63" t="str">
         <f aca="false">IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="n","",IF(RIGHT($D56,SEARCH("..",$D56,1)-1)="0","",RIGHT($D56,SEARCH("..",$D56,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M56" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F56,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M56" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E56,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N56" s="62" t="str">
-        <f aca="false">IF(M56="sh:Literal",F56,"")</f>
-        <v/>
-      </c>
-      <c r="O56" s="62" t="str">
-        <f aca="false">IF($M56="sh:IRI",IF($F56&lt;&gt;"",$F56,""),"")</f>
-        <v/>
-      </c>
-      <c r="P56" s="63" t="str">
-        <f aca="false">IF($M56&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F56)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="56" t="str">
+      <c r="N56" s="64" t="str">
+        <f aca="false">IF(M56="sh:Literal",E56,"")</f>
+        <v/>
+      </c>
+      <c r="O56" s="64" t="str">
+        <f aca="false">IF($M56="sh:IRI",IF($E56&lt;&gt;"",$E56,""),"")</f>
+        <v>philharshapes:EducationalLevel</v>
+      </c>
+      <c r="P56" s="65" t="str">
+        <f aca="false">IF($M56&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E56)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A57))</f>
         <v>mus:P57</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>64</v>
+      <c r="B57" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="F57" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="I57" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="K57" s="61" t="str">
+        <v>210</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" s="68"/>
+      <c r="K57" s="63" t="str">
         <f aca="false">IF(LEFT($D57,SEARCH("..",$D57,1)-1)="n","",IF(LEFT($D57,SEARCH("..",$D57,1)-1)="0","",LEFT($D57,SEARCH("..",$D57,1)-1)))</f>
         <v/>
       </c>
-      <c r="L57" s="61" t="str">
+      <c r="L57" s="63" t="str">
         <f aca="false">IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="n","",IF(RIGHT($D57,SEARCH("..",$D57,1)-1)="0","",RIGHT($D57,SEARCH("..",$D57,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M57" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
-      </c>
-      <c r="N57" s="62" t="str">
-        <f aca="false">IF(M57="sh:Literal",F57,"")</f>
-        <v>xsd:integer</v>
-      </c>
-      <c r="O57" s="62" t="str">
-        <f aca="false">IF($M57="sh:IRI",IF($F57&lt;&gt;"",$F57,""),"")</f>
-        <v/>
-      </c>
-      <c r="P57" s="63" t="str">
-        <f aca="false">IF($M57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F57)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="56" t="str">
+      <c r="M57" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E57,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N57" s="64" t="str">
+        <f aca="false">IF(M57="sh:Literal",E57,"")</f>
+        <v/>
+      </c>
+      <c r="O57" s="64" t="str">
+        <f aca="false">IF($M57="sh:IRI",IF($E57&lt;&gt;"",$E57,""),"")</f>
+        <v/>
+      </c>
+      <c r="P57" s="65" t="str">
+        <f aca="false">IF($M57&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E57)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A58))</f>
         <v>mus:P58</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>64</v>
+      <c r="B58" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="I58" s="79"/>
-      <c r="K58" s="61" t="str">
+        <v>212</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="J58" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="K58" s="63" t="str">
         <f aca="false">IF(LEFT($D58,SEARCH("..",$D58,1)-1)="n","",IF(LEFT($D58,SEARCH("..",$D58,1)-1)="0","",LEFT($D58,SEARCH("..",$D58,1)-1)))</f>
         <v/>
       </c>
-      <c r="L58" s="61" t="str">
+      <c r="L58" s="63" t="str">
         <f aca="false">IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="n","",IF(RIGHT($D58,SEARCH("..",$D58,1)-1)="0","",RIGHT($D58,SEARCH("..",$D58,1)-1)))</f>
-        <v/>
-      </c>
-      <c r="M58" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>1</v>
+      </c>
+      <c r="M58" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E58,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N58" s="62" t="str">
-        <f aca="false">IF(M58="sh:Literal",F58,"")</f>
-        <v>xsd:string</v>
-      </c>
-      <c r="O58" s="62" t="str">
-        <f aca="false">IF($M58="sh:IRI",IF($F58&lt;&gt;"",$F58,""),"")</f>
-        <v/>
-      </c>
-      <c r="P58" s="63" t="str">
-        <f aca="false">IF($M58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F58)-1,0)=0,"","1"))</f>
+      <c r="N58" s="64" t="str">
+        <f aca="false">IF(M58="sh:Literal",E58,"")</f>
+        <v>xsd:integer</v>
+      </c>
+      <c r="O58" s="64" t="str">
+        <f aca="false">IF($M58="sh:IRI",IF($E58&lt;&gt;"",$E58,""),"")</f>
+        <v/>
+      </c>
+      <c r="P58" s="65" t="str">
+        <f aca="false">IF($M58&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E58)-1,0)=0,"","1"))</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="56" t="str">
+      <c r="A59" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A59))</f>
         <v>mus:P59</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>64</v>
+      <c r="B59" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="65"/>
-      <c r="G59" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="I59" s="79"/>
-      <c r="K59" s="61" t="str">
+        <v>168</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="82"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="63" t="str">
         <f aca="false">IF(LEFT($D59,SEARCH("..",$D59,1)-1)="n","",IF(LEFT($D59,SEARCH("..",$D59,1)-1)="0","",LEFT($D59,SEARCH("..",$D59,1)-1)))</f>
         <v/>
       </c>
-      <c r="L59" s="61" t="str">
+      <c r="L59" s="63" t="str">
         <f aca="false">IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="n","",IF(RIGHT($D59,SEARCH("..",$D59,1)-1)="0","",RIGHT($D59,SEARCH("..",$D59,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="M59" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E59,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:Literal</v>
+      </c>
+      <c r="N59" s="64" t="str">
+        <f aca="false">IF(M59="sh:Literal",E59,"")</f>
+        <v>xsd:string</v>
+      </c>
+      <c r="O59" s="64" t="str">
+        <f aca="false">IF($M59="sh:IRI",IF($E59&lt;&gt;"",$E59,""),"")</f>
+        <v/>
+      </c>
+      <c r="P59" s="65" t="str">
+        <f aca="false">IF($M59&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E59)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A60))</f>
+        <v>mus:P60</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="H60" s="82"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="63" t="str">
+        <f aca="false">IF(LEFT($D60,SEARCH("..",$D60,1)-1)="n","",IF(LEFT($D60,SEARCH("..",$D60,1)-1)="0","",LEFT($D60,SEARCH("..",$D60,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="L60" s="63" t="str">
+        <f aca="false">IF(RIGHT($D60,SEARCH("..",$D60,1)-1)="n","",IF(RIGHT($D60,SEARCH("..",$D60,1)-1)="0","",RIGHT($D60,SEARCH("..",$D60,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M59" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F59,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M60" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E60,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N59" s="62" t="str">
-        <f aca="false">IF(M59="sh:Literal",F59,"")</f>
-        <v/>
-      </c>
-      <c r="O59" s="62" t="str">
-        <f aca="false">IF($M59="sh:IRI",IF($F59&lt;&gt;"",$F59,""),"")</f>
-        <v/>
-      </c>
-      <c r="P59" s="63" t="str">
-        <f aca="false">IF($M59&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F59)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="P60" s="54"/>
-      <c r="X60" s="51"/>
-      <c r="AMJ60" s="0"/>
-    </row>
-    <row r="61" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A61))</f>
-        <v>mus:P61</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="J61" s="82"/>
-      <c r="K61" s="61" t="str">
-        <f aca="false">IF(LEFT($D61,SEARCH("..",$D61,1)-1)="n","",IF(LEFT($D61,SEARCH("..",$D61,1)-1)="0","",LEFT($D61,SEARCH("..",$D61,1)-1)))</f>
+      <c r="N60" s="64" t="str">
+        <f aca="false">IF(M60="sh:Literal",E60,"")</f>
+        <v/>
+      </c>
+      <c r="O60" s="64" t="str">
+        <f aca="false">IF($M60="sh:IRI",IF($E60&lt;&gt;"",$E60,""),"")</f>
+        <v/>
+      </c>
+      <c r="P60" s="65" t="str">
+        <f aca="false">IF($M60&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E60)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="P61" s="55"/>
+      <c r="X61" s="56"/>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A62))</f>
+        <v>mus:P62</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="84"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="63" t="str">
+        <f aca="false">IF(LEFT($D62,SEARCH("..",$D62,1)-1)="n","",IF(LEFT($D62,SEARCH("..",$D62,1)-1)="0","",LEFT($D62,SEARCH("..",$D62,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L61" s="61" t="str">
-        <f aca="false">IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="n","",IF(RIGHT($D61,SEARCH("..",$D61,1)-1)="0","",RIGHT($D61,SEARCH("..",$D61,1)-1)))</f>
+      <c r="L62" s="63" t="str">
+        <f aca="false">IF(RIGHT($D62,SEARCH("..",$D62,1)-1)="n","",IF(RIGHT($D62,SEARCH("..",$D62,1)-1)="0","",RIGHT($D62,SEARCH("..",$D62,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M61" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F61,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M62" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E62,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N61" s="83" t="str">
-        <f aca="false">IF(M61="sh:Literal",F61,"")</f>
+      <c r="N62" s="85" t="str">
+        <f aca="false">IF(M62="sh:Literal",E62,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O61" s="62" t="str">
-        <f aca="false">IF($M61="sh:IRI",IF($F61&lt;&gt;"",$F61,""),"")</f>
-        <v/>
-      </c>
-      <c r="P61" s="83" t="str">
-        <f aca="false">IF($M61&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F61)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X61" s="84"/>
-      <c r="AMJ61" s="0"/>
-    </row>
-    <row r="62" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="P62" s="54"/>
-      <c r="X62" s="51"/>
+      <c r="O62" s="64" t="str">
+        <f aca="false">IF($M62="sh:IRI",IF($E62&lt;&gt;"",$E62,""),"")</f>
+        <v/>
+      </c>
+      <c r="P62" s="85" t="str">
+        <f aca="false">IF($M62&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E62)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X62" s="86"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A63))</f>
-        <v>mus:P63</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="65"/>
-      <c r="F63" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="K63" s="61" t="str">
-        <f aca="false">IF(LEFT($D63,SEARCH("..",$D63,1)-1)="n","",IF(LEFT($D63,SEARCH("..",$D63,1)-1)="0","",LEFT($D63,SEARCH("..",$D63,1)-1)))</f>
+    <row r="63" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="53"/>
+      <c r="F63" s="54"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="P63" s="55"/>
+      <c r="X63" s="56"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A64))</f>
+        <v>mus:P64</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="J64" s="68"/>
+      <c r="K64" s="63" t="str">
+        <f aca="false">IF(LEFT($D64,SEARCH("..",$D64,1)-1)="n","",IF(LEFT($D64,SEARCH("..",$D64,1)-1)="0","",LEFT($D64,SEARCH("..",$D64,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L63" s="61" t="str">
-        <f aca="false">IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="n","",IF(RIGHT($D63,SEARCH("..",$D63,1)-1)="0","",RIGHT($D63,SEARCH("..",$D63,1)-1)))</f>
+      <c r="L64" s="63" t="str">
+        <f aca="false">IF(RIGHT($D64,SEARCH("..",$D64,1)-1)="n","",IF(RIGHT($D64,SEARCH("..",$D64,1)-1)="0","",RIGHT($D64,SEARCH("..",$D64,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M63" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F63,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M64" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E64,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N63" s="83" t="str">
-        <f aca="false">IF(M63="sh:Literal",F63,"")</f>
+      <c r="N64" s="85" t="str">
+        <f aca="false">IF(M64="sh:Literal",E64,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O63" s="62" t="str">
-        <f aca="false">IF($M63="sh:IRI",IF($F63&lt;&gt;"",$F63,""),"")</f>
-        <v/>
-      </c>
-      <c r="P63" s="83" t="str">
-        <f aca="false">IF($M63&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F63)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="P64" s="54"/>
-      <c r="X64" s="51"/>
-      <c r="AMJ64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A65))</f>
-        <v>mus:P65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="65"/>
-      <c r="F65" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G65" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="K65" s="61" t="str">
-        <f aca="false">IF(LEFT($D65,SEARCH("..",$D65,1)-1)="n","",IF(LEFT($D65,SEARCH("..",$D65,1)-1)="0","",LEFT($D65,SEARCH("..",$D65,1)-1)))</f>
+      <c r="O64" s="64" t="str">
+        <f aca="false">IF($M64="sh:IRI",IF($E64&lt;&gt;"",$E64,""),"")</f>
+        <v/>
+      </c>
+      <c r="P64" s="85" t="str">
+        <f aca="false">IF($M64&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E64)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="53"/>
+      <c r="F65" s="54"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="P65" s="55"/>
+      <c r="X65" s="56"/>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A66))</f>
+        <v>mus:P66</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="J66" s="68"/>
+      <c r="K66" s="63" t="str">
+        <f aca="false">IF(LEFT($D66,SEARCH("..",$D66,1)-1)="n","",IF(LEFT($D66,SEARCH("..",$D66,1)-1)="0","",LEFT($D66,SEARCH("..",$D66,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L65" s="61" t="str">
-        <f aca="false">IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="n","",IF(RIGHT($D65,SEARCH("..",$D65,1)-1)="0","",RIGHT($D65,SEARCH("..",$D65,1)-1)))</f>
+      <c r="L66" s="63" t="str">
+        <f aca="false">IF(RIGHT($D66,SEARCH("..",$D66,1)-1)="n","",IF(RIGHT($D66,SEARCH("..",$D66,1)-1)="0","",RIGHT($D66,SEARCH("..",$D66,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M65" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F65,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M66" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E66,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N65" s="83" t="str">
-        <f aca="false">IF(M65="sh:Literal",F65,"")</f>
+      <c r="N66" s="85" t="str">
+        <f aca="false">IF(M66="sh:Literal",E66,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O65" s="62" t="str">
-        <f aca="false">IF($M65="sh:IRI",IF($F65&lt;&gt;"",$F65,""),"")</f>
-        <v/>
-      </c>
-      <c r="P65" s="83" t="str">
-        <f aca="false">IF($M65&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F65)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="P66" s="54"/>
-      <c r="X66" s="51"/>
-      <c r="AMJ66" s="0"/>
-    </row>
-    <row r="67" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A67))</f>
-        <v>mus:P67</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="65"/>
-      <c r="F67" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="J67" s="82"/>
-      <c r="K67" s="61" t="str">
-        <f aca="false">IF(LEFT($D67,SEARCH("..",$D67,1)-1)="n","",IF(LEFT($D67,SEARCH("..",$D67,1)-1)="0","",LEFT($D67,SEARCH("..",$D67,1)-1)))</f>
+      <c r="O66" s="64" t="str">
+        <f aca="false">IF($M66="sh:IRI",IF($E66&lt;&gt;"",$E66,""),"")</f>
+        <v/>
+      </c>
+      <c r="P66" s="85" t="str">
+        <f aca="false">IF($M66&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E66)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" s="53"/>
+      <c r="F67" s="54"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="56"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="P67" s="55"/>
+      <c r="X67" s="56"/>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A68))</f>
+        <v>mus:P68</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="I68" s="84"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="63" t="str">
+        <f aca="false">IF(LEFT($D68,SEARCH("..",$D68,1)-1)="n","",IF(LEFT($D68,SEARCH("..",$D68,1)-1)="0","",LEFT($D68,SEARCH("..",$D68,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L67" s="61" t="str">
-        <f aca="false">IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="n","",IF(RIGHT($D67,SEARCH("..",$D67,1)-1)="0","",RIGHT($D67,SEARCH("..",$D67,1)-1)))</f>
+      <c r="L68" s="63" t="str">
+        <f aca="false">IF(RIGHT($D68,SEARCH("..",$D68,1)-1)="n","",IF(RIGHT($D68,SEARCH("..",$D68,1)-1)="0","",RIGHT($D68,SEARCH("..",$D68,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M67" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F67,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M68" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E68,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N67" s="83" t="str">
-        <f aca="false">IF(M67="sh:Literal",F67,"")</f>
+      <c r="N68" s="85" t="str">
+        <f aca="false">IF(M68="sh:Literal",E68,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O67" s="62" t="str">
-        <f aca="false">IF($M67="sh:IRI",IF($F67&lt;&gt;"",$F67,""),"")</f>
-        <v/>
-      </c>
-      <c r="P67" s="83" t="str">
-        <f aca="false">IF($M67&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F67)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X67" s="84"/>
-      <c r="AMJ67" s="0"/>
-    </row>
-    <row r="68" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="E68" s="51"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-      <c r="P68" s="54"/>
-      <c r="X68" s="51"/>
+      <c r="O68" s="64" t="str">
+        <f aca="false">IF($M68="sh:IRI",IF($E68&lt;&gt;"",$E68,""),"")</f>
+        <v/>
+      </c>
+      <c r="P68" s="85" t="str">
+        <f aca="false">IF($M68&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E68)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X68" s="86"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A69))</f>
-        <v>mus:P69</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="65"/>
-      <c r="F69" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="J69" s="82"/>
-      <c r="K69" s="61" t="str">
-        <f aca="false">IF(LEFT($D69,SEARCH("..",$D69,1)-1)="n","",IF(LEFT($D69,SEARCH("..",$D69,1)-1)="0","",LEFT($D69,SEARCH("..",$D69,1)-1)))</f>
+    <row r="69" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="53"/>
+      <c r="F69" s="54"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="P69" s="55"/>
+      <c r="X69" s="56"/>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A70))</f>
+        <v>mus:P70</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="I70" s="84"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="63" t="str">
+        <f aca="false">IF(LEFT($D70,SEARCH("..",$D70,1)-1)="n","",IF(LEFT($D70,SEARCH("..",$D70,1)-1)="0","",LEFT($D70,SEARCH("..",$D70,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L69" s="61" t="str">
-        <f aca="false">IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="n","",IF(RIGHT($D69,SEARCH("..",$D69,1)-1)="0","",RIGHT($D69,SEARCH("..",$D69,1)-1)))</f>
+      <c r="L70" s="63" t="str">
+        <f aca="false">IF(RIGHT($D70,SEARCH("..",$D70,1)-1)="n","",IF(RIGHT($D70,SEARCH("..",$D70,1)-1)="0","",RIGHT($D70,SEARCH("..",$D70,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M69" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F69,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M70" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E70,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N69" s="83" t="str">
-        <f aca="false">IF(M69="sh:Literal",F69,"")</f>
+      <c r="N70" s="85" t="str">
+        <f aca="false">IF(M70="sh:Literal",E70,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O69" s="62" t="str">
-        <f aca="false">IF($M69="sh:IRI",IF($F69&lt;&gt;"",$F69,""),"")</f>
-        <v/>
-      </c>
-      <c r="P69" s="83" t="str">
-        <f aca="false">IF($M69&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F69)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X69" s="84"/>
-      <c r="AMJ69" s="0"/>
-    </row>
-    <row r="70" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="P70" s="54"/>
-      <c r="X70" s="51"/>
+      <c r="O70" s="64" t="str">
+        <f aca="false">IF($M70="sh:IRI",IF($E70&lt;&gt;"",$E70,""),"")</f>
+        <v/>
+      </c>
+      <c r="P70" s="85" t="str">
+        <f aca="false">IF($M70&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E70)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X70" s="86"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A71))</f>
-        <v>mus:P71</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="65"/>
-      <c r="F71" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G71" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="K71" s="61" t="str">
-        <f aca="false">IF(LEFT($D71,SEARCH("..",$D71,1)-1)="n","",IF(LEFT($D71,SEARCH("..",$D71,1)-1)="0","",LEFT($D71,SEARCH("..",$D71,1)-1)))</f>
+    <row r="71" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="P71" s="55"/>
+      <c r="X71" s="56"/>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A72))</f>
+        <v>mus:P72</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="68"/>
+      <c r="K72" s="63" t="str">
+        <f aca="false">IF(LEFT($D72,SEARCH("..",$D72,1)-1)="n","",IF(LEFT($D72,SEARCH("..",$D72,1)-1)="0","",LEFT($D72,SEARCH("..",$D72,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L71" s="61" t="str">
-        <f aca="false">IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="n","",IF(RIGHT($D71,SEARCH("..",$D71,1)-1)="0","",RIGHT($D71,SEARCH("..",$D71,1)-1)))</f>
+      <c r="L72" s="63" t="str">
+        <f aca="false">IF(RIGHT($D72,SEARCH("..",$D72,1)-1)="n","",IF(RIGHT($D72,SEARCH("..",$D72,1)-1)="0","",RIGHT($D72,SEARCH("..",$D72,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M71" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F71,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M72" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E72,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N71" s="83" t="str">
-        <f aca="false">IF(M71="sh:Literal",F71,"")</f>
+      <c r="N72" s="85" t="str">
+        <f aca="false">IF(M72="sh:Literal",E72,"")</f>
         <v>xsd:string</v>
       </c>
-      <c r="O71" s="62" t="str">
-        <f aca="false">IF($M71="sh:IRI",IF($F71&lt;&gt;"",$F71,""),"")</f>
-        <v/>
-      </c>
-      <c r="P71" s="83" t="str">
-        <f aca="false">IF($M71&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F71)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="55"/>
-      <c r="P72" s="54"/>
-      <c r="X72" s="51"/>
-      <c r="AMJ72" s="0"/>
-    </row>
-    <row r="73" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="56" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A73))</f>
-        <v>mus:P73</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="65"/>
-      <c r="F73" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="G73" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="J73" s="82"/>
-      <c r="K73" s="61" t="str">
-        <f aca="false">IF(LEFT($D73,SEARCH("..",$D73,1)-1)="n","",IF(LEFT($D73,SEARCH("..",$D73,1)-1)="0","",LEFT($D73,SEARCH("..",$D73,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="L73" s="61" t="str">
-        <f aca="false">IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="n","",IF(RIGHT($D73,SEARCH("..",$D73,1)-1)="0","",RIGHT($D73,SEARCH("..",$D73,1)-1)))</f>
-        <v>1</v>
-      </c>
-      <c r="M73" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F73,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
-        <v>sh:Literal</v>
-      </c>
-      <c r="N73" s="83" t="str">
-        <f aca="false">IF(M73="sh:Literal",F73,"")</f>
-        <v>xsd:string</v>
-      </c>
-      <c r="O73" s="62" t="str">
-        <f aca="false">IF($M73="sh:IRI",IF($F73&lt;&gt;"",$F73,""),"")</f>
-        <v/>
-      </c>
-      <c r="P73" s="83" t="str">
-        <f aca="false">IF($M73&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F73)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X73" s="84"/>
+      <c r="O72" s="64" t="str">
+        <f aca="false">IF($M72="sh:IRI",IF($E72&lt;&gt;"",$E72,""),"")</f>
+        <v/>
+      </c>
+      <c r="P72" s="85" t="str">
+        <f aca="false">IF($M72&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E72)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="54"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="P73" s="55"/>
+      <c r="X73" s="56"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" s="81" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="56" t="str">
+    <row r="74" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="58" t="str">
         <f aca="false">CONCATENATE("mus:P",ROW(A74))</f>
         <v>mus:P74</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" s="65"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="J74" s="82"/>
-      <c r="K74" s="61" t="str">
+        <v>25</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="I74" s="84"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="63" t="str">
         <f aca="false">IF(LEFT($D74,SEARCH("..",$D74,1)-1)="n","",IF(LEFT($D74,SEARCH("..",$D74,1)-1)="0","",LEFT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L74" s="61" t="str">
+      <c r="L74" s="63" t="str">
         <f aca="false">IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="n","",IF(RIGHT($D74,SEARCH("..",$D74,1)-1)="0","",RIGHT($D74,SEARCH("..",$D74,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M74" s="62" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F74,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M74" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E74,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:Literal</v>
+      </c>
+      <c r="N74" s="85" t="str">
+        <f aca="false">IF(M74="sh:Literal",E74,"")</f>
+        <v>xsd:string</v>
+      </c>
+      <c r="O74" s="64" t="str">
+        <f aca="false">IF($M74="sh:IRI",IF($E74&lt;&gt;"",$E74,""),"")</f>
+        <v/>
+      </c>
+      <c r="P74" s="85" t="str">
+        <f aca="false">IF($M74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E74)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X74" s="86"/>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" s="83" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="58" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A75))</f>
+        <v>mus:P75</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="0"/>
+      <c r="F75" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75" s="84"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="63" t="str">
+        <f aca="false">IF(LEFT($D75,SEARCH("..",$D75,1)-1)="n","",IF(LEFT($D75,SEARCH("..",$D75,1)-1)="0","",LEFT($D75,SEARCH("..",$D75,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L75" s="63" t="str">
+        <f aca="false">IF(RIGHT($D75,SEARCH("..",$D75,1)-1)="n","",IF(RIGHT($D75,SEARCH("..",$D75,1)-1)="0","",RIGHT($D75,SEARCH("..",$D75,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="M75" s="64" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E75,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:IRI</v>
       </c>
-      <c r="N74" s="62" t="str">
-        <f aca="false">IF(M74="sh:Literal",F74,"")</f>
-        <v/>
-      </c>
-      <c r="O74" s="62" t="str">
-        <f aca="false">IF($M74="sh:IRI",IF($F74&lt;&gt;"",$F74,""),"")</f>
-        <v/>
-      </c>
-      <c r="P74" s="63" t="str">
-        <f aca="false">IF($M74&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F74)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X74" s="84"/>
-      <c r="AMJ74" s="0"/>
-    </row>
-    <row r="75" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="55"/>
-      <c r="P75" s="54"/>
-      <c r="X75" s="51"/>
+      <c r="N75" s="64" t="str">
+        <f aca="false">IF(M75="sh:Literal",E75,"")</f>
+        <v/>
+      </c>
+      <c r="O75" s="64" t="str">
+        <f aca="false">IF($M75="sh:IRI",IF($E75&lt;&gt;"",$E75,""),"")</f>
+        <v/>
+      </c>
+      <c r="P75" s="65" t="str">
+        <f aca="false">IF($M75&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E75)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X75" s="86"/>
       <c r="AMJ75" s="0"/>
     </row>
-    <row r="76" s="69" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="68" t="str">
-        <f aca="false">CONCATENATE("mus:P",ROW(A76))</f>
-        <v>mus:P76</v>
-      </c>
-      <c r="B76" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="65"/>
-      <c r="F76" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="G76" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="61" t="str">
-        <f aca="false">IF(LEFT($D76,SEARCH("..",$D76,1)-1)="n","",IF(LEFT($D76,SEARCH("..",$D76,1)-1)="0","",LEFT($D76,SEARCH("..",$D76,1)-1)))</f>
+    <row r="76" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="54"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="P76" s="55"/>
+      <c r="X76" s="56"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" s="71" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="70" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A77))</f>
+        <v>mus:P77</v>
+      </c>
+      <c r="B77" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="63" t="str">
+        <f aca="false">IF(LEFT($D77,SEARCH("..",$D77,1)-1)="n","",IF(LEFT($D77,SEARCH("..",$D77,1)-1)="0","",LEFT($D77,SEARCH("..",$D77,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="L76" s="61" t="str">
-        <f aca="false">IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="n","",IF(RIGHT($D76,SEARCH("..",$D76,1)-1)="0","",RIGHT($D76,SEARCH("..",$D76,1)-1)))</f>
+      <c r="L77" s="63" t="str">
+        <f aca="false">IF(RIGHT($D77,SEARCH("..",$D77,1)-1)="n","",IF(RIGHT($D77,SEARCH("..",$D77,1)-1)="0","",RIGHT($D77,SEARCH("..",$D77,1)-1)))</f>
         <v>1</v>
       </c>
-      <c r="M76" s="76" t="str">
-        <f aca="false">IF(IFERROR(VLOOKUP($F76,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+      <c r="M77" s="78" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E77,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
         <v>sh:Literal</v>
       </c>
-      <c r="N76" s="85" t="str">
-        <f aca="false">IF(M76="sh:Literal",F76,"")</f>
+      <c r="N77" s="87" t="str">
+        <f aca="false">IF(M77="sh:Literal",E77,"")</f>
         <v>xsd:gYear</v>
       </c>
-      <c r="O76" s="62" t="str">
-        <f aca="false">IF($M76="sh:IRI",IF($F76&lt;&gt;"",$F76,""),"")</f>
-        <v/>
-      </c>
-      <c r="P76" s="85" t="str">
-        <f aca="false">IF($M76&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$F76)-1,0)=0,"","1"))</f>
-        <v/>
-      </c>
-      <c r="X76" s="73"/>
-      <c r="AMJ76" s="0"/>
+      <c r="O77" s="64" t="str">
+        <f aca="false">IF($M77="sh:IRI",IF($E77&lt;&gt;"",$E77,""),"")</f>
+        <v/>
+      </c>
+      <c r="P77" s="87" t="str">
+        <f aca="false">IF($M77&lt;&gt;"sh:IRI","",IF(IFERROR(SEARCH(",",$E77)-1,0)=0,"","1"))</f>
+        <v/>
+      </c>
+      <c r="X77" s="74"/>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="53"/>
+      <c r="F78" s="54"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="P78" s="55"/>
+      <c r="X78" s="56"/>
+      <c r="AMJ78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="70" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A79))</f>
+        <v>mus:P79</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K79" s="63" t="str">
+        <f aca="false">IF(LEFT($D79,SEARCH("..",$D79,1)-1)="n","",IF(LEFT($D79,SEARCH("..",$D79,1)-1)="0","",LEFT($D79,SEARCH("..",$D79,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L79" s="63" t="str">
+        <f aca="false">IF(RIGHT($D79,SEARCH("..",$D79,1)-1)="n","",IF(RIGHT($D79,SEARCH("..",$D79,1)-1)="0","",RIGHT($D79,SEARCH("..",$D79,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="M79" s="78" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E79,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N79" s="87" t="str">
+        <f aca="false">IF(M79="sh:Literal",E79,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" s="53"/>
+      <c r="F80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="P80" s="55"/>
+      <c r="X80" s="56"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="70" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A81))</f>
+        <v>mus:P81</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" s="63" t="str">
+        <f aca="false">IF(LEFT($D81,SEARCH("..",$D81,1)-1)="n","",IF(LEFT($D81,SEARCH("..",$D81,1)-1)="0","",LEFT($D81,SEARCH("..",$D81,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L81" s="63" t="str">
+        <f aca="false">IF(RIGHT($D81,SEARCH("..",$D81,1)-1)="n","",IF(RIGHT($D81,SEARCH("..",$D81,1)-1)="0","",RIGHT($D81,SEARCH("..",$D81,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="M81" s="78" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E81,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N81" s="87" t="str">
+        <f aca="false">IF(M81="sh:Literal",E81,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="53"/>
+      <c r="F82" s="54"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="57"/>
+      <c r="P82" s="55"/>
+      <c r="X82" s="56"/>
+      <c r="AMJ82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="70" t="str">
+        <f aca="false">CONCATENATE("mus:P",ROW(A83))</f>
+        <v>mus:P83</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" s="63" t="str">
+        <f aca="false">IF(LEFT($D83,SEARCH("..",$D83,1)-1)="n","",IF(LEFT($D83,SEARCH("..",$D83,1)-1)="0","",LEFT($D83,SEARCH("..",$D83,1)-1)))</f>
+        <v>1</v>
+      </c>
+      <c r="L83" s="63" t="str">
+        <f aca="false">IF(RIGHT($D83,SEARCH("..",$D83,1)-1)="n","",IF(RIGHT($D83,SEARCH("..",$D83,1)-1)="0","",RIGHT($D83,SEARCH("..",$D83,1)-1)))</f>
+        <v/>
+      </c>
+      <c r="M83" s="78" t="str">
+        <f aca="false">IF(IFERROR(VLOOKUP($E83,Catalogue!$A$2:$A$40,1,0),0) &lt;&gt; 0,"sh:Literal","sh:IRI")</f>
+        <v>sh:IRI</v>
+      </c>
+      <c r="N83" s="87" t="str">
+        <f aca="false">IF(M83="sh:Literal",E83,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5988,8 +6344,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.doremus.org/shapes/mus"/>
-    <hyperlink ref="G7" r:id="rId2" display="sh:name@en"/>
-    <hyperlink ref="G56" r:id="rId3" location="U90_foresees_creation_or_performance_mode" display="U90 foresees creation or performance mode"/>
+    <hyperlink ref="F7" r:id="rId2" display="sh:name@en"/>
+    <hyperlink ref="F57" r:id="rId3" location="U90_foresees_creation_or_performance_mode" display="U90 foresees creation or performance mode"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6009,864 +6365,864 @@
   <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G28 A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="86" t="s">
-        <v>220</v>
+      <c r="A1" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="88" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="s">
-        <v>221</v>
+      <c r="A2" s="89" t="s">
+        <v>237</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87" t="s">
-        <v>223</v>
+      <c r="A3" s="89" t="s">
+        <v>239</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="0" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="0" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="0" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="0" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="0" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="0" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="0" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="0" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="0" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="0" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="0" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="0" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="0" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="0" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="0" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="0" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="0" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="0" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="0" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="0" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="0" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="0" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="0" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="0" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="0" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="0" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="0" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="0" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="0" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="0" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="0" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="0" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="0" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="0" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="0" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="0" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="0" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="0" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="0" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="0" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="0" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="0" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="0" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="0" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="0" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="0" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="0" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="0" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="0" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="0" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="0" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="0" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="0" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="0" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="0" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="0" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="0" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="0" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="0" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="0" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="0" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E114" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E115" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E116" s="0" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E117" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E118" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E122" s="0" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E123" s="0" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E124" s="0" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E125" s="0" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E127" s="0" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E128" s="0" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E129" s="0" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E130" s="0" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E131" s="0" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E132" s="0" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E133" s="0" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E134" s="0" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E135" s="0" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E136" s="0" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E137" s="0" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E138" s="0" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E139" s="0" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E140" s="0" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="0" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E142" s="0" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E143" s="0" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E144" s="0" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="0" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E146" s="0" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E147" s="0" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E148" s="0" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
